--- a/data/excel/stack_candidate.xlsx
+++ b/data/excel/stack_candidate.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,6 +481,7 @@
           <t>경력 1년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -503,11 +504,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>sw,broadband,gateway,sw,broadband,gateway,sw,broadband,gateway,broadband,gateway,broadband,gateway,sw,framework,android,open,source,project,media,player,sw,framework,android,open,source,project,media,player,sw,framework,android,open,source,project,media,player,216,216,growth,wellness,work,family,refresh,growth,wellness,work,family,refresh,growth,wellness,work,family,refresh,https,www,humax,networks,com,kr,https,www,humax,networks,com,kr</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,11 +527,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>pon,sw,broadband,gateway,pon,sw,broadband,gateway,pon,sw,broadband,gateway,broadband,gateway,broadband,gateway,sw,omci,oam,gpon,linux,kernel,driver,ip,l2,protocol,or,gpon,ont,onu,olt,sw,igmp,tunneling,protocol,service,protocol,sw,omci,oam,gpon,linux,kernel,driver,ip,l2,protocol,or,gpon,ont,onu,olt,sw,igmp,tunneling,protocol,service,protocol,sw,omci,oam,gpon,linux,kernel,driver,ip,l2,protocol,or,gpon,ont,onu,olt,sw,igmp,tunneling,protocol,service,protocol,216,216,growth,wellness,work,family,refresh,growth,wellness,work,family,refresh,growth,wellness,work,family,refresh,https,www,humax,networks,com,kr,https,www,humax,networks,com,kr</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -557,11 +550,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>wifi,broadband,gateway,wifi,broadband,gateway,wifi,broadband,gateway,broadband,gateway,broadband,gateway,driver,porting,linux,ipc,soc,wifi,sw,igmp,tunneling,protocol,service,protocol,web,backend,driver,porting,linux,ipc,soc,wifi,sw,igmp,tunneling,protocol,service,protocol,web,backend,driver,porting,linux,ipc,soc,wifi,sw,igmp,tunneling,protocol,service,protocol,web,backend,216,216,no,can,you,speak,english,no,can,you,speak,english,https,www,humax,networks,com,kr,https,www,humax,networks,com,kr</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +573,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -606,11 +596,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>sm,sm,l2,l4,l7,7,layer,sm,ccna,09,00,18,00,60,ojt,sm,l2,l4,l7,7,layer,sm,ccna,sm,l2,l4,l7,7,layer,sm,ccna,sm,l2,l4,l7,7,layer,sm,ccna,09,00,18,00,60,09,00,18,00,60,ojt,ojt</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -633,6 +619,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -657,7 +644,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>k,ai,k,ai,k,ai,sw,ai,ai,full,stack,sw,k,ai,k,ai,k,ai,sw,ai,ai,full,stack,sw,1,ai,ai,sw,1,db,sql,ai,ai,sw,db,sql,python,servlet,jsp,spring,boot,html,css,react,next,js,typescript,python,9,493,80,1,ai,ai,sw,1,db,sql,ai,ai,sw,db,sql,python,servlet,jsp,spring,boot,html,css,react,next,js,typescript,python,db,sql,python,servlet,jsp,spring,boot,html,css,react,next,js,typescript,python,9,493,80,2,1,2,3,sw,4,5,6,7,it,sw,8,1,1350,2,1,2,3,sw,4,5,6,7,it,sw,8,1,2,3,sw,4,5,6,7,it,sw,8,1,1350,3,url,https,forms,gle,v9a1k9f41k4vcqvq6,juri3763,pusan,ac,kr,hrd,net,https,www,hrd,go,kr,ai,k,juri3763,pusan,ac,kr,051,510,3764,3,url,https,forms,gle,v9a1k9f41k4vcqvq6,juri3763,pusan,ac,kr,hrd,net,https,www,hrd,go,kr,ai,hrd,net,https,www,hrd,go,kr,ai,k,juri3763,pusan,ac,kr,051,510,3764,juri3763,pusan,ac,kr,051,510,3764</t>
+          <t>react,typescript,python,spring,go</t>
         </is>
       </c>
     </row>
@@ -682,6 +669,7 @@
           <t>경력 3년↑ · 계약직 외</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -704,6 +692,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -726,11 +715,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ir,ir,ir,erp,sap,erp,plm,5s,mct,cad,cam,mes,cad,3d,assembly,bom,data,cad,2d,3d,cad,solidworks,bom,pdm,report,shooting,utm,scope,lpc,xrd,gdms,audit,iso,ir,ir,ir,erp,sap,erp,plm,5s,mct,cad,cam,mes,cad,3d,assembly,bom,data,cad,2d,3d,cad,solidworks,bom,pdm,report,shooting,utm,scope,lpc,xrd,gdms,audit,iso,ir,ir,ir,erp,sap,erp,plm,5s,mct,cad,cam,mes,cad,3d,assembly,bom,data,cad,2d,3d,cad,solidworks,bom,pdm,report,shooting,utm,scope,lpc,xrd,gdms,audit,iso,53,77,13,53,77,13,53,77,13,53,77,13,23,59,23,59</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -753,6 +738,7 @@
           <t>3 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -775,11 +761,7 @@
           <t>경력 · 계약직</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,cad,photoshop,illustration,sketch,up,lumion,2,erp,3,4,5,6,mac,pc,7,8,9,strong,hrd,10,1,cad,photoshop,illustration,sketch,up,lumion,2,erp,3,4,5,6,mac,pc,7,8,9,strong,hrd,10,2025,4,17,4,24,2025,4,28,5,2,e,mail,2025,4,17,4,24,e,mail,15263,171,mail,bsjun,seoularts,ac,kr,e,mail,031,412,7141,2025,4,17,4,24,2025,4,28,5,2,e,mail,2025,4,17,4,24,e,mail,15263,171,mail,bsjun,seoularts,ac,kr,e,mail,031,412,7141,2025,4,17,4,24,2025,4,28,5,2,e,mail,2025,4,17,4,24,2025,4,28,5,2,e,mail,2025,4,17,4,24,e,mail,15263,171,mail,bsjun,seoularts,ac,kr,e,mail,031,412,7141</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -802,11 +784,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>c,c,c,c,simulator,cbt,simulator,cbt,c,it,09,00,18,00,08,00,10,00,14057,387,1201,800m,800m,simulator,cbt,simulator,cbt,c,it,simulator,cbt,simulator,cbt,c,it,simulator,cbt,simulator,cbt,c,it,09,00,18,00,08,00,10,00,14057,387,1201,800m,800m,09,00,18,00,08,00,10,00,14057,387,1201,800m,800m</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -831,7 +809,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sw,linux,rtos,c,c,sw,device,driver,pmas,pms,software,tool,sqlite,mysql,c,c,qc,iqc,pqc,excel,pm,apm,or,dcs,dcs,plc,or,opic,sw,linux,rtos,c,c,sw,device,driver,pmas,pms,software,tool,sqlite,mysql,c,c,qc,iqc,pqc,excel,pm,apm,or,dcs,dcs,plc,or,opic,sw,linux,rtos,c,c,sw,device,driver,pmas,pms,software,tool,sqlite,mysql,c,c,qc,iqc,pqc,excel,pm,apm,or,dcs,dcs,plc,or,opic,https,www,wooritg,com</t>
+          <t>mysql</t>
         </is>
       </c>
     </row>
@@ -858,7 +836,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2,d,flutter,net,android,javascript,mariadb,mysql,oracle,flutter,iot,15847,52,1016,1018,800m,2,d,flutter,net,android,javascript,mariadb,mysql,oracle,flutter,iot,2,2,flutter,net,android,javascript,mariadb,mysql,oracle,flutter,iot,flutter,net,android,javascript,mariadb,mysql,oracle,flutter,iot,iot,15847,52,1016,1018,800m,15847,52,1016,1018,800m</t>
+          <t>javascript,mariadb,mysql,flutter</t>
         </is>
       </c>
     </row>
@@ -883,11 +861,7 @@
           <t>경력무관 · 교육생</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ai,ai,r,d,ai</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -910,11 +884,7 @@
           <t>경력 · 정규직</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>d365,consulting,development,d365,consulting,development,d365,consulting,development,d365,consulting,development,d365,consulting,development,consulting,as,is,to,be,development,d365,cloud,erp,erp,ar,ap,im,pp,erp,erp,bom,dynamics,certificate,d365,consulting,development,consulting,as,is,to,be,development,d365,cloud,erp,erp,ar,ap,im,pp,erp,erp,bom,dynamics,certificate,d365,consulting,development,consulting,as,is,to,be,development,d365,cloud,erp,erp,ar,ap,im,pp,erp,erp,bom,dynamics,certificate,09,00,18,00,83,09,00,18,00,83</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -937,11 +907,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ok,ok,bar,ok,ok,bar,ok,ok,bar</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -964,6 +930,7 @@
           <t>신입 · 정규직</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -988,7 +955,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>03,01,04,30,03,01,04,30,home,page,home,page,home,page,5,7,3,6,tm,db,6,4,4,5,4,mysql,linux,6,5,5,7,3,6,tm,db,6,4,4,5,4,mysql,linux,6,5,5,7,3,6,tm,db,6,4,4,5,4,mysql,linux,6,5,tm,tm,tm,tm,jskshk2,naver,com,jskshk2,naver,com,jskshk2,naver,com,65,http,kr,jskshk2,naver,com,1661,9650,010,4115,4893,65,http,kr,jskshk2,naver,com,1661,9650,010,4115,4893,65,http,kr,jskshk2,naver,com,1661,9650,010,4115,4893</t>
+          <t>mysql</t>
         </is>
       </c>
     </row>
@@ -1013,11 +980,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>it,net,web,mssql,pjt,2025,08,3,0,3,0,4,5,toeic,speaking,opic,il,02,513,5616,biked85,kccworld,net,microsoft,edge,google,chrome,it,net,web,mssql,pjt,2025,08,3,0,3,0,4,5,toeic,speaking,opic,il,02,513,5616,biked85,kccworld,net,microsoft,edge,google,chrome,it,net,web,mssql,pjt,2025,08,3,0,3,0,4,5,toeic,speaking,opic,il,it,net,web,mssql,it,net,web,mssql,pjt,pjt,2025,08,3,0,3,0,4,5,toeic,speaking,opic,il,2025,08,3,0,3,0,4,5,toeic,speaking,opic,il,02,513,5616,biked85,kccworld,net,microsoft,edge,google,chrome,02,513,5616,biked85,kccworld,net,microsoft,edge,google,chrome,02,513,5616,biked85,kccworld,net,microsoft,edge,google,chrome</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1040,11 +1003,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>mmorpg,q9,mo,unreal,engine,pc,mmorpg,mmorpg,db,mmorpg,unreal,engine,5,umg,ui,unreal,engine,5,editor,commandlet,1,2,3,4,5,cafeteria,apply,xlgames,com,xlgames,xlgames,1,1</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1067,11 +1026,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>c,its,c,c,mfc,08,30,17,13493,240,1km,c,its,c,c,mfc,c,its,c,c,mfc,08,30,17,13493,240,1km,08,30,17,30,13493,240,1km</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1096,7 +1051,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>b2c,e,r,d,si,it,b2b,b2c,e,mobile,app,b2c,e,r,d,si,it,b2b,b2c,e,mobile,app,2,e,fo,bo,b2c,front,office,back,office,web,app,api,f,o,jsp,react,vue,js,html5,b,o,java,springboot,kubernetes,docker,jira,jenkins,09,00,18,04173,16,200m,1,2,2,e,fo,bo,b2c,front,office,back,office,web,app,api,f,o,jsp,react,vue,js,html5,b,o,java,springboot,kubernetes,docker,jira,jenkins,2,2,e,fo,bo,b2c,front,office,back,office,web,app,api,f,o,jsp,react,vue,js,html5,b,o,java,springboot,kubernetes,docker,jira,jenkins,fo,bo,b2c,front,office,back,office,web,app,api,f,o,jsp,react,vue,js,html5,b,o,java,springboot,kubernetes,docker,jira,jenkins,fo,bo,b2c,front,office,back,office,web,app,api,f,o,jsp,react,vue,js,html5,b,o,java,springboot,kubernetes,docker,jira,jenkins,09,00,18,04173,16,200m,09,00,18,00,04173,16,200m,1,2,1,2</t>
+          <t>react,vue,java,kubernetes,docker,jenkins</t>
         </is>
       </c>
     </row>
@@ -1121,6 +1076,7 @@
           <t>신입 · 정규직</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1145,7 +1101,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>index,100,index,100,cfa,cfa,phr,sphr,system,engineer,nas,san,linux,windows,os,linux,windows,os,vmware,private,cloud,ansible,argocd,zabbix,prometheus,grafana,ariflow,jenkins,openstack,db,ibm,unix,db,db,sql,stored,procedure,unix,linux,tibero,dbms,spring,framework,spring,boot,exadata,tibero,dbms,dbms,data,warehouse,etl,sql,kafka,c,python,cfa,cpa,python,sql,mariadb,kotlin,scala,methodology,cfa,cfa,phr,sphr,system,engineer,nas,san,linux,windows,os,linux,windows,os,vmware,private,cloud,ansible,argocd,zabbix,prometheus,grafana,ariflow,jenkins,openstack,db,ibm,unix,db,db,sql,stored,procedure,unix,linux,tibero,dbms,spring,framework,spring,boot,exadata,tibero,dbms,dbms,data,warehouse,etl,sql,kafka,c,python,cfa,cpa,python,sql,mariadb,kotlin,scala,methodology,cfa,cfa,phr,sphr,system,engineer,nas,san,linux,windows,os,linux,windows,os,vmware,private,cloud,ansible,argocd,zabbix,prometheus,grafana,ariflow,jenkins,openstack,db,ibm,unix,db,db,sql,stored,procedure,unix,linux,tibero,dbms,spring,framework,spring,boot,exadata,tibero,dbms,dbms,data,warehouse,etl,sql,kafka,c,python,cfa,cpa,python,sql,mariadb,kotlin,scala,methodology,cfa,cfa,cfa,cfa,phr,sphr,cfa,phr,sphr,cfa,phr,sphr,system,engineer,nas,san,linux,windows,os,linux,windows,os,vmware,private,cloud,ansible,argocd,zabbix,prometheus,grafana,ariflow,jenkins,openstack,system,engineer,nas,san,linux,windows,os,linux,windows,os,vmware,private,cloud,ansible,argocd,zabbix,prometheus,grafana,ariflow,jenkins,openstack,system,engineer,nas,san,linux,windows,os,linux,windows,os,vmware,private,cloud,ansible,argocd,zabbix,prometheus,grafana,ariflow,jenkins,openstack,db,ibm,unix,db,db,db,ibm,unix,db,db,db,ibm,unix,db,db,sql,stored,procedure,unix,linux,tibero,dbms,spring,framework,spring,boot,exadata,tibero,dbms,dbms,data,warehouse,sql,stored,procedure,unix,linux,tibero,dbms,spring,framework,spring,boot,exadata,tibero,dbms,dbms,data,warehouse,sql,stored,procedure,unix,linux,tibero,dbms,spring,framework,spring,boot,exadata,tibero,dbms,dbms,data,warehouse,etl,sql,kafka,c,python,etl,sql,kafka,c,python,etl,sql,kafka,c,python,cfa,cpa,cfa,cpa,cfa,cpa,python,sql,mariadb,kotlin,scala,methodology,python,sql,mariadb,kotlin,scala,methodology,python,sql,mariadb,kotlin,scala,methodology,we,are,now,hiring,one,two,three,four,five,six,2025,05,31,we,are,now,hiring,one,two,three,four,five,six,2025,05,31,we,are,now,hiring,one,two,three,four,five,six,one,two,three,four,five,six,2025,05,31,we,are,now,hiring,we,are,now,hiring,we,are,now,hiring,we,are,now,hiring,we,are,now,hiring,check,point,check,point,check,point,check,point,check,point</t>
+          <t>spring,kafka,python,mariadb,kotlin,zabbix,prometheus,ansible,grafana,jenkins</t>
         </is>
       </c>
     </row>
@@ -1170,11 +1126,7 @@
           <t>경력무관</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>salomon,wilson,atomic,peak,performance,armada,salomon,wilson,atomic,peak,performance,armada,td,pp,review,grading,review,knit,item,tex,hrd,erp,it,pm,road,sourcing,system,pm,erp,pm,erp,interface,cs,a,s,sap,sd,td,pp,review,grading,review,knit,item,tex,hrd,erp,it,pm,road,sourcing,system,pm,erp,pm,erp,interface,cs,a,s,sap,sd,td,pp,review,grading,review,knit,item,tex,hrd,erp,it,pm,road,sourcing,system,pm,erp,pm,erp,interface,cs,a,s,sap,sd,2025,04,05,04,20,23,or,amersportskorea,recruiter,co,kr,2025,04,05,04,20,23,or,amersportskorea,recruiter,co,kr</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1199,7 +1151,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>si,it,b2b,b2c,e,mobile,app,si,it,b2b,b2c,e,mobile,app,2,si,si,java,si,front,office,back,office,web,app,api,i,rag,llm,f,o,jsp,react,vue3,js,html5,b,o,java,springboot,kubernetes,docker,jira,jenkins,i,6,09,00,18,04173,16,200m,1,2,2,si,si,java,si,front,office,back,office,web,app,api,i,rag,llm,f,o,jsp,react,vue3,js,html5,b,o,java,springboot,kubernetes,docker,jira,jenkins,i,2,2,si,si,java,si,front,office,back,office,web,app,api,i,rag,llm,f,o,jsp,react,vue3,js,html5,b,o,java,springboot,kubernetes,docker,jira,jenkins,i,si,java,si,front,office,back,office,web,app,api,i,rag,llm,f,o,jsp,react,vue3,js,html5,b,o,java,springboot,kubernetes,docker,jira,jenkins,i,si,java,si,front,office,back,office,web,app,api,i,rag,llm,f,o,jsp,react,vue3,js,html5,b,o,java,springboot,kubernetes,docker,jira,jenkins,i,6,09,00,18,04173,16,200m,6,09,00,18,00,04173,16,200m,1,2,1,2</t>
+          <t>react,java,kubernetes,docker,jenkins</t>
         </is>
       </c>
     </row>
@@ -1224,6 +1176,7 @@
           <t>11 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1246,6 +1199,7 @@
           <t>7 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1268,6 +1222,7 @@
           <t>3 ~ 6년 · 정규직</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1290,6 +1245,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1314,7 +1270,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3,3,it,saas,slack,googleworkspace,m365,okta,jira,confluence,h,w,s,w,software,it,infra,workspace,slack,saas,saas,it,it,10,00,19,00,13561,6,800m,kwonit,huco,co,010,3084,1871,kwonit,huco,co,it,saas,slack,googleworkspace,m365,okta,jira,confluence,h,w,s,w,software,it,infra,workspace,slack,saas,saas,it,it,it,saas,slack,googleworkspace,m365,okta,jira,confluence,h,w,s,w,it,saas,slack,googleworkspace,m365,okta,jira,confluence,h,w,s,w,software,it,infra,workspace,slack,saas,saas,it,it,workspace,slack,saas,saas,it,it,10,00,19,00,13561,6,800m,10,00,19,00,13561,6,800m,kwonit,huco,co,kwonit,huco,co,010,3084,1871,kwonit,huco,co,010,3084,1871,kwonit,huco,co</t>
+          <t>okta</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1297,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>it,it,it,recruitment,end,back,end,si,sm,2,db,react,javascript,java,spring,typescript,aws,azure,ai,objectdetection,recognition,ocr,nlp,python,golang,dl,ai,pm,unix,linux,c,c,linux,c,c,source,core,network,mobile,service,front,back,end,pm,pl,ios,ios,rxswift,mvvm,c,cd,cs,as,2,cs,or,2,md,cafe24,action,plan,md,edi,a,it,2,2,10,recruitment,end,back,end,si,sm,2,db,react,javascript,java,spring,typescript,aws,azure,ai,objectdetection,recognition,ocr,nlp,python,golang,dl,ai,pm,unix,linux,c,c,linux,c,c,source,core,network,mobile,service,front,back,end,pm,pl,ios,ios,rxswift,mvvm,c,cd,cs,as,2,cs,or,2,md,cafe24,action,plan,md,edi,a,it,2,2,10,end,back,end,si,sm,2,db,react,javascript,java,spring,typescript,aws,azure,ai,objectdetection,recognition,ocr,nlp,python,golang,dl,ai,pm,unix,linux,c,c,linux,c,c,source,core,network,mobile,service,front,back,end,pm,pl,ios,ios,rxswift,mvvm,c,cd,cs,as,2,cs,or,2,md,cafe24,action,plan,md,edi,a,it,2,2,10,272,500m,400m,272,500m,400m,272,500m,400m,welfare,program,welfare,program</t>
+          <t>react,javascript,typescript,java,spring,python,aws,azure</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1324,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2,50,2025,2,50,2025,nest,rest,api,graphql,mysql,dynamodb,postgresql,elasticsearch,or,side,web,application,sql,apm,rest,api,graphql,devops,programming,oop,ci,it,09,00,18,00,06250,8,800m,or,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,nest,rest,api,graphql,mysql,dynamodb,postgresql,elasticsearch,or,side,web,application,sql,apm,rest,api,graphql,devops,programming,oop,ci,it,nest,rest,api,graphql,mysql,dynamodb,postgresql,elasticsearch,or,side,web,application,sql,apm,rest,api,graphql,devops,programming,oop,ci,it,nest,rest,api,graphql,mysql,dynamodb,postgresql,elasticsearch,or,side,web,application,sql,apm,rest,api,graphql,devops,programming,oop,ci,it,09,00,18,00,06250,8,800m,09,00,18,00,06250,8,800m,or,or,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios</t>
+          <t>graphql,mysql,dynamodb,postgresql,elasticsearch,aws</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1351,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>azure,aws,ncp,on,premise,windows,linux,apm,iis,sql,server,azure,aws,ncp,on,premise,azure,aws,ncp</t>
+          <t>azure,aws</t>
         </is>
       </c>
     </row>
@@ -1420,6 +1376,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1442,6 +1399,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1464,6 +1422,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1488,7 +1447,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>iot,automotive,ai,cloud,5g,sw,application,sw,application,c,c,python,java,qt,c,vc,iot,smart,phone,iot,window,os,linux,android,rtos,windows,sw,system,system,software,firmware,linux,android,os,device,driver,5g,tcu,c,c,os,linux,rtos,linux,windows,linux,android,os,device,driver,board,bring,up,bsp,qualcomm,chipset,sw,protocol,sw,protocol,c,c,lte,5g,v2x,gnss,uicc,ims,protocol,linux,android,data,wifi,framework,rf,sw,firmware,sw,firmware,sw,os,c,embedded,linux,rtos,qualcomm,chip,bsp,linux,power,management,pm,audio,device,driver,middleware,sw,middleware,sw,os,c,c,rust,flutter,embedded,linux,linux,doip,some,ip,dbus,fast,dds,cyclone,dds,in,vehicle,in,vehicle,os,c,rtos,mcu,in,vehicle,network,ethernet,diagnostics,uds,autosar,doip,mcu,mcu,os,c,rtos,bsp,rtos,mcu,hw,baseband,nad,tcu,v2x,hw,4g,5g,baseband,5g,lte,wi,fi,bt,gps,audio,qualcomm,4g,5g,chipset,iot,device,pl,pl,project,leader,pl,project,leader,sw,project,management,process,sw,main,pl,sub,pl,pm,backend,backend,backend,server,aws,restfull,api,java,x,javascript,python,sql,nosql,docker,kubernetes,dqa,qa,sw,20,ojt,recruit,amtel,co,kr,sw,application,sw,application,c,c,python,java,qt,c,vc,iot,smart,phone,iot,window,os,linux,android,rtos,windows,sw,system,system,software,firmware,linux,android,os,device,driver,5g,tcu,c,c,os,linux,rtos,linux,windows,linux,android,os,device,driver,board,bring,up,bsp,qualcomm,chipset,sw,protocol,sw,protocol,c,c,lte,5g,v2x,gnss,uicc,ims,protocol,linux,android,data,wifi,framework,rf,sw,firmware,sw,firmware,sw,os,c,embedded,linux,rtos,qualcomm,chip,bsp,linux,power,management,pm,audio,device,driver,middleware,sw,middleware,sw,os,c,c,rust,flutter,embedded,linux,linux,doip,some,ip,dbus,fast,dds,cyclone,dds,in,vehicle,in,vehicle,os,c,rtos,mcu,in,vehicle,network,ethernet,diagnostics,uds,autosar,doip,mcu,mcu,os,c,rtos,bsp,rtos,mcu,hw,baseband,nad,tcu,v2x,hw,4g,5g,baseband,5g,lte,wi,fi,bt,gps,audio,qualcomm,4g,5g,chipset,iot,device,pl,pl,project,leader,pl,project,leader,sw,project,management,process,sw,main,pl,sub,pl,pm,backend,backend,backend,server,aws,restfull,api,java,x,javascript,python,sql,nosql,docker,kubernetes,dqa,qa,sw,sw,application,sw,application,c,c,python,java,qt,c,vc,iot,smart,phone,iot,window,os,linux,android,rtos,windows,sw,system,system,software,firmware,linux,android,os,device,driver,5g,tcu,c,c,os,linux,rtos,linux,windows,linux,android,os,device,driver,board,bring,up,bsp,qualcomm,chipset,sw,protocol,sw,protocol,c,c,lte,5g,v2x,gnss,uicc,ims,protocol,linux,android,data,wifi,framework,rf,sw,firmware,sw,firmware,sw,os,c,embedded,linux,rtos,qualcomm,chip,bsp,linux,power,management,pm,audio,device,driver,middleware,sw,middleware,sw,os,c,c,rust,flutter,embedded,linux,linux,doip,some,ip,dbus,fast,dds,cyclone,dds,in,vehicle,in,vehicle,os,c,rtos,mcu,in,vehicle,network,ethernet,diagnostics,uds,autosar,doip,mcu,mcu,os,c,rtos,bsp,rtos,mcu,hw,baseband,nad,tcu,v2x,hw,4g,5g,baseband,5g,lte,wi,fi,bt,gps,audio,qualcomm,4g,5g,chipset,iot,device,pl,pl,project,leader,pl,project,leader,sw,project,management,process,sw,main,pl,sub,pl,pm,backend,backend,backend,server,aws,restfull,api,java,x,javascript,python,sql,nosql,docker,kubernetes,dqa,qa,sw,sw,application,sw,application,c,c,python,java,qt,c,vc,iot,smart,phone,iot,window,os,linux,android,rtos,windows,sw,system,system,software,firmware,linux,android,os,device,driver,5g,tcu,c,c,os,linux,rtos,linux,windows,linux,android,os,device,driver,board,bring,up,bsp,qualcomm,chipset,sw,protocol,sw,protocol,c,c,lte,5g,v2x,gnss,uicc,ims,protocol,linux,android,data,wifi,framework,rf,sw,firmware,sw,firmware,sw,os,c,embedded,linux,rtos,qualcomm,chip,bsp,linux,power,management,pm,audio,device,driver,middleware,sw,middleware,sw,os,c,c,rust,flutter,embedded,linux,linux,doip,some,ip,dbus,fast,dds,cyclone,dds,in,vehicle,in,vehicle,os,c,rtos,mcu,in,vehicle,network,ethernet,diagnostics,uds,autosar,doip,mcu,mcu,os,c,rtos,bsp,rtos,mcu,hw,baseband,nad,tcu,v2x,hw,4g,5g,baseband,5g,lte,wi,fi,bt,gps,audio,qualcomm,4g,5g,chipset,iot,device,pl,pl,project,leader,pl,project,leader,sw,project,management,process,sw,main,pl,sub,pl,pm,backend,backend,backend,server,aws,restfull,api,java,x,javascript,python,sql,nosql,docker,kubernetes,dqa,qa,sw,20,20,ojt,ojt,recruit,amtel,co,kr,recruit,amtel,co,kr</t>
+          <t>javascript,python,java,docker,kubernetes,flutter,aws</t>
         </is>
       </c>
     </row>
@@ -1513,6 +1472,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1535,6 +1495,7 @@
           <t>2 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1557,6 +1518,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1579,6 +1541,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1601,6 +1564,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1625,7 +1589,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>w,on,premise,c,wpf,c,oracle,w,on,premise,c,wpf,c,oracle,s,w,on,premise,c,wpf,c,oracle,on,premise,c,wpf,c,oracle,mysql</t>
+          <t>mysql</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1616,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>its,bis,java,jsp,jpa,react,sdk,08,30,17,16006,653,its,bis,java,jsp,jpa,react,sdk,its,bis,java,jsp,jpa,react,sdk,08,30,17,16006,653,08,30,17,30,16006,653</t>
+          <t>react,java</t>
         </is>
       </c>
     </row>
@@ -1677,6 +1641,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1701,7 +1666,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>back,end,back,end,framework,codeigniter,javascript,backend,04366,10,800m,070,framework,codeigniter,javascript,backend,framework,codeigniter,javascript,framework,codeigniter,javascript,backend,backend,04366,10,800m,04366,10,800m,070,070,070</t>
+          <t>javascript</t>
         </is>
       </c>
     </row>
@@ -1726,11 +1691,7 @@
           <t>신입 · 정규직</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>mangement,part,process,control,part,08,00,17,13202,159,mangement,part,process,control,part,08,00,17,13202,159,08,00,17,00,13202,159</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1753,11 +1714,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2,5,8,21c,2,5,8,21c,recruitment,3,3,mes,scm,oracle,mssql,window,mes,scm,smt,auto,cad,bom,recruitment,3,3,mes,scm,oracle,mssql,window,mes,scm,smt,auto,cad,bom,3,3,mes,scm,oracle,mssql,window,mes,scm,smt,auto,cad,bom,331,821,249,331,821,249,331,821,249,welfare,program,welfare,program,incentive,24,ojt,incentive,24,ojt,incentive,24,ojt,incentive,24,ojt</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1782,7 +1739,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>si,erp,crm,si,pl,pm,rfp,ui,ux,dba,qa,se,sqa,api,dbms,fpga,h,w,isms,rdbms,s,w,windows,html,java,linux,mysql,python,restapi,sql,unix,08390,111,1606,1607</t>
+          <t>java,mysql,python</t>
         </is>
       </c>
     </row>
@@ -1807,6 +1764,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1829,11 +1787,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>engineering,team,amhs,engineering,team,autocad,ppt,inventor,concept,layout,unit,1,2,jlpt,concept,word,excel,powerpoint,visio,lcd,conveyor,stk,agv,oht,rail,2d,autocad,autocad,electrical,concept,2d,word,excel,powerpoint,visio,lcd,conveyor,stk,agv,oht,rail,2d,3d,autocad,inventor,device,hw,sw,dsp,customize,autocad,inventor,zuken,micro,office,oscilloscope,pcb,aw,jlpt,engineering,team,amhs,engineering,team,autocad,ppt,inventor,concept,layout,unit,1,2,jlpt,concept,word,excel,powerpoint,visio,lcd,conveyor,stk,agv,oht,rail,2d,autocad,autocad,electrical,concept,2d,word,excel,powerpoint,visio,lcd,conveyor,stk,agv,oht,rail,2d,3d,autocad,inventor,device,hw,sw,dsp,customize,autocad,inventor,zuken,micro,office,oscilloscope,pcb,aw,jlpt,engineering,team,amhs,engineering,team,autocad,ppt,inventor,concept,layout,unit,1,2,jlpt,concept,word,excel,powerpoint,visio,lcd,conveyor,stk,agv,oht,rail,2d,autocad,autocad,electrical,concept,2d,word,excel,powerpoint,visio,lcd,conveyor,stk,agv,oht,rail,2d,3d,autocad,inventor,device,hw,sw,dsp,customize,autocad,inventor,zuken,micro,office,oscilloscope,pcb,aw,jlpt,90,08,30,05,30,18453,14,31413,1110,22,90,08,30,05,30,18453,14,31413,1110,22,2025,04,17,2025,05,06,2025,04,17,2025,05,06,031,8015,7835,14,1110,22,http,cfinc,co,kr,031,8015,7835,14,1110,22,http,cfinc,co,kr</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1856,6 +1810,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1880,7 +1835,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>join,us,join,us,join,us,or,1018,dx,bm,b2b,sales,146,idc,cisco,juniper,huawei,idc,cisco,juniper,huawei,ccna,or,6,skb,idc,1333,skb,idc,80,skb,idc,12,skb,idc,linux,windows,dns,bind,web,nginx,apache,tomcat,database,mriadb,it,shell,script,java,spring,skb,idc,6,idc,skb,idc,12,sk,broadband,idc,una,lemc,skb,network,sms,it,otn,roadm,dwdm,mspp,it,74,lemc,or,1018,dx,bm,b2b,sales,146,idc,cisco,juniper,huawei,idc,cisco,juniper,huawei,ccna,or,6,skb,idc,1333,skb,idc,80,skb,idc,12,skb,idc,linux,windows,dns,bind,web,nginx,apache,tomcat,database,mriadb,it,shell,script,java,spring,skb,idc,6,idc,skb,idc,12,sk,broadband,idc,una,lemc,skb,network,sms,it,otn,roadm,dwdm,mspp,it,74,lemc,or,1018,dx,bm,b2b,sales,146,idc,cisco,juniper,huawei,idc,cisco,juniper,huawei,ccna,or,6,skb,idc,1333,skb,idc,80,skb,idc,12,skb,idc,linux,windows,dns,bind,web,nginx,apache,tomcat,database,mriadb,it,shell,script,java,spring,skb,idc,6,idc,skb,idc,12,sk,broadband,idc,una,lemc,skb,network,sms,it,otn,roadm,dwdm,mspp,it,74,lemc,3,80,3,80,skt,skt,skt</t>
+          <t>nginx,apache,java,spring</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1862,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1,3,20,1,3,20,1,2,3,1,2,3,md,cx,q,a,cs,cx,voc,s,oa,erp,suv,oem,kpi,gaap,erp,erp,wms,wcs,it,pc,wms,postgresql,mssql,oracle,python,react,wms,okr,adobe,photoshop,adobe,illustrator,keyshot,3ds,max,rhino,ceros,blender,or,3d,3d,3d,or,photoshop,illustrator,rhino,keyshot,blender,ux,after,effects,2d,2d,sns,photoshop,illustrator,keyshot,ux,md,cx,q,a,cs,cx,voc,s,oa,erp,suv,oem,kpi,gaap,erp,erp,wms,wcs,it,pc,wms,postgresql,mssql,oracle,python,react,wms,okr,adobe,photoshop,adobe,illustrator,keyshot,3ds,max,rhino,ceros,blender,or,3d,3d,3d,or,photoshop,illustrator,rhino,keyshot,blender,ux,after,effects,2d,2d,sns,photoshop,illustrator,keyshot,ux,md,cx,q,a,cs,cx,voc,s,oa,erp,suv,oem,kpi,gaap,erp,erp,wms,wcs,it,pc,wms,postgresql,mssql,oracle,python,react,wms,okr,adobe,photoshop,adobe,illustrator,keyshot,3ds,max,rhino,ceros,blender,or,3d,3d,3d,or,photoshop,illustrator,rhino,keyshot,blender,ux,after,effects,2d,2d,sns,photoshop,illustrator,keyshot,ux,md,cx,as,a,s,as,a,to,oem,wms,erp,wms,wcs,figma,3d,keyshot,blender,3d,3d,3d,2d,2d,md,md,cx,as,a,s,as,cx,as,a,s,as,a,to,a,to,oem,oem,wms,erp,wms,wcs,wms,erp,wms,wcs,figma,3d,keyshot,blender,3d,figma,3d,keyshot,blender,3d,3d,3d,3d,3d,2d,2d,2d,2d,08,00,17,00,3,08,00,17,00,3,08,00,17,00,3,100,100,100,oem,2d,3d,1,2,oem,2d,3d,1,2,choi,sinjimoru,com,choi,sinjimoru,com</t>
+          <t>react,postgresql,python,blender</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1889,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>imc,ui,ux,b2b,performance,marketing,co,md,md,ms,office,process,cs,ms,office,care,rfp,pt,b2b,prm,cs,linux,zabbix,libre,grafana,drm,utm,vpn,support,it,isms,oracle,mongo,database,aws,pc,mobile,app,admin,flow,sb,pm,pl,ui,ux,sso,api,pg,b2c,web,application,language,java,jsp,jquery,node,framework,spring,mybatis,dbms,oracle,mariadb,web,was,apache,nginx,tomcat,etc,svn,jenkins,gradle,pm,pl,msa,imc,ui,ux,b2b,performance,marketing,co,md,md,ms,office,process,cs,ms,office,care,rfp,pt,b2b,prm,cs,linux,zabbix,libre,grafana,drm,utm,vpn,support,it,isms,oracle,mongo,database,aws,pc,mobile,app,admin,flow,sb,pm,pl,ui,ux,sso,api,pg,b2c,web,application,language,java,jsp,jquery,node,framework,spring,mybatis,dbms,oracle,mariadb,web,was,apache,nginx,tomcat,etc,svn,jenkins,gradle,pm,pl,msa,imc,ui,ux,b2b,performance,marketing,co,md,md,ms,office,process,cs,ms,office,care,rfp,pt,b2b,prm,cs,linux,zabbix,libre,grafana,drm,utm,vpn,support,it,isms,oracle,mongo,database,aws,pc,mobile,app,admin,flow,sb,pm,pl,ui,ux,sso,api,pg,b2c,web,application,language,java,jsp,jquery,node,framework,spring,mybatis,dbms,oracle,mariadb,web,was,apache,nginx,tomcat,etc,svn,jenkins,gradle,pm,pl,msa,06044,556,06044,556</t>
+          <t>java,spring,mariadb,apache,nginx,zabbix,vpn,sso,grafana,aws,jenkins</t>
         </is>
       </c>
     </row>
@@ -1959,6 +1914,7 @@
           <t>3 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1981,6 +1937,7 @@
           <t>3 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2003,6 +1960,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2025,6 +1983,7 @@
           <t>4 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2047,11 +2006,7 @@
           <t>경력 8년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>front,end,design,ai,asic,design,asic,front,end,design,implementation,dc,sta,accelerator,asic,npu,architecture,design,and,optimization,design,architecture,verification,requirements,design,and,verification,verilog,vhdl,prototype,development,analysis,power,efficiency,optimization,design,of,software,and,hardware,knowledge,of,data,center,and,cloud,computing,environment,understanding,of,ai,machine,learning,algorithm,skilled,tools,vcs,dc,primetime,sta,ptpx,formality,spyglass,13449,42,front,end,design,ai,asic,design,asic,front,end,design,ai,asic,design,asic,front,end,design,ai,asic,design,asic,front,end,design,implementation,dc,sta,accelerator,asic,npu,architecture,design,and,optimization,design,architecture,verification,requirements,design,and,verification,verilog,vhdl,prototype,development,analysis,power,efficiency,optimization,design,of,software,and,hardware,knowledge,of,data,center,and,cloud,computing,environment,understanding,of,ai,machine,learning,algorithm,skilled,tools,vcs,dc,primetime,sta,ptpx,formality,spyglass,front,end,design,implementation,dc,sta,accelerator,asic,npu,architecture,design,and,optimization,design,architecture,verification,requirements,design,and,verification,verilog,vhdl,prototype,development,analysis,power,efficiency,optimization,design,of,software,and,hardware,knowledge,of,data,center,and,cloud,computing,environment,understanding,of,ai,machine,learning,algorithm,skilled,tools,vcs,dc,primetime,sta,ptpx,formality,spyglass,front,end,design,implementation,dc,sta,accelerator,asic,npu,architecture,design,and,optimization,design,architecture,verification,requirements,design,and,verification,verilog,vhdl,prototype,development,analysis,power,efficiency,optimization,design,of,software,and,hardware,knowledge,of,data,center,and,cloud,computing,environment,understanding,of,ai,machine,learning,algorithm,skilled,tools,vcs,dc,primetime,sta,ptpx,formality,spyglass,13449,42,13449,42</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2076,7 +2031,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025,dt,ai,ar,s,w,vr,android,c,python</t>
+          <t>python</t>
         </is>
       </c>
     </row>
@@ -2101,11 +2056,7 @@
           <t>경력 8년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>front,end,design,near,data,process,asic,front,end,design,implementation,dc,sta,data,process,architecture,design,and,optimization,design,architecture,verification,requirements,design,and,verification,verilog,vhdl,prototype,development,interface,architecture,design,and,optimization,protocol,architecture,design,and,implementation,skilled,tools,vcs,dc,primetime,sta,ptpx,formality,spyglass,13449,42,front,end,design,near,data,process,asic,front,end,design,near,data,process,asic,front,end,design,near,data,process,asic,front,end,design,implementation,dc,sta,data,process,architecture,design,and,optimization,design,architecture,verification,requirements,design,and,verification,verilog,vhdl,prototype,development,interface,architecture,design,and,optimization,protocol,architecture,design,and,implementation,skilled,tools,vcs,dc,primetime,sta,ptpx,formality,spyglass,front,end,design,implementation,dc,sta,data,process,architecture,design,and,optimization,design,architecture,verification,requirements,design,and,verification,verilog,vhdl,prototype,development,interface,architecture,design,and,optimization,protocol,architecture,design,and,implementation,skilled,tools,vcs,dc,primetime,sta,ptpx,formality,spyglass,front,end,design,implementation,dc,sta,data,process,architecture,design,and,optimization,design,architecture,verification,requirements,design,and,verification,verilog,vhdl,prototype,development,interface,architecture,design,and,optimization,protocol,architecture,design,and,implementation,skilled,tools,vcs,dc,primetime,sta,ptpx,formality,spyglass,13449,42,13449,42</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2128,6 +2079,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2152,7 +2104,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>vue,js,qa,rdbms,angular,css,docker,html,java,javascript,kotlin,linux,php,python,react,restapi,spring,springboot,typescript,vue,js,14558,92</t>
+          <t>vue,angular,javascript,react,typescript,docker,java,kotlin,php,python,spring</t>
         </is>
       </c>
     </row>
@@ -2177,11 +2129,7 @@
           <t>경력 · 정규직</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>m,s,tape,coating,auto,cad,mct,back,cover,item,back,cover,item,auto,cad,excel,power,point,it,it,deco,user,apple,hp,dell,3d,2d,auto,cad,excel,power,point,3d,ecot,test,user,2d,auto,cad,excel,power,point,roll,to,roll,cell,to,cell,roll,to,roll,aoi,cell,to,cell,aoi,roll,to,roll,aoi,cell,to,cell,aoi,s,w,auto,cad,s,w,auto,cad,back,cover,deco,film,or,film,film,auto,cad,coating,sem,tem,fib,ftir,eds,etc,sgv,sgv,it,mes,pop,mes,pop,m,s,tape,coating,auto,cad,mct,back,cover,item,back,cover,item,auto,cad,excel,power,point,it,it,deco,user,apple,hp,dell,3d,2d,auto,cad,excel,power,point,3d,ecot,test,user,2d,auto,cad,excel,power,point,roll,to,roll,cell,to,cell,roll,to,roll,aoi,cell,to,cell,aoi,roll,to,roll,aoi,cell,to,cell,aoi,s,w,auto,cad,s,w,auto,cad,back,cover,deco,film,or,film,film,auto,cad,coating,sem,tem,fib,ftir,eds,etc,sgv,sgv,it,mes,pop,mes,pop,m,s,tape,coating,auto,cad,mct,back,cover,item,back,cover,item,auto,cad,excel,power,point,it,it,deco,user,apple,hp,dell,3d,2d,auto,cad,excel,power,point,3d,ecot,test,user,2d,auto,cad,excel,power,point,roll,to,roll,cell,to,cell,roll,to,roll,aoi,cell,to,cell,aoi,roll,to,roll,aoi,cell,to,cell,aoi,s,w,auto,cad,s,w,auto,cad,back,cover,deco,film,or,film,film,auto,cad,coating,sem,tem,fib,ftir,eds,etc,sgv,sgv,it,mes,pop,mes,pop,08,30,17,30,kpi,08,30,17,30,kpi,08,30,17,30,08,30,17,30,kpi,kpi</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2206,7 +2154,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>react,js,next,low,code,node,api,ui,ux,ssr,ssg,api,react,js,next,node,javascript,ssr,ssg,restful,api,git,ui,ux,ci,cd,react,js,next,low,code,node,api,ui,ux,ssr,ssg,api,react,js,next,node,javascript,ssr,ssg,restful,api,git,ui,ux,ci,cd,react,js,next,low,code,node,api,ui,ux,ssr,ssg,api,react,js,next,node,javascript,ssr,ssg,restful,api,git,ui,ux,ci,cd,135,873,108,7,300m,135,873,108,7,300m,ojt,ojt</t>
+          <t>react,javascript</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2181,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>java,ai,iot,android,java,python,xml,08390,31</t>
+          <t>java,python</t>
         </is>
       </c>
     </row>
@@ -2258,11 +2206,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>sw,sw,41,09,00,18,61754,41,41,09,00,18,61754,09,00,18,00,61754</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2287,7 +2231,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>engineer,android,android,android,java,android,application,open,gl,embedded,device,gps,location,based,service,mobility,engineer,map,sdk,mobility,map,c,opengl,android,ios,android,ios,metal,jni,java,native,interface,objective,c,opengl,es,location,mobile,application,3d,sdk,kotlin,swift,engineer,ha,backend,public,cloud,java,kotlin,python,spring,framework,docker,eks,rdb,nosql,redis,kafka,airflow,opensearch,aws,kubernetes,msa,microservices,architecture,engineer,backend,tmap,open,api,tmap,app,tmap,java,kotlin,base,spring,framework,rdbms,mysql,postgresql,nosql,lbs,aws,engineer,content,provider,place,backend,python,java,kotlin,spring,framework,batch,integration,data,scdf,rdbms,postgresql,mysql,nosql,db,batch,k8s,spring,cloud,data,flow,debezium,cdc,postgis,oracle,mysql,gis,backend,engineer,tmap,rp,tmap,gps,backend,java,kotlin,scala,spring,rdb,nosql,redis,kafka,flink,location,based,service,gps,aws,kubernetes,k8s,engineer,open,aws,backend,java,kotlin,scala,spring,framework,eks,rdb,nosql,kafka,apache,flink,airflow,aws,apache,engineer,aws,ai,ml,devops,elasticsearch,java,python,scala,project,manager,tmap,auto,android,os,infotainment,mobility,tech,sw,rest,api,sw,architect,engineer,android,android,android,java,android,application,open,gl,embedded,device,gps,location,based,service,mobility,engineer,map,sdk,mobility,map,c,opengl,android,ios,android,ios,metal,jni,java,native,interface,objective,c,opengl,es,location,mobile,application,3d,sdk,kotlin,swift,engineer,ha,backend,public,cloud,java,kotlin,python,spring,framework,docker,eks,rdb,nosql,redis,kafka,airflow,opensearch,aws,kubernetes,msa,microservices,architecture,engineer,backend,tmap,open,api,tmap,app,tmap,java,kotlin,base,spring,framework,rdbms,mysql,postgresql,nosql,lbs,aws,engineer,content,provider,place,backend,python,java,kotlin,spring,framework,batch,integration,data,scdf,rdbms,postgresql,mysql,nosql,db,batch,k8s,spring,cloud,data,flow,debezium,cdc,postgis,oracle,mysql,gis,backend,engineer,tmap,rp,tmap,gps,backend,java,kotlin,scala,spring,rdb,nosql,redis,kafka,flink,location,based,service,gps,aws,kubernetes,k8s,engineer,open,aws,backend,java,kotlin,scala,spring,framework,eks,rdb,nosql,kafka,apache,flink,airflow,aws,apache,engineer,aws,ai,ml,devops,elasticsearch,java,python,scala,project,manager,tmap,auto,android,os,infotainment,mobility,tech,sw,rest,api,sw,architect,android,android,android,java,android,application,open,gl,embedded,device,gps,location,based,service,mobility,mobility,map,c,opengl,android,ios,android,ios,metal,jni,java,native,interface,objective,c,opengl,es,location,mobile,application,3d,sdk,kotlin,swift,ha,backend,public,cloud,java,kotlin,python,spring,framework,docker,eks,rdb,nosql,redis,kafka,airflow,opensearch,aws,kubernetes,msa,microservices,architecture,backend,tmap,open,api,tmap,app,tmap,java,kotlin,base,spring,framework,rdbms,mysql,postgresql,nosql,lbs,aws,content,provider,place,backend,python,java,kotlin,spring,framework,batch,integration,data,scdf,rdbms,postgresql,mysql,nosql,db,batch,k8s,spring,cloud,data,flow,debezium,cdc,postgis,oracle,mysql,gis,tmap,rp,tmap,gps,backend,java,kotlin,scala,spring,rdb,nosql,redis,kafka,flink,location,based,service,gps,aws,kubernetes,k8s,open,aws,backend,java,kotlin,scala,spring,framework,eks,rdb,nosql,kafka,apache,flink,airflow,aws,apache,aws,ai,ml,devops,elasticsearch,java,python,scala,android,os,infotainment,mobility,tech,sw,rest,api,sw,architect</t>
+          <t>java,kotlin,python,spring,docker,redis,kafka,kubernetes,mysql,postgresql,apache,elasticsearch,swift,aws</t>
         </is>
       </c>
     </row>
@@ -2312,11 +2256,7 @@
           <t>경력 8년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>front,end,design,asic,front,end,design,front,end,design,integration,test,plan,or,risc,v,platform,vcs,dc,prime,time,sta,ptpx,formaility,spyglass,design,ai,chip,design,13449,42,front,end,design,asic,front,end,design,asic,front,end,design,asic,front,end,design,front,end,design,integration,test,plan,or,risc,v,platform,vcs,dc,prime,time,sta,ptpx,formaility,spyglass,design,ai,chip,design,front,end,design,front,end,design,integration,test,plan,or,risc,v,platform,vcs,dc,prime,time,sta,ptpx,formaility,spyglass,design,ai,chip,design,front,end,design,front,end,design,integration,test,plan,or,risc,v,platform,vcs,dc,prime,time,sta,ptpx,formaility,spyglass,design,ai,chip,design,13449,42,13449,42</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2339,6 +2279,7 @@
           <t>1 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2363,7 +2304,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>join,us,join,us,join,us,global,semi,ts,semi,global,semi,ts,semi,new,member,application,mes,recipe,data,history,w,embedded,linux,application,gui,ui,app,typescript,web,gui,app,sqa,amhs,it,jira,redmine,sw,foundation,level,pmo,ir,power,point,cs,fab,amhs,r302,gui,gui,gui,new,member,application,mes,recipe,data,history,w,embedded,linux,application,gui,ui,app,typescript,web,gui,app,sqa,amhs,it,jira,redmine,sw,foundation,level,pmo,ir,power,point,cs,fab,amhs,r302,gui,gui,gui,application,mes,recipe,data,history,w,embedded,linux,application,gui,ui,app,typescript,web,gui,app,sqa,amhs,it,jira,redmine,sw,foundation,level,pmo,ir,power,point,cs,fab,amhs,r302,gui,gui,gui,welfare,benefits,dc,teams,g,w,flow,welfare,benefits,dc,teams,g,w,flow,dc,teams,g,w,flow,apply,apply</t>
+          <t>typescript</t>
         </is>
       </c>
     </row>
@@ -2388,6 +2329,7 @@
           <t>1 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2410,6 +2352,7 @@
           <t>7 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2432,11 +2375,7 @@
           <t>1 ~ 7년 · 정규직</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>ips,ddos,it</t>
-        </is>
-      </c>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2459,6 +2398,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2481,6 +2421,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2503,6 +2444,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2527,7 +2469,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>java,tr,069,onm,java,si,spring,boot,java,tr,069,onm,java,si,spring,boot,2,java,tobe,java,spring,si,03117,383,500m,2,java,tobe,java,spring,si,2,2,java,tobe,java,spring,si,tobe,java,spring,si,03117,383,500m,03117,383,500m</t>
+          <t>java,spring</t>
         </is>
       </c>
     </row>
@@ -2552,11 +2494,7 @@
           <t>경력무관 · 교육생</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>80,1,1,80,1,1,sm,it,sm,it,23,41,400m,300m,200m,113,10m,23,41,400m,300m,200m,113,10m</t>
-        </is>
-      </c>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2579,6 +2517,7 @@
           <t>신입 · 정규직</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2601,11 +2540,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>2,cisco,08513,178,800m,2,cisco,2,2,cisco,cisco,08513,178,800m,08513,178,800m</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2628,11 +2563,7 @@
           <t>경력무관 · 계약직 외</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>engineer,wireless,ip,engineer,wireless,ip,huawei,1,jd,wireless,engineer,delivery,service,dept,network,technology,team,lte,4g,nr,5g,optis,inno,wireless,dm,tool,ict,ms,office,experience,with,wireless,technologies,in,lte,5g,and,wireless,area,3gpp,standard,knowledge,is,optional,ip,network,engineer,delivery,service,dept,project,delivery,maintenance,datacenter,campus,pre,sales,demo,bmt,poc,router,switch,wireless,f,w,sdx,solutions,osi,7,stp,ospf,bgp,multicast,qos,sdx,skill,asap,persolkelly,com,persolkelly,com,02,760,8894,www,persolkr,com,huawei,1,jd,wireless,engineer,delivery,service,dept,network,technology,team,lte,4g,nr,5g,optis,inno,wireless,dm,tool,ict,ms,office,experience,with,wireless,technologies,in,lte,5g,and,wireless,area,3gpp,standard,knowledge,is,optional,ip,network,engineer,delivery,service,dept,project,delivery,maintenance,datacenter,campus,pre,sales,demo,bmt,poc,router,switch,wireless,f,w,sdx,solutions,osi,7,stp,ospf,bgp,multicast,qos,sdx,skill,asap,persolkelly,com,persolkelly,com,02,760,8894,www,persolkr,com,huawei,1,jd,wireless,engineer,delivery,service,dept,network,technology,team,lte,4g,nr,5g,optis,inno,wireless,dm,tool,ict,ms,office,experience,with,wireless,technologies,in,lte,5g,and,wireless,area,3gpp,standard,knowledge,is,optional,ip,network,engineer,delivery,service,dept,project,delivery,maintenance,datacenter,campus,pre,sales,demo,bmt,poc,router,switch,wireless,f,w,sdx,solutions,osi,7,stp,ospf,bgp,multicast,qos,sdx,skill,asap,persolkelly,com,persolkelly,com,02,760,8894,www,persolkr,com,huawei,1,jd,wireless,engineer,delivery,service,dept,network,technology,team,lte,4g,nr,5g,optis,inno,wireless,dm,tool,ict,ms,office,experience,with,wireless,technologies,in,lte,5g,and,wireless,area,3gpp,standard,knowledge,is,optional,ip,network,engineer,delivery,service,dept,project,delivery,maintenance,datacenter,campus,pre,sales,demo,bmt,poc,router,switch,wireless,f,w,sdx,solutions,osi,7,stp,ospf,bgp,multicast,qos,sdx,skill,asap,persolkelly,com,persolkelly,com,02,760,8894,www,persolkr,com,jd,wireless,engineer,delivery,service,dept,network,technology,team,lte,4g,nr,5g,optis,inno,wireless,dm,tool,ict,ms,office,experience,with,wireless,technologies,in,lte,5g,and,wireless,area,3gpp,standard,knowledge,is,optional,ip,network,engineer,delivery,service,dept,project,delivery,maintenance,datacenter,campus,pre,sales,demo,bmt,poc,router,switch,wireless,f,w,sdx,solutions,osi,7,stp,ospf,bgp,multicast,qos,sdx,skill</t>
-        </is>
-      </c>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2655,6 +2586,7 @@
           <t>4 ~ 6년 · 정규직</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2677,6 +2609,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2701,7 +2634,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ibm,x,redhat,ai,transformation,ax,academy,csr,ui,ux,rdbms,vdi,ajax,aws,bootstrap,css,css3,django,elasticstack,flask,html,html5,java,javascript,jquery,jsp,logstash,pl,sql,react,react,native,reactjs,restapi,spring,springboot,sql,sqlite,was,webgl,xml,ui</t>
+          <t>bootstrap,javascript,react,django,flask,java,spring,aws</t>
         </is>
       </c>
     </row>
@@ -2726,6 +2659,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2750,7 +2684,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>react,react,native,spring,boot,express,ios,android,api,react,native,javascript,typescript,boot,java,express,node,js,kotlin,ios,swift,api,graphql,09,30,18,35372,react,react,native,spring,boot,express,ios,android,api,react,native,javascript,typescript,boot,java,express,node,js,kotlin,ios,swift,api,graphql,react,react,native,spring,boot,express,ios,android,api,react,native,javascript,typescript,boot,java,express,node,js,kotlin,ios,swift,api,graphql,react,react,native,spring,boot,express,ios,android,api,react,native,javascript,typescript,boot,java,express,node,js,kotlin,ios,swift,api,graphql,09,30,18,35372,1115,09,30,18,30,35372,1115</t>
+          <t>react,javascript,typescript,graphql,spring,express,java,kotlin,swift</t>
         </is>
       </c>
     </row>
@@ -2775,6 +2709,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2797,6 +2732,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2819,11 +2755,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>2,09,00,18,41566,47,2,2,2,09,00,18,41566,47,09,00,18,00,41566,47</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2846,6 +2778,7 @@
           <t>3 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2868,11 +2801,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>erp,erp,2,erp,07,30,18,621,812,2,erp,2,2,erp,07,30,18,621,812,467,07,30,18,30,621,812,467</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2895,6 +2824,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2917,6 +2847,7 @@
           <t>3 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2939,11 +2870,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>si,erp,crm,crm,pl,pm,pmo,ui,ux,oa,photoshop,powerpoint,se,ui,07320,24</t>
-        </is>
-      </c>
+      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2968,7 +2895,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>r,d,r,d,security,for,all,no,1,dream,si,r,d,bpr,isp,ai,security,for,all,no,1,dream,si,r,d,bpr,isp,ai,linkedin,api,gw,r,d,java,c,oauth,kubernetes,nginx,api,gw,c,c,python,c,java,sktktlgu,java,restful,api,redis,si,10,java,jsp,javascript,spring,spring,boot,oracle,mysql,mariadb,postgresql,linux,ubuntu,am,java,spring,springboot,pki,ecc,identity,as,a,service,multi,tenancy,msa,sw,java,sw,ca,ra,ca,ra,ca,ra,java,javascipt,html,oracle,mysql,mariadb,visualstudio,code,intellij,eclipse,api,gw,r,d,java,c,oauth,kubernetes,nginx,api,gw,c,c,python,c,java,sktktlgu,java,restful,api,redis,si,10,java,jsp,javascript,spring,spring,boot,oracle,mysql,mariadb,postgresql,linux,ubuntu,am,java,spring,springboot,pki,ecc,identity,as,a,service,multi,tenancy,msa,sw,java,sw,ca,ra,ca,ra,ca,ra,java,javascipt,html,oracle,mysql,mariadb,visualstudio,code,intellij,eclipse,api,gw,r,d,java,c,oauth,kubernetes,nginx,api,gw,c,c,python,c,java,sktktlgu,java,restful,api,redis,si,10,java,jsp,javascript,spring,spring,boot,oracle,mysql,mariadb,postgresql,linux,ubuntu,am,java,spring,springboot,pki,ecc,identity,as,a,service,multi,tenancy,msa,sw,java,sw,ca,ra,ca,ra,ca,ra,java,javascipt,html,oracle,mysql,mariadb,visualstudio,code,intellij,eclipse,04783,126,300m,04783,126,300m</t>
+          <t>javascript,java,kubernetes,nginx,python,redis,spring,mysql,mariadb,postgresql</t>
         </is>
       </c>
     </row>
@@ -2993,6 +2920,7 @@
           <t>4 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3017,7 +2945,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ui,ux,ai,nlp,flutter,java,javascript,node,js,pytorch,react,sql,tensorflow,06038,15</t>
+          <t>javascript,react,java,flutter</t>
         </is>
       </c>
     </row>
@@ -3044,7 +2972,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>quest,house,quest,house,s,w,s,w,web,s,w,frontend,backend,mfc,wpf,party,devexpress,telerik,ms,sql,server,mariadb,3,75,s,w,s,w,web,s,w,frontend,backend,mfc,wpf,party,devexpress,telerik,ms,sql,server,mariadb,s,w,web,s,w,frontend,backend,mfc,wpf,party,devexpress,telerik,ms,sql,server,mariadb,s,w,web,web,s,w,frontend,backend,mfc,wpf,party,devexpress,telerik,ms,sql,server,mariadb,3,75,3,75,3,75</t>
+          <t>mariadb</t>
         </is>
       </c>
     </row>
@@ -3069,11 +2997,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2,erp,pos,pc,2,erp,08511,41,500m,2,erp,pos,pc,2,erp,2,2,erp,pos,pc,2,erp,erp,pos,pc,2,erp,erp,pos,pc,2,erp,erp,pos,pc,2,erp,08511,41,500m,08511,41,500m</t>
-        </is>
-      </c>
+      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3096,6 +3020,7 @@
           <t>7 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3118,6 +3043,7 @@
           <t>7 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3140,6 +3066,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3162,11 +3089,7 @@
           <t>경력 10년↑ · 정규직 외</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>13217,215</t>
-        </is>
-      </c>
+      <c r="E110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3189,6 +3112,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3211,6 +3135,7 @@
           <t>10 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3235,7 +3160,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>java,spring,dba,billing,react,flutter,java,spring,dba,billing,react,flutter,c,t,o,global,i,t,26,user,1,2,26,27,eu,27,28,i,p,o,ultra,easy,pay,o2o,commerce,bonus,big,data,a,i,block,chain,6,engine,s,w,h,w,25,eu,26,global,o2o,tech,fin,global,1,web,r,1,web,skill,spec,pl,pm,os,linux,db,postgre,sql,spring,spring,boot,language,java,redis,react,jsp,javascript,j,query,mybatis,angular,flutter,c,ndef,aws,tomcat,9,node,js,vue,js,react,tms,pm,pl,billing,cms,big,data,a,i,09,00,18,08501,225,800m,c,t,o,global,i,t,26,user,1,2,26,27,eu,27,28,i,p,o,ultra,easy,pay,o2o,commerce,bonus,big,data,a,i,block,chain,6,engine,s,w,h,w,25,eu,26,global,o2o,tech,fin,global,1,web,r,1,web,skill,spec,pl,pm,os,linux,db,postgre,sql,spring,spring,boot,language,java,redis,react,jsp,javascript,j,query,mybatis,angular,flutter,c,ndef,aws,tomcat,9,node,js,vue,js,react,tms,pm,pl,billing,cms,big,data,a,i,c,t,o,global,i,t,26,user,1,2,26,27,eu,27,28,i,p,o,ultra,easy,pay,o2o,commerce,bonus,big,data,a,i,block,chain,6,engine,s,w,h,w,25,eu,26,global,o2o,tech,fin,global,1,c,t,o,global,i,t,26,user,1,2,26,27,eu,27,28,i,p,o,ultra,easy,pay,o2o,commerce,bonus,big,data,a,i,block,chain,6,engine,s,w,h,w,25,eu,26,global,o2o,tech,fin,global,1,1,web,skill,spec,pl,pm,os,linux,db,postgre,sql,spring,spring,boot,language,java,redis,react,jsp,javascript,j,query,mybatis,angular,flutter,c,ndef,aws,tomcat,9,node,js,vue,js,react,tms,pm,pl,billing,cms,big,data,a,i,pm,pl,billing,cms,big,data,a,i,09,00,18,08501,225,800m,09,00,18,00,08501,225,800m</t>
+          <t>react,javascript,angular,vue,java,spring,redis,flutter,aws</t>
         </is>
       </c>
     </row>
@@ -3260,6 +3185,7 @@
           <t>신입 · 정규직</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3282,6 +3208,7 @@
           <t>경력(년수무관) · 정규직</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3304,6 +3231,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3326,6 +3254,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3348,6 +3277,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3370,11 +3300,7 @@
           <t>경력 2년↑ · 계약직</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>it,os,linux,unix,windows,dbms</t>
-        </is>
-      </c>
+      <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3397,6 +3323,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3419,6 +3346,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3443,7 +3371,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>dpos,2024,2024,tips,r,d,d,dao,dpos,2024,2024,tips,r,d,d,dao,react,next,js,html,css,javascript,typescript,react,next,js,react,native,tailwindcss,styled,components,react,state,ai,tools,git,figma,vscode,co,founder,ui,ux,48400,133,300m,feat,react,next,js,html,css,javascript,typescript,react,next,js,react,native,tailwindcss,styled,components,react,state,ai,tools,git,figma,vscode,co,founder,ui,ux,react,next,js,react,next,js,html,css,javascript,typescript,react,next,js,react,native,tailwindcss,styled,components,react,state,ai,tools,git,figma,vscode,html,css,javascript,typescript,react,next,js,react,native,tailwindcss,styled,components,react,state,ai,tools,git,figma,vscode,co,founder,co,founder,ui,ux,ui,ux,48400,133,300m,feat,48400,133,300m</t>
+          <t>react,javascript,typescript,tailwindcss</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3398,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>c,c,go,c,c,go,c,09,30,18,07208,23,300m,100,c,c,c,09,30,18,07208,23,300m,100,09,30,18,30,07208,23,300m</t>
+          <t>go</t>
         </is>
       </c>
     </row>
@@ -3495,6 +3423,7 @@
           <t>3 ~ 12년 · 정규직</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3517,6 +3446,7 @@
           <t>경력(년수무관) · 정규직</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3539,6 +3469,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3561,6 +3492,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3583,6 +3515,7 @@
           <t>10 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3605,6 +3538,7 @@
           <t>7 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3627,6 +3561,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3649,6 +3584,7 @@
           <t>신입 · 정규직</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3671,6 +3607,7 @@
           <t>경력 4년↑ · 파견직</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3693,6 +3630,7 @@
           <t>10 ~ 12년 · 정규직</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3715,6 +3653,7 @@
           <t>10 ~ 12년 · 정규직</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3739,7 +3678,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>snf,snf,snf,snf,it,ids,edr,siem,mfa,ioc,indicator,of,compromise,fluency,hq,cio,reporting,windows,linux,siem,powershell,shell,script,it,ids,edr,siem,mfa,ioc,indicator,of,compromise,fluency,hq,cio,reporting,windows,linux,siem,powershell,shell,script,it,ids,edr,siem,mfa,ioc,indicator,of,compromise,fluency,hq,cio,reporting,windows,linux,siem,powershell,shell,script,09,00,18,00,94,09,00,18,00,94,09,00,18,00,94,23,23,23,23</t>
+          <t>mfa</t>
         </is>
       </c>
     </row>
@@ -3764,6 +3703,7 @@
           <t>3 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3786,6 +3726,7 @@
           <t>13 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3808,6 +3749,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3830,6 +3772,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3852,6 +3795,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3874,6 +3818,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3896,6 +3841,7 @@
           <t>경력(년수무관) · 계약직</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3918,6 +3864,7 @@
           <t>3 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3942,7 +3889,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ios,android,spring,09,00,18,14041,23,800m,ios,android,spring,ios,android,spring,ios,android,spring,spring,09,00,18,14041,23,800m,09,00,18,00,14041,23,800m</t>
+          <t>spring</t>
         </is>
       </c>
     </row>
@@ -3967,6 +3914,7 @@
           <t>경력 7년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3991,7 +3939,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>java,tr,069,onm,java,si,spring,boot,java,tr,069,onm,java,si,spring,boot,2,java,java,spring,si,03117,383,500m,2,java,java,spring,si,2,2,java,java,spring,si,java,spring,si,03117,383,500m,03117,383,500m</t>
+          <t>java,spring</t>
         </is>
       </c>
     </row>
@@ -4016,6 +3964,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4038,6 +3987,7 @@
           <t>1 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4060,6 +4010,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4084,7 +4035,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>react,java,dba,billing,flutter,c,t,o,global,i,t,26,user,1,2,26,27,eu,27,28,i,p,o,ultra,easy,pay,o2o,commerce,bonus,big,data,a,i,block,chain,6,engine,s,w,h,w,25,eu,26,global,o2o,tech,fin,global,1,web,r,1,web,skill,spec,pl,pm,os,linux,db,postgre,sql,spring,spring,boot,language,java,redis,react,jsp,javascript,j,query,mybatis,angular,flutter,c,ndef,aws,tomcat,9,node,js,vue,js,react,tms,pm,pl,billing,cms,big,data,a,i,09,00,18,08501,225,800m,c,t,o,global,i,t,26,user,1,2,26,27,eu,27,28,i,p,o,ultra,easy,pay,o2o,commerce,bonus,big,data,a,i,block,chain,6,engine,s,w,h,w,25,eu,26,global,o2o,tech,fin,global,1,web,r,1,web,skill,spec,pl,pm,os,linux,db,postgre,sql,spring,spring,boot,language,java,redis,react,jsp,javascript,j,query,mybatis,angular,flutter,c,ndef,aws,tomcat,9,node,js,vue,js,react,tms,pm,pl,billing,cms,big,data,a,i,c,t,o,global,i,t,26,user,1,2,26,27,eu,27,28,i,p,o,ultra,easy,pay,o2o,commerce,bonus,big,data,a,i,block,chain,6,engine,s,w,h,w,25,eu,26,global,o2o,tech,fin,global,1,c,t,o,global,i,t,26,user,1,2,26,27,eu,27,28,i,p,o,ultra,easy,pay,o2o,commerce,bonus,big,data,a,i,block,chain,6,engine,s,w,h,w,25,eu,26,global,o2o,tech,fin,global,1,1,web,skill,spec,pl,pm,os,linux,db,postgre,sql,spring,spring,boot,language,java,redis,react,jsp,javascript,j,query,mybatis,angular,flutter,c,ndef,aws,tomcat,9,node,js,vue,js,react,tms,pm,pl,billing,cms,big,data,a,i,pm,pl,billing,cms,big,data,a,i,09,00,18,08501,225,800m,09,00,18,00,08501,225,800m</t>
+          <t>react,javascript,angular,vue,java,spring,redis,flutter,aws</t>
         </is>
       </c>
     </row>
@@ -4109,11 +4060,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>android,android,2,android,ios,android,ios,r,d,09,00,18,07238,19,300m,2,android,ios,android,ios,r,d,2,2,android,ios,r,d,android,ios,r,d,09,00,18,07238,19,300m,09,00,18,00,07238,19,300m</t>
-        </is>
-      </c>
+      <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4138,7 +4085,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>nms,poc,bmt,redhat,oracle,rocky,5,sql,mariadb,6,3,tcp,ip,docker,nms,poc,bmt,redhat,oracle,rocky,5,sql,mariadb,6,3,tcp,ip,docker</t>
+          <t>mariadb,docker</t>
         </is>
       </c>
     </row>
@@ -4163,11 +4110,7 @@
           <t>경력 2년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>2,it,h,w,n,w,9,30,18,30,09,30,12,00,626,841,2,it,h,w,n,w,2,2,it,h,w,n,w,it,h,w,n,w,9,30,18,30,09,30,12,00,626,841,9,30,18,30,09,30,12,00,626,841</t>
-        </is>
-      </c>
+      <c r="E153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4190,11 +4133,7 @@
           <t>3 ~ 7년 · 정규직</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>si,erp,crm,se,mcu,s,w,c,13460,25</t>
-        </is>
-      </c>
+      <c r="E154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4217,6 +4156,7 @@
           <t>4 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4239,11 +4179,7 @@
           <t>경력 4년↑ · 정규직 외</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>api,09,00,06,08044,api,api,api,09,00,06,08044,3,09,00,06,00,08044,3</t>
-        </is>
-      </c>
+      <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4266,6 +4202,7 @@
           <t>경력무관 · 프리랜서</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4290,7 +4227,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>c,go,ex,ceph,filesystem,1,ok,09,30,18,30,06234,124,500m,c,go,ex,ceph,filesystem,1,ok,c,go,ex,ceph,filesystem,1,ok,c,go,ex,ceph,filesystem,1,ok,09,30,18,30,06234,124,500m,09,30,18,30,06234,124,500m</t>
+          <t>go</t>
         </is>
       </c>
     </row>
@@ -4315,6 +4252,7 @@
           <t>8 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4339,7 +4277,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>java,react,native,java,react,native,java,react,native,ios,04537,74,500m,java,react,native,ios,java,react,native,ios,java,react,native,ios,04537,74,500m,04537,74,500m</t>
+          <t>react,java</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4304,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>flutter,flutter,4000,aws,13366,3508,200m,4000,aws,aws,13366,3508,200m,13366,3508,200m</t>
+          <t>flutter,aws</t>
         </is>
       </c>
     </row>
@@ -4391,6 +4329,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4413,11 +4352,7 @@
           <t>5 ~ 7년 · 정규직</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>css,css,android,ios,08390,31,800m,css,css,android,ios,css,css,android,ios,css,css,android,ios,css,android,ios,08390,31,800m,08390,31,800m</t>
-        </is>
-      </c>
+      <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4442,7 +4377,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>c,tcp,c,c,tcp,ms,sql,my,sql,redis,oop,sql,gcc,07298,25,500m,recruit,zempot,com,c,tcp,c,c,tcp,ms,sql,my,sql,redis,oop,sql,gcc,c,tcp,c,c,tcp,ms,sql,my,sql,redis,oop,sql,gcc,c,tcp,c,c,tcp,ms,sql,my,sql,redis,oop,sql,gcc,tcp,c,c,tcp,1,c,c,tcp,ms,sql,my,sql,redis,oop,1,sql,gcc,07298,25,500m,07298,25,500m,recruit,zempot,com,recruit,zempot,com,recruit,zempot,com,recruit,zempot,com</t>
+          <t>redis</t>
         </is>
       </c>
     </row>
@@ -4467,11 +4402,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>oa,cctv,oa,cctv,2,oa,34185,118,800m,2,oa,2,2,oa,34185,118,800m,34185,118,800m</t>
-        </is>
-      </c>
+      <c r="E165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4496,7 +4427,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ubuntu,typescript,scss,frontend,springboot,backend,windows,linux,os,1,4,mri,63208,217,ubuntu,typescript,scss,frontend,springboot,backend,windows,linux,os,1,4,mri,ubuntu,typescript,scss,frontend,springboot,backend,windows,linux,os,1,4,mri,ubuntu,typescript,scss,frontend,springboot,backend,windows,linux,os,1,4,mri,ubuntu,63208,217,63208,217</t>
+          <t>typescript</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4454,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>reactjs,recoil,styled,node,js,typescript,javascript,es7,aws,ec2,rds,s3,etc,4,10,00,19,00,11,00,20,06068,15,500m,reactjs,recoil,styled,node,js,typescript,javascript,es7,aws,ec2,rds,s3,etc,4,reactjs,recoil,styled,node,js,typescript,javascript,es7,aws,ec2,rds,s3,etc,4,reactjs,recoil,styled,node,js,typescript,javascript,es7,aws,ec2,rds,s3,etc,4,10,00,19,00,11,00,20,06068,15,500m,10,00,19,00,11,00,20,00,06068,15,500m</t>
+          <t>recoil,typescript,javascript,aws,ec2,rds,s3</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4481,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2,script,bash,unix,os,document,wiki,elk,stack,redis,mariadb,open,source,2,script,bash,unix,os,document,wiki,elk,stack,redis,mariadb,open,source,2,script,bash,unix,os,document,wiki,elk,stack,redis,mariadb,open,source,135,270,954,13,200m,135,270,954,13,200m</t>
+          <t>redis,mariadb</t>
         </is>
       </c>
     </row>
@@ -4575,6 +4506,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4597,6 +4529,7 @@
           <t>2 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4619,11 +4552,7 @@
           <t>경력 10년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>cortex,m,series,canopen,ethercat,pid,pcb,artwork,hw,hw,pcb,hw,hw,pspice,allegro,pcb,tms320f283xx,cortex,m,series,canopen,ethercat,pid,pcb,artwork,hw,hw,pcb,hw,hw,pspice,allegro,pcb,tms320f283xx,cortex,m,series,canopen,ethercat,pid,pcb,artwork,hw,hw,pcb,hw,hw,pspice,allegro,pcb,tms320f283xx,global,standard,technology,gst,in,com,global,standard,technology,gst,in,com,3,4,3,4,100,pi,ps,100,pi,ps</t>
-        </is>
-      </c>
+      <c r="E171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4646,11 +4575,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>welcome,to,join,us,cti,eti,welcome,to,join,us,cti,eti,job,description,cti,eti,137,070,1543,1,300m,q,a,q,a,ipcc,q,a,ecs,ecs,q,a,eap,ecs,assessment,plan,q,a,ecs,q,a,q,a,ecs,job,description,cti,eti,job,description,cti,eti,cti,eti,137,070,1543,1,300m,137,070,1543,1,300m,q,a,q,a,ipcc,q,a,ecs,ecs,q,a,eap,ecs,assessment,plan,q,a,ecs,q,a,q,a,ecs,q,a,q,a,ipcc,q,a,ecs,ecs,q,a,eap,ecs,assessment,plan,q,a,ecs,q,a,q,a,ecs</t>
-        </is>
-      </c>
+      <c r="E172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4673,6 +4598,7 @@
           <t>2 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4695,6 +4621,7 @@
           <t>5 ~ 12년 · 정규직</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4717,6 +4644,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4739,6 +4667,7 @@
           <t>3 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4761,6 +4690,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4783,6 +4713,7 @@
           <t>3 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4805,6 +4736,7 @@
           <t>2 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4829,7 +4761,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>it,www,greenlight,co,kr,it,www,greenlight,co,kr,it,www,greenlight,co,kr,aso,ga4,google,analytics,semrush,ui,ux,ui,ux,adobe,ui,b2c,ios,css,react,native,js,native,infrastructure,aso,ga4,google,analytics,semrush,aso,ga4,google,analytics,semrush,ui,ux,ui,ux,adobe,ui,b2c,ios,css,ui,ux,adobe,ui,b2c,ios,css,react,native,js,native,infrastructure,js,native,infrastructure,04782,25,sk,v1,tower,1609,200m,04782,25,sk,v1,tower,1609,200m</t>
+          <t>react</t>
         </is>
       </c>
     </row>
@@ -4854,6 +4786,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4876,6 +4809,7 @@
           <t>4 ~ 6년 · 정규직</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4898,6 +4832,7 @@
           <t>2 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4920,11 +4855,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>1,1,igg,igs,sox,gcu,control,2,offshore,parts,drums,membrane,panels,loop,coils,offshore,fpso,flng,lng,leg,lpg,offshore,and,parts,bulk,tanks,reels,connection,pipes,valve,skids,fin,tube,stacks,hoods,skirts,etc,3,insulation,lng,membrane,gtt,mark,mark,flex,no96,l,03,kogas,kc,1,lng,leg,lpg,panel,foam,in,situ,spray,type,ihi,spb,type,lng,leg,lpg,plant,offshore,flng,onshore,reefer,vessel,juice,carrier,etc,company,lng,leg,lpg,lng,ge,b,w,kawasaki,plant,1,1,igg,igs,sox,gcu,control,2,offshore,parts,drums,membrane,panels,loop,coils,offshore,fpso,flng,lng,leg,lpg,offshore,and,parts,bulk,tanks,reels,connection,pipes,valve,skids,fin,tube,stacks,hoods,skirts,etc,3,insulation,lng,membrane,gtt,mark,mark,flex,no96,l,03,kogas,kc,1,lng,leg,lpg,panel,foam,in,situ,spray,type,ihi,spb,type,lng,leg,lpg,plant,offshore,flng,onshore,reefer,vessel,juice,carrier,etc,company,lng,leg,lpg,lng,ge,b,w,kawasaki,plant,2,spare,qa,2,spare,qa,spare,qa,3,3,4,4,4,3,3,351,4,4,4,4,4,3,3,351,4,4,5,5,6,6,7,7,8,76,recruit1,kangrim,com,8,76,recruit1,kangrim,com</t>
-        </is>
-      </c>
+      <c r="E184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4947,6 +4878,7 @@
           <t>7 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4969,11 +4901,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>fae,bluetooth,hw,iot,sw,interconnect,i,c,fae,bluetooth,hw,iot,sw,interconnect,i,c,bluetooth,hw,hw,hw,hw,rf,pcb,pads,cadence,allegro,altium,hw,audio,precision,r,s,antirsu,tescom,lite,point,iot,sw,c,c,soc,rtos,fi,bt,interconnect,i,c,line,card,reader,usb3,2,usb,4,hub,type,c,pd,redriver,embedded,controller,mnt,tv,note,pc,hw,kernel,embedded,system,bluetooth,hw,hw,hw,hw,rf,pcb,pads,cadence,allegro,altium,hw,audio,precision,r,s,antirsu,tescom,lite,point,iot,sw,c,c,soc,rtos,fi,bt,interconnect,i,c,line,card,reader,usb3,2,usb,4,hub,type,c,pd,redriver,embedded,controller,mnt,tv,note,pc,hw,kernel,embedded,system,bluetooth,hw,hw,hw,hw,rf,pcb,pads,cadence,allegro,altium,hw,audio,precision,r,s,antirsu,tescom,lite,point,iot,sw,c,c,soc,rtos,fi,bt,interconnect,i,c,line,card,reader,usb3,2,usb,4,hub,type,c,pd,redriver,embedded,controller,mnt,tv,note,pc,hw,kernel,embedded,system,bluetooth,hw,hw,hw,hw,rf,pcb,pads,cadence,allegro,altium,hw,audio,precision,r,s,antirsu,tescom,lite,point,iot,sw,c,c,soc,rtos,fi,bt,interconnect,i,c,line,card,reader,usb3,2,usb,4,hub,type,c,pd,redriver,embedded,controller,mnt,tv,note,pc,hw,kernel,embedded,system,jennie,pak,realtek,com,jennie,pak,realtek,com,www,realtek,com,www,amebaiot,com,www,realmcu,com,5f,18,saimdang,ro,seocho,gu,seoul,republic,of,korea,06652,www,realtek,com,www,amebaiot,com,www,realmcu,com,5f,18,saimdang,ro,seocho,gu,seoul,republic,of,korea,06652,www,realtek,com,www,amebaiot,com,www,realmcu,com,5f,18,saimdang,ro,seocho,gu,seoul,republic,of,korea,06652</t>
-        </is>
-      </c>
+      <c r="E186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4998,7 +4926,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>se,ms,office,excel,google,spreadsheet,b1,b2,isms,p,fmeca,fdir,microsoft,office,excel,word,power,point,b1,b2,3d,e,g,solidworks,creo,catia,e,g,stk,freeflyer,gmat,fmeca,fdir,mbse,ai,t,assembly,integration,test,ai,t,ai,t,ai,t,ai,t,ait,python,c,c,microsoft,office,excel,word,labview,can,bus,rs232,422,485,lvds,spi,ethernet,dc,b1,b2,link,link,budget,ccsds,dvb,signal,spectrum,loss,signal,eb,n0,snr,insertion,loss,spectrum,network,signal,microwave,ccsds,harness,routing,ai,t,ipc,whma,620,solidworks,eoc,mtf,mps,fds,coc,bom,ms,excel,erp,ecss,nasa,class,grade,erp,c,linux,github,github,actions,slack,clickup,google,docs,c,application,sw,ci,cd,uml,cfs,se,ms,office,excel,google,spreadsheet,b1,b2,isms,p,fmeca,fdir,microsoft,office,excel,word,power,point,b1,b2,3d,e,g,solidworks,creo,catia,e,g,stk,freeflyer,gmat,fmeca,fdir,mbse,ai,t,assembly,integration,test,ai,t,ai,t,ai,t,ai,t,ait,python,c,c,microsoft,office,excel,word,labview,can,bus,rs232,422,485,lvds,spi,ethernet,dc,b1,b2,link,link,budget,ccsds,dvb,signal,spectrum,loss,signal,eb,n0,snr,insertion,loss,spectrum,network,signal,microwave,ccsds,harness,routing,ai,t,ipc,whma,620,solidworks,eoc,mtf,mps,fds,coc,bom,ms,excel,erp,ecss,nasa,class,grade,erp,c,linux,github,github,actions,slack,clickup,google,docs,c,application,sw,ci,cd,uml,cfs,se,ms,office,excel,google,spreadsheet,b1,b2,isms,p,fmeca,fdir,microsoft,office,excel,word,power,point,b1,b2,3d,e,g,solidworks,creo,catia,e,g,stk,freeflyer,gmat,fmeca,fdir,mbse,ai,t,assembly,integration,test,ai,t,ai,t,ai,t,ai,t,ait,python,c,c,microsoft,office,excel,word,labview,can,bus,rs232,422,485,lvds,spi,ethernet,dc,b1,b2,link,link,budget,ccsds,dvb,signal,spectrum,loss,signal,eb,n0,snr,insertion,loss,spectrum,network,signal,microwave,ccsds,harness,routing,ai,t,ipc,whma,620,solidworks,eoc,mtf,mps,fds,coc,bom,ms,excel,erp,ecss,nasa,class,grade,erp,c,linux,github,github,actions,slack,clickup,google,docs,c,application,sw,ci,cd,uml,cfs,ir,ir,pr,ir,ir,ms,office,google,workspace,ir,ir,pr,ir,ir,ms,office,google,workspace,a,z,data,full,cycle,hr,it,hr,flex,greeting,specter,linked,in,notion,slack,ms,office,google,workspace,ir,ir,pr,ir,ir,ms,office,google,workspace,ir,ir,pr,ir,ir,ms,office,google,workspace,a,z,data,full,cycle,hr,it,hr,flex,greeting,specter,linked,in,notion,slack,ms,office,google,workspace,ir,ir,pr,ir,ir,ms,office,google,workspace,ir,ir,pr,ir,ir,ms,office,google,workspace,a,z,data,full,cycle,hr,it,hr,flex,greeting,specter,linked,in,notion,slack,ms,office,google,workspace</t>
+          <t>python</t>
         </is>
       </c>
     </row>
@@ -5023,6 +4951,7 @@
           <t>10 ~ 13년 · 정규직</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5045,11 +4974,7 @@
           <t>2 ~ 5년 · 정규직 외</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>ai,ai,2,ai,09,30,18,06621,23,200m,2,ai,2,2,ai,09,30,18,06621,23,200m,09,30,18,30,06621,23,200m</t>
-        </is>
-      </c>
+      <c r="E189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5072,11 +4997,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>ppt,esg,ppt,4,t,sq,smt,smt,smt,cad,project,cad,agv,cad,sap,scm,sd,mm,pp,erp,abap,a,spice,part,pro,cfx,valve,nvh,iso,14001,45001,8,00,20,00,20,00,8,00,1,8,00,20,00,20,00,8,00,1,4m,ppt,esg,ppt,4,t,sq,smt,smt,smt,cad,project,cad,agv,cad,sap,scm,sd,mm,pp,erp,abap,a,spice,part,pro,cfx,valve,nvh,iso,14001,45001,8,00,20,00,20,00,8,00,1,8,00,20,00,20,00,8,00,1,4m,ppt,esg,ppt,4,t,sq,smt,smt,smt,cad,project,cad,agv,cad,sap,scm,sd,mm,pp,erp,abap,a,spice,part,pro,cfx,valve,nvh,iso,14001,45001,8,00,20,00,20,00,8,00,1,8,00,20,00,20,00,8,00,1,4m,smt,sq,4m,4m,spc,pcba,ewp,smt,oem,eop,opu,sr,s,sw,pure,c,embedded,system,c,misra,c,ti,st,pmsm,bsw,basic,software,latform,can,lin,s,sw,pure,c,embedded,system,c,misra,c,ti,st,pmsm,bsw,basic,software,latform,can,lin,h,diecasting,program,creo,catia,3,sw,sw,can,lin,sw,can,lin,smt,sq,4m,4m,spc,pcba,ewp,smt,oem,eop,opu,sr,s,sw,pure,c,embedded,system,c,misra,c,ti,st,pmsm,bsw,basic,software,latform,can,lin,s,sw,pure,c,embedded,system,c,misra,c,ti,st,pmsm,bsw,basic,software,latform,can,lin,h,diecasting,program,creo,catia,3,sw,sw,can,lin,sw,can,lin,smt,sq,4m,4m,spc,pcba,ewp,smt,oem,eop,opu,sr,s,sw,pure,c,embedded,system,c,misra,c,ti,st,pmsm,bsw,basic,software,latform,can,lin,s,sw,pure,c,embedded,system,c,misra,c,ti,st,pmsm,bsw,basic,software,latform,can,lin,h,diecasting,program,creo,catia,3,sw,sw,can,lin,sw,can,lin,mct,c,time,out,cad,data,isir,mct,c,time,out,cad,data,isir,mct,c,time,out,cad,data,isir,8,00,19,30,20,00,7,30,pmc,8,00,19,30,20,00,7,30,pmc,8,00,19,30,20,00,7,30,pmc,031,599,1389,031,599,1389,recruit,myunghwa,com,65,http,www,myunghwa,co,kr,https,www,facebook,com,myunghwa1957,recruit,myunghwa,com,65,http,www,myunghwa,co,kr,https,www,facebook,com,myunghwa1957</t>
-        </is>
-      </c>
+      <c r="E190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5099,6 +5020,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5121,6 +5043,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5143,6 +5066,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5165,11 +5089,7 @@
           <t>경력무관 · 정규직 외</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>09,00,18,06179,15,500m,09,00,18,06179,15,500m,09,00,18,00,06179,15,500m</t>
-        </is>
-      </c>
+      <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5192,11 +5112,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>07795,790,3,700m,07795,790,3,700m,1,1,1</t>
-        </is>
-      </c>
+      <c r="E195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5219,6 +5135,7 @@
           <t>2 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5241,6 +5158,7 @@
           <t>2 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5263,6 +5181,7 @@
           <t>9 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5287,7 +5206,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>md,t,md,t,t,md,md,t,it,oracle,spring,mvc,db,oracle,pl,ios,md,t,md,t,md,t,t,md,md,t,md,t,t,md,md,t,it,oracle,spring,mvc,db,oracle,pl,ios,it,oracle,spring,mvc,db,oracle,pl,ios,2025,4,15,00,00,2025,4,20,24,00,2025,4,15,00,00,2025,4,20,24,00</t>
+          <t>spring</t>
         </is>
       </c>
     </row>
@@ -5312,6 +5231,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5334,11 +5254,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>asnt,lv,3,iso9712,psm,it,asnt,lv,3,iso9712,psm,it,asnt,lv,3,iso9712,psm,it,http,recruit,hsgsd,co,kr,http,recruit,hsgsd,co,kr,647,7221,e,mail,10010382,hsgsd,co,kr,647,7221,e,mail,10010382,hsgsd,co,kr</t>
-        </is>
-      </c>
+      <c r="E201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5361,6 +5277,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5385,7 +5302,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>windows,html,java,python,photoshop,md,md,r,d,r,d,r,d,13824,54</t>
+          <t>java,python</t>
         </is>
       </c>
     </row>
@@ -5410,11 +5327,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>uam,c,c,uam,c,c,ai,c,09,00,18,00,08,00,10,00,14057,387,1201,800m,800m,ai,c,ai,c,ai,c,09,00,18,00,08,00,10,00,14057,387,1201,800m,800m,09,00,18,00,08,00,10,00,14057,387,1201,800m,800m</t>
-        </is>
-      </c>
+      <c r="E204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5437,11 +5350,7 @@
           <t>경력(년수무관) · 정규직 외</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>2,09,30,18,06132,6,9,100m,2,2,2,09,30,18,06132,6,9,100m,09,30,18,30,06132,6,9,100m</t>
-        </is>
-      </c>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5466,7 +5375,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>it,aws,ali,cloud,ms,azure,javaspring,framework,mybatishtml5,java,script,es6,cssgit,mavenrdbms,mysql,swiftcocoa,framework,jpareact,react,nativecocoapodskotlingradlelinux,shell,script,06132,6,9,100m</t>
+          <t>react,java,mysql,aws,azure</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5402,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>aws,ta,se,aa,aws,ta,se,aa,se,aa,09,30,18,06132,6,9,100m,se,aa,ta,se,aa,09,30,18,06132,6,9,100m,09,30,18,30,06132,6,9,100m</t>
+          <t>aws</t>
         </is>
       </c>
     </row>
@@ -5518,11 +5427,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>c,c,c,dlp,c,c,c,dlp,dlp,dlp,data,loss,prevention,rsc,removable,storage,control,c,c,js,restapi,sql,native,winapi,windows,sdk,windows,wdk,kernel,mode,driver,13,00,18,09,00,18,09,00,18,10071,107,500m,dlp,dlp,data,loss,prevention,rsc,removable,storage,control,c,c,js,restapi,sql,native,winapi,windows,sdk,windows,wdk,kernel,mode,driver,dlp,dlp,data,loss,prevention,rsc,removable,storage,control,c,c,js,restapi,sql,native,winapi,windows,sdk,windows,wdk,kernel,mode,driver,dlp,data,loss,prevention,rsc,removable,storage,control,c,c,js,restapi,sql,native,winapi,windows,sdk,windows,wdk,kernel,mode,driver,13,00,18,09,00,18,09,00,18,10071,107,500m,13,00,18,09,00,18,09,00,18,10071,107,500m</t>
-        </is>
-      </c>
+      <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5545,6 +5450,7 @@
           <t>5 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5567,6 +5473,7 @@
           <t>8 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5589,6 +5496,7 @@
           <t>2 ~ 4년 · 정규직</t>
         </is>
       </c>
+      <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5611,6 +5519,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5633,11 +5542,7 @@
           <t>경력(년수무관) · 정규직 외</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>2,09,30,18,06132,6,9,100m,2,2,2,09,30,18,06132,6,9,100m,09,30,18,30,06132,6,9,100m</t>
-        </is>
-      </c>
+      <c r="E213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5660,6 +5565,7 @@
           <t>경력 7년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5682,11 +5588,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>divii,divii,divii,qa,it,it,qa,web,app,it,project,qa,09,00,18,00,10,00,19,00,09,00,17,07251,166,300m,divii,divii,divii,qa,it,it,qa,web,app,it,project,qa,web,app,it,project,qa,web,app,it,project,qa,09,00,18,00,10,00,19,00,09,00,17,07251,166,300m,09,00,18,00,10,00,19,00,09,00,17,00,07251,166,300m</t>
-        </is>
-      </c>
+      <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5709,11 +5611,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>2,op,qa,24x365,sms,oa,138,240,7,29,500m,2,op,qa,24x365,sms,oa,2,2,op,qa,24x365,sms,oa,qa,24x365,sms,oa,oa,oa,138,240,7,29,500m,138,240,7,29,500m</t>
-        </is>
-      </c>
+      <c r="E216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5736,11 +5634,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>ai,agent,ai,agent,agent,llm,rag,ai,agent,agent,09,00,18,41566,47,agent,llm,rag,ai,agent,agent,ai,agent,llm,rag,ai,agent,agent,llm,rag,ai,agent,agent,agent,09,00,18,41566,47,09,00,18,00,41566,47</t>
-        </is>
-      </c>
+      <c r="E217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5765,7 +5659,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>ui,ux,ui,ui,ui,ux,app,ib,ib,deal,ui,ux,ui,ui,ui,ux,app,ib,ib,deal,ui,ux,ui,ui,ui,ux,app,ib,ib,deal,was,java,java,script,pl,sql,oracle,c,back,end,api,spring,stored,procedure,hf,hug,jsp,javascript,was,kpi,attribution,tool,appsflyer,branch,adjust,adobe,creative,suite,figma,po,so,it,ui,ui,ux,end,css,ui,ux,html,css,sketch,adobe,photoshop,illustrator,native,app,app,hybrid,app,web,was,javascript,jsp,react,jsp,spring,cfa,ib,pf,ib,ib,deal,sourcing,event,eod,was,java,java,script,pl,sql,oracle,c,back,end,api,spring,stored,procedure,hf,hug,jsp,javascript,was,kpi,attribution,tool,appsflyer,branch,adjust,adobe,creative,suite,figma,po,so,it,ui,ui,ux,end,css,ui,ux,html,css,sketch,adobe,photoshop,illustrator,native,app,app,hybrid,app,web,was,javascript,jsp,react,jsp,spring,cfa,ib,pf,ib,ib,deal,sourcing,event,eod,was,java,java,script,pl,sql,oracle,c,back,end,api,spring,stored,procedure,hf,hug,jsp,javascript,was,kpi,attribution,tool,appsflyer,branch,adjust,adobe,creative,suite,figma,po,so,it,ui,ui,ux,end,css,ui,ux,html,css,sketch,adobe,photoshop,illustrator,native,app,app,hybrid,app,web,was,javascript,jsp,react,jsp,spring,cfa,ib,pf,ib,ib,deal,sourcing,event,eod,ui,ux,ui,ib,ui,ux,ui,ib,ui,ux,ui,ib,2025,04,11,09,00,2025,04,24,18,00,https,im,recruiter,co,kr,2025,04,11,09,00,2025,04,24,18,00,https,im,recruiter,co,kr,1,05,02,05,12,05,16,2025,05,21,1,05,02,05,12,05,16,2025,05,21,05,02,05,12,05,16,2025,05,21,053,740,2098,053,740,2098</t>
+          <t>javascript,react,java,spring</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5686,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>it,os,aws,azure,gcp,sql,gcp,agile,scrum,ex,linux,db,network,aws,ms,azure,181,it,os,aws,azure,gcp,sql,gcp,agile,scrum,ex,linux,db,network,aws,ms,azure,it,it,os,aws,azure,gcp,sql,gcp,agile,scrum,ex,linux,db,network,aws,ms,azure,os,aws,azure,gcp,sql,gcp,agile,scrum,ex,linux,db,network,aws,ms,azure,ex,linux,db,network,aws,ms,azure,181,96m,181,96m</t>
+          <t>aws,azure,gcp</t>
         </is>
       </c>
     </row>
@@ -5817,6 +5711,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5841,7 +5736,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>gme,hq,office,introduction,gme,gme,hq,office,introduction,gme,mvno,lgu,kt,mvno,kait,mvno,mvno,mno,mvno,mvno,it,cs,risk,confluence,jira,spring,java,admin,spring,java,net,c,mssql,git,spring,java,admin,spring,java,git,net,infra,engineer,on,premise,cloud,isms,linux,window,linux,aws,security,on,premise,aws,foreign,staff,develop,and,execute,online,offline,marketing,strategies,plan,targeted,campaigns,for,foreign,residents,in,korea,manage,digital,content,sns,youtube,blogs,conduct,market,research,on,foreign,resident,trends,build,partnerships,with,foreign,communities,and,financial,institutions,qualifications,3,years,of,experience,preferably,in,overseas,remittance,or,finance,experience,in,marketing,to,foreign,residents,in,korea,e,7,f,2,f,5,or,f,6,visa,holder,preferred,qualifications,fluent,in,english,or,korean,korean,driver,s,license,holder,experience,with,meta,google,ads,strong,cross,cultural,communication,skills,sns,sns,google,analytics,facebook,ads,mvno,lgu,kt,mvno,kait,mvno,mvno,mno,mvno,mvno,mvno,lgu,kt,mvno,kait,mvno,mvno,mno,mvno,mvno,it,cs,risk,confluence,jira,spring,java,admin,spring,java,net,c,mssql,git,spring,java,admin,spring,java,git,net,infra,engineer,on,premise,cloud,isms,linux,window,linux,aws,security,on,premise,aws,cs,risk,confluence,jira,spring,java,admin,spring,java,net,c,mssql,git,spring,java,admin,spring,java,git,net,infra,engineer,on,premise,cloud,isms,linux,window,linux,aws,security,on,premise,aws,foreign,staff,develop,and,execute,online,offline,marketing,strategies,plan,targeted,campaigns,for,foreign,residents,in,korea,manage,digital,content,sns,youtube,blogs,conduct,market,research,on,foreign,resident,trends,build,partnerships,with,foreign,communities,and,financial,institutions,qualifications,3,years,of,experience,preferably,in,overseas,remittance,or,finance,experience,in,marketing,to,foreign,residents,in,korea,e,7,f,2,f,5,or,f,6,visa,holder,preferred,qualifications,fluent,in,english,or,korean,korean,driver,s,license,holder,experience,with,meta,google,ads,strong,cross,cultural,communication,skills,sns,sns,google,analytics,facebook,ads,foreign,staff,develop,and,execute,online,offline,marketing,strategies,plan,targeted,campaigns,for,foreign,residents,in,korea,manage,digital,content,sns,youtube,blogs,conduct,market,research,on,foreign,resident,trends,build,partnerships,with,foreign,communities,and,financial,institutions,qualifications,3,years,of,experience,preferably,in,overseas,remittance,or,finance,experience,in,marketing,to,foreign,residents,in,korea,e,7,f,2,f,5,or,f,6,visa,holder,preferred,qualifications,fluent,in,english,or,korean,korean,driver,s,license,holder,experience,with,meta,google,ads,strong,cross,cultural,communication,skills,sns,sns,google,analytics,facebook,ads,100,150,500m,100,150,500m,hr,gmeremit,com,hr,gmeremit,com,hr,gmeremit,com,010,8117,6864,hr,gmeremit,com,010,8117,6864</t>
+          <t>spring,java,aws</t>
         </is>
       </c>
     </row>
@@ -5866,11 +5761,7 @@
           <t>경력 6년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>si,si,sm,pm,pl,si,si,sm,pm,pl,si,si,sm,pm,pl,09,00,18,00,520,901,903,70,09,00,18,00,520,901,903,70,09,00,18,00,520,901,903,70</t>
-        </is>
-      </c>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5893,6 +5784,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5917,7 +5809,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>os,sql,nosql,linux,db,network,aws,ms,06143,577,100m,os,sql,nosql,linux,db,network,aws,ms,os,sql,nosql,linux,db,network,aws,ms,os,sql,nosql,linux,db,network,aws,ms,os,sql,nosql,linux,db,network,aws,ms,06143,577,100m,06143,577,100m</t>
+          <t>aws</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5836,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>usp,meta,tiktok,db,crm,crm,crm,sms,crm,crm,tool,sql,ga,sns,ads,etc,crm,sns,photoshop,adobe,photoshop,photoshop,adobe,photoshop,spring,web,application,full,stack,e,commerce,server,network,db,javs,spring,framework,ios,android,ci,cd,github,bitbucket,jenkins,ios,android,ppt,office,crm,usp,meta,tiktok,db,crm,crm,crm,sms,crm,crm,tool,sql,ga,sns,ads,etc,crm,sns,photoshop,adobe,photoshop,photoshop,adobe,photoshop,spring,web,application,full,stack,e,commerce,server,network,db,javs,spring,framework,ios,android,ci,cd,github,bitbucket,jenkins,ios,android,ppt,office,crm,usp,meta,tiktok,db,crm,crm,crm,sms,crm,crm,tool,sql,ga,sns,ads,etc,crm,sns,photoshop,adobe,photoshop,photoshop,adobe,photoshop,spring,web,application,full,stack,e,commerce,server,network,db,javs,spring,framework,ios,android,ci,cd,github,bitbucket,jenkins,ios,android,ppt,office,crm,step,01,step,02,step,03,step,01,step,02,step,03,step,01,step,02,step,03</t>
+          <t>spring,jenkins</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5863,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>it,os,aws,azure,gcp,sql,gcp,agile,scrum,ex,linux,db,network,aws,ms,azure,06143,577,100m,it,os,aws,azure,gcp,sql,gcp,agile,scrum,ex,linux,db,network,aws,ms,azure,it,it,os,aws,azure,gcp,sql,gcp,agile,scrum,ex,linux,db,network,aws,ms,azure,os,aws,azure,gcp,sql,gcp,agile,scrum,ex,linux,db,network,aws,ms,azure,os,aws,azure,gcp,sql,gcp,agile,scrum,06143,577,100m,06143,577,100m</t>
+          <t>aws,azure,gcp</t>
         </is>
       </c>
     </row>
@@ -5998,7 +5890,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>unity,unreal,ar,xr,architecture,my,08504,632,800m,unity,unreal,ar,xr,architecture,my,xr,unity,unreal,ar,xr,architecture,my,unity,unreal,ar,xr,architecture,my,08504,632,800m,08504,632,800m</t>
+          <t>unity</t>
         </is>
       </c>
     </row>
@@ -6023,6 +5915,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6045,6 +5938,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6067,6 +5961,7 @@
           <t>경력 1년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6089,6 +5984,7 @@
           <t>5 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6111,6 +6007,7 @@
           <t>8 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6133,6 +6030,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6155,6 +6053,7 @@
           <t>경력 4년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6177,6 +6076,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6199,6 +6099,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6221,6 +6122,7 @@
           <t>경력(년수무관) · 정규직</t>
         </is>
       </c>
+      <c r="E237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6245,7 +6147,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>application,android,secure,processor,firmware,pci,emv,java,android,app,contactless,l2,kernel,visa,mastercard,application,android,payment,cat,secure,reader,android,app,secure,processor,firmware,mcu,maxim,cortext,m3,m4,mcu,application,android,secure,processor,firmware,pci,emv,java,android,app,contactless,l2,kernel,visa,mastercard,application,android,payment,cat,secure,reader,android,app,secure,processor,firmware,mcu,maxim,cortext,m3,m4,mcu,application,android,secure,processor,firmware,pci,emv,java,android,app,contactless,l2,kernel,visa,mastercard,application,android,payment,cat,secure,reader,android,app,secure,processor,firmware,mcu,maxim,cortext,m3,m4,mcu,09,00,18,00,09,00,18,00,ojt,ojt</t>
+          <t>java</t>
         </is>
       </c>
     </row>
@@ -6270,11 +6172,7 @@
           <t>경력(년수무관) · 정규직</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>led,cctv,led,cctv,09,00,18,14502,655,sw,09,00,18,14502,655,09,00,18,00,14502,655</t>
-        </is>
-      </c>
+      <c r="E239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6297,6 +6195,7 @@
           <t>경력 6년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6319,6 +6218,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6343,7 +6243,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>2,iot,javascript,jsp,api,spring,restfull,api,nosql,db,gps,13449,46,2,iot,javascript,jsp,api,spring,restfull,api,nosql,db,gps,2,2,iot,javascript,jsp,api,spring,restfull,api,nosql,db,gps,iot,javascript,jsp,api,spring,restfull,api,nosql,db,gps,13449,46,13449,46</t>
+          <t>javascript,spring</t>
         </is>
       </c>
     </row>
@@ -6368,6 +6268,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
+      <c r="E243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6392,7 +6293,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>android,java,android,java,ai,net,svn,kubernetes,streampipe,aws,ms,08,30,17,30,16,44776,16,36,000,72,000,ai,net,svn,kubernetes,streampipe,aws,ms,ai,net,svn,kubernetes,streampipe,aws,ms,ai,net,svn,kubernetes,streampipe,aws,ms,ai,net,svn,kubernetes,streampipe,aws,ms,08,30,17,30,16,44776,16,36,000,72,000,08,30,17,30,16,44776,16</t>
+          <t>java,kubernetes,aws</t>
         </is>
       </c>
     </row>
@@ -6419,7 +6320,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>android,java,android,java,ai,net,svn,kubernetes,streampipe,aws,ms,08,30,17,30,16,44776,16,36,000,72,000,ai,net,svn,kubernetes,streampipe,aws,ms,ai,net,svn,kubernetes,streampipe,aws,ms,ai,net,svn,kubernetes,streampipe,aws,ms,ai,net,svn,kubernetes,streampipe,aws,ms,08,30,17,30,16,44776,16,36,000,72,000,08,30,17,30,16,44776,16</t>
+          <t>java,kubernetes,aws</t>
         </is>
       </c>
     </row>
@@ -6444,6 +6345,7 @@
           <t>4 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6466,6 +6368,7 @@
           <t>1 ~ 3년 · 정규직</t>
         </is>
       </c>
+      <c r="E247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6488,6 +6391,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6510,6 +6414,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6532,6 +6437,7 @@
           <t>2 ~ 6년 · 정규직</t>
         </is>
       </c>
+      <c r="E250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6554,6 +6460,7 @@
           <t>2 ~ 6년 · 정규직</t>
         </is>
       </c>
+      <c r="E251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -6578,7 +6485,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>java,back,office,api,office,admin,pm,pl,o2o,gds,ndc,uiux,a,z,pg,ui,ux,cms,pm,po,ux,ui,hotjar,db,unix,os,sever,was,framework,api,b2b,elasticsearch,03044,23,300m,java,java,java,back,office,api,office,admin,pm,pl,o2o,gds,ndc,uiux,a,z,pg,ui,ux,cms,pm,po,ux,ui,hotjar,db,unix,os,sever,was,framework,api,b2b,elasticsearch,back,office,api,office,admin,pm,pl,o2o,gds,ndc,uiux,a,z,pg,ui,ux,cms,pm,po,ux,ui,hotjar,db,unix,os,sever,was,framework,api,b2b,elasticsearch,back,office,api,office,admin,pm,pl,o2o,gds,ndc,uiux,a,z,pg,ui,ux,cms,pm,po,ux,ui,hotjar,db,unix,os,sever,was,framework,api,b2b,elasticsearch,03044,23,300m,03044,23,300m,03044,23,300m,03044,23,300m,03044,23,300m</t>
+          <t>java,elasticsearch</t>
         </is>
       </c>
     </row>
@@ -6603,11 +6510,7 @@
           <t>경력 4년↓ · 정규직</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
+      <c r="E253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6630,11 +6533,7 @@
           <t>경력무관 · 프리랜서</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>ta,si,ta,swa,ta</t>
-        </is>
-      </c>
+      <c r="E254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6657,6 +6556,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6679,6 +6579,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6703,7 +6604,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>pg,pg,pg,pg,linux,api,pg,pg,java,spring,jira,github,ci,cd,pg,linux,apache,tomcat,cloud,mysql,08512,68,2006,500m,pg,pg,linux,api,pg,pg,java,spring,jira,github,ci,cd,pg,linux,apache,tomcat,cloud,mysql,pg,pg,linux,api,pg,pg,java,spring,jira,github,ci,cd,pg,linux,apache,tomcat,cloud,mysql,pg,linux,api,pg,pg,java,spring,jira,github,ci,cd,pg,linux,apache,tomcat,cloud,mysql,08512,68,2006,500m,08512,68,2006,500m</t>
+          <t>java,spring,apache,mysql</t>
         </is>
       </c>
     </row>
@@ -6728,11 +6629,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>live,live,live,now,cj,tving,live,live,it,it,it,08213,576,100m,live,now,cj,tving,live,live,it,it,it,live,now,cj,tving,live,live,it,it,it,live,now,cj,tving,live,live,it,it,it,08213,576,100m,08213,576,100m</t>
-        </is>
-      </c>
+      <c r="E258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6755,6 +6652,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6777,6 +6675,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6801,7 +6700,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>data,engineering,data,analytics,aiml,ai,data,engineering,data,analysis,aiml,ai,ml,ai,ml,ai,ml,ai,ml,modern,aws,emr,spark,llm,data,governance,data,engineering,data,analytics,aiml,ai,data,engineering,data,analysis,aiml,ai,ml,ai,ml,ai,ml,ai,ml,modern,aws,emr,spark,llm,data,governance,data,engineering,data,analytics,aiml,ai,data,engineering,data,analysis,aiml,ai,ml,ai,ml,ai,ml,ai,ml,modern,aws,emr,spark,llm,data,governance</t>
+          <t>aws</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6727,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>asu,plant,plant,communication,cad,2d,office,vpn,dlp,firewall,s,w,h,w,network,server,mes,ms,sql,html,asp,network,server,asu,plant,plant,communication,cad,2d,office,vpn,dlp,firewall,s,w,h,w,network,server,mes,ms,sql,html,asp,network,server,asu,plant,plant,communication,cad,2d,office,vpn,dlp,firewall,s,w,h,w,network,server,mes,ms,sql,html,asp,network,server,100,08,00,17,00,12,00,13,00,08,00,11,55,100,08,00,17,00,12,00,13,00,08,00,11,55,19,853,3,sh,time,square,1076,11,32,12,911,1704,19,853,3,sh,time,square,1076,11,32,12,911,1704</t>
+          <t>vpn</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6754,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>1,it,java,oracle,pl,sql,spring,si,1,it,java,oracle,pl,sql,spring,si,1,it,java,oracle,pl,sql,spring,si,04,21,24,00,04,24,04,24,2025,05,09,hr,5,13,04,21,24,00,04,24,04,24,2025,05,09,hr,5,13,04,21,24,00,04,24,04,24,2025,05,09,hr,5,13,daekyu,byeon,miraeasset,com,daekyu,byeon,miraeasset,com</t>
+          <t>java,spring</t>
         </is>
       </c>
     </row>
@@ -6880,11 +6779,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>po,cx,cx,ui,ux,web,app,prd,android,ios,api,sql,a,b,ui,ux,figma,po,cx,cx,ui,ux,web,app,prd,android,ios,api,sql,a,b,ui,ux,figma</t>
-        </is>
-      </c>
+      <c r="E264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6907,6 +6802,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6929,6 +6825,7 @@
           <t>3 ~ 6년 · 정규직</t>
         </is>
       </c>
+      <c r="E266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6951,6 +6848,7 @@
           <t>7 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6973,6 +6871,7 @@
           <t>4 ~ 6년 · 정규직</t>
         </is>
       </c>
+      <c r="E268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6995,6 +6894,7 @@
           <t>5 ~ 12년 · 정규직</t>
         </is>
       </c>
+      <c r="E269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7017,11 +6917,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>pm,se,ms,office,excel,google,spreadsheet,b1,b2,fmeca,fdir,microsoft,office,excel,word,power,point,b1,b2,3d,e,g,solidworks,creo,catia,e,g,stk,freeflyer,gmat,fmeca,fdir,mbse,link,link,budget,ccsds,dvb,signal,spectrum,loss,signal,eb,n0,snr,insertion,loss,spectrum,network,signal,microwave,ccsds,c,linux,github,github,actions,slack,clickup,google,docs,c,application,sw,ci,cd,uml,cfs,harness,routing,ai,t,ipc,whma,620,solidworks,ai,t,assembly,integration,test,ai,t,ai,t,ai,t,ai,t,eoc,mtf,coc,bom,ms,excel,erp,ecss,nasa,class,grade,erp,mps,fds</t>
-        </is>
-      </c>
+      <c r="E270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7044,6 +6940,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7066,6 +6963,7 @@
           <t>경력 1년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7088,6 +6986,7 @@
           <t>5 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7110,6 +7009,7 @@
           <t>2 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7132,6 +7032,7 @@
           <t>2 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7154,6 +7055,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7176,6 +7078,7 @@
           <t>5 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7198,6 +7101,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7220,6 +7124,7 @@
           <t>2 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7242,6 +7147,7 @@
           <t>3 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7264,6 +7170,7 @@
           <t>4 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7286,6 +7193,7 @@
           <t>7 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7308,6 +7216,7 @@
           <t>3 ~ 6년 · 정규직</t>
         </is>
       </c>
+      <c r="E283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7330,11 +7239,7 @@
           <t>신입 · 정규직</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>op,op,op,operator,op,unix,op,operator,op,unix,op,operator,op,unix,op,se,op,se,08,30,18,00,18,00,08,30,08,30,18,00,18,00,08,30,l,kamad,naver,com,02,785,4643,l,fax,02,785,4708,150,732,1012,l,kamad,naver,com,02,785,4643,l,fax,02,785,4708,150,732,1012</t>
-        </is>
-      </c>
+      <c r="E284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7359,7 +7264,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>java,pl,pm,java,pl,pm,pl,09,30,18,07294,70,500m,pl,java,pl,09,30,18,07294,70,500m,09,30,18,30,07294,70,500m</t>
+          <t>java</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7291,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>rts,mmorpg,5,1,rts,mmorpg,5,1,rts,mmorpg,rts,unity,3d,ugui,rts,mysql,mongodb,node,mmorpg,visual,studio,2022,xcode,android,mmorpg,137,070,1464,30,800m,sms,e,work,life,fun,in,and,out,life,in,and,out,freedom,with,responsibility,rts,mmorpg,rts,unity,3d,ugui,rts,mysql,mongodb,node,mmorpg,visual,studio,2022,xcode,android,mmorpg,rts,mmorpg,rts,unity,3d,ugui,rts,mysql,mongodb,node,mmorpg,visual,studio,2022,xcode,android,mmorpg,rts,unity,3d,ugui,rts,mysql,mongodb,node,mmorpg,visual,studio,2022,xcode,android,mmorpg,rts,unity,3d,ugui,rts,mysql,mongodb,node,mmorpg,visual,studio,2022,xcode,android,mmorpg,137,070,1464,30,800m,137,070,1464,30,800m,sms,e,sms,e,work,life,fun,in,and,out,life,in,and,out,freedom,with,responsibility,work,life,fun,in,and,out,life,in,and,out,freedom,with,responsibility</t>
+          <t>mysql,mongodb,unity</t>
         </is>
       </c>
     </row>
@@ -7411,6 +7316,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7433,6 +7339,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7455,6 +7362,7 @@
           <t>경력(년수무관) · 정규직 외</t>
         </is>
       </c>
+      <c r="E289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -7477,6 +7385,7 @@
           <t>경력 10년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -7501,7 +7410,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>rts,mmorpg,4,584,6,1,rts,mmorpg,4,584,6,1,rts,mmorpg,rts,unity,3d,ugui,rts,mysql,mongodb,node,mmorpg,visual,studio,2022,xcode,android,mmorpg,137,070,1464,30,800m,sms,e,work,life,fun,in,and,out,life,in,and,out,freedom,with,responsibility,rts,mmorpg,rts,unity,3d,ugui,rts,mysql,mongodb,node,mmorpg,visual,studio,2022,xcode,android,mmorpg,rts,mmorpg,rts,unity,3d,ugui,rts,mysql,mongodb,node,mmorpg,visual,studio,2022,xcode,android,mmorpg,rts,unity,3d,ugui,rts,mysql,mongodb,node,mmorpg,visual,studio,2022,xcode,android,mmorpg,rts,unity,3d,ugui,rts,mysql,mongodb,node,mmorpg,visual,studio,2022,xcode,android,mmorpg,137,070,1464,30,800m,137,070,1464,30,800m,sms,e,sms,e,work,life,fun,in,and,out,life,in,and,out,freedom,with,responsibility,work,life,fun,in,and,out,life,in,and,out,freedom,with,responsibility</t>
+          <t>mysql,mongodb,unity</t>
         </is>
       </c>
     </row>
@@ -7526,6 +7435,7 @@
           <t>5 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -7548,6 +7458,7 @@
           <t>2 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -7570,6 +7481,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -7594,7 +7506,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>gmp,java,backend,html,css,javascript,jquery,bootstrap,thymeleaf,frontend,java,spring,spring,boot,restful,api,postgresql,linux,jpa,java,persistence,api,orm,object,relational,mapping,it,gmp,java,backend,html,css,javascript,jquery,bootstrap,thymeleaf,frontend,java,spring,spring,boot,restful,api,postgresql,linux,jpa,java,persistence,api,orm,object,relational,mapping,it,1,mcirclehr,mcircle,biz,cdp,cdp,zero,happicare,crm,zero,happicare,crm</t>
+          <t>javascript,bootstrap,java,spring,postgresql</t>
         </is>
       </c>
     </row>
@@ -7619,11 +7531,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>2,it,erp,pc,os,oa,08,30,17,15429,2,it,erp,pc,os,oa,2,2,it,erp,pc,os,oa,it,erp,pc,os,oa,it,erp,pc,os,oa,08,30,17,15429,248,08,30,17,30,15429,248</t>
-        </is>
-      </c>
+      <c r="E296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -7646,6 +7554,7 @@
           <t>1 ~ 3년 · 정규직</t>
         </is>
       </c>
+      <c r="E297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -7668,6 +7577,7 @@
           <t>3 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7690,6 +7600,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7714,7 +7625,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>office,office,office,web,system,web,service,system,app,mobile,app,asp,net,jsp,front,end,back,end,ms,sql,oracle,system,office,a,s,a,s,a,s,erp,a,a,a,s,s,a,mazak,cam,mct,cnc,auto,bom,3d,cad,solidworks,c,java,python,java,script,artwork,rhino3d,office,ul,office,office,office,office,web,system,web,service,system,app,mobile,app,asp,net,jsp,front,end,back,end,ms,sql,oracle,system,office,a,s,a,s,a,s,erp,a,a,a,s,s,a,mazak,cam,mct,cnc,auto,bom,3d,cad,solidworks,c,java,python,java,script,artwork,rhino3d,office,ul,office,office,office,office,web,system,web,service,system,app,mobile,app,asp,net,jsp,front,end,back,end,ms,sql,oracle,system,office,a,s,a,s,a,s,erp,a,a,a,s,s,a,mazak,cam,mct,cnc,auto,bom,3d,cad,solidworks,c,java,python,java,script,artwork,rhino3d,office,ul,office</t>
+          <t>java,python</t>
         </is>
       </c>
     </row>
@@ -7739,11 +7650,7 @@
           <t>경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>mro,ev,mro,ev,b2b,csms,s,w,cpo,cad,catia,08,30,21,00,390,400,11,400,070,4992,270,280,11,190,mro,ev,mro,ev,b2b,csms,s,w,cpo,cad,catia,08,30,21,00,390,400,11,400,070,4992,270,280,11,190,mro,ev,mro,ev,b2b,csms,s,w,cpo,mro,ev,mro,ev,b2b,csms,s,w,cpo,cad,catia,08,30,21,00,390,400,11,400,070,4992,270,280,11,190,cad,catia,08,30,21,00,390,400,11,400,070,4992,270,280,11,190</t>
-        </is>
-      </c>
+      <c r="E301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7766,6 +7673,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7788,6 +7696,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7810,6 +7719,7 @@
           <t>경력무관 · 프리랜서</t>
         </is>
       </c>
+      <c r="E304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -7834,7 +7744,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>pl,pl,pl,spring,framework,api,mysql,sql,4,153,803,670,2,500m,https,selvasai,career,greetinghr,com,pl,spring,framework,api,mysql,sql,pl,spring,framework,api,mysql,sql,spring,framework,api,mysql,sql,4,153,803,670,2,500m,4,153,803,670,2,500m,https,selvasai,career,greetinghr,com,https,selvasai,career,greetinghr,com</t>
+          <t>spring,mysql</t>
         </is>
       </c>
     </row>
@@ -7859,6 +7769,7 @@
           <t>경력 2년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7883,7 +7794,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>spring,framework,api,4,153,803,670,2,500m,https,selvasai,career,greetinghr,com,spring,framework,api,spring,framework,api,spring,framework,api,4,153,803,670,2,500m,4,153,803,670,2,500m,https,selvasai,career,greetinghr,com,https,selvasai,career,greetinghr,com</t>
+          <t>spring</t>
         </is>
       </c>
     </row>
@@ -7908,6 +7819,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7930,6 +7842,7 @@
           <t>1 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -7952,6 +7865,7 @@
           <t>5 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -7974,6 +7888,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -7998,7 +7913,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>connected,40,mate,connected,40,mate,it,pos,api,api,spring,boot,api,msa,aws,vue,js,cd,driven,excel,van,pos,ui,ux,ux,ui,ux,ui,ux,2,ui,ux,adobe,xd,ux,css,a,b,da,figma,adobe,photoshop,illustrator,adobe,premiere,after,effect,account,management,pos,kiosk,google,sheet,docs,jira,confluence,slack,hr,hr,hrm,hr,it,pos,api,api,spring,boot,api,msa,aws,vue,js,cd,pos,api,api,spring,boot,api,msa,aws,vue,js,cd,driven,excel,van,pos,ui,ux,ux,ui,ux,ui,ux,2,ui,ux,adobe,xd,ux,css,a,b,da,figma,adobe,photoshop,illustrator,adobe,premiere,after,effect,driven,excel,van,pos,ui,ux,ux,ui,ux,ui,ux,2,ui,ux,adobe,xd,ux,css,a,b,da,figma,adobe,photoshop,illustrator,adobe,premiere,after,effect,account,management,pos,kiosk,google,sheet,docs,jira,confluence,slack,account,management,pos,kiosk,google,sheet,docs,jira,confluence,slack,hr,hr,hrm,hr,hr,hr,hrm,hr,9,30,18,30,12,30,13,30,26,v,14,15,128,stx,9,30,18,30,12,30,13,30,26,v,14,15,128,stx,jyeonpark,foodtechkorea,com,jyeonpark,foodtechkorea,com</t>
+          <t>vue,spring,aws</t>
         </is>
       </c>
     </row>
@@ -8023,6 +7938,7 @@
           <t>3 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8047,7 +7963,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>vanillascript,php,nodejs,mssql,mariadb,mongodb,laravel,java,spring,boot,nodejs,vanillascript,flutter,mssql,mariadb,mongodb,08,10,17,19,10,00,19,00,07794,16,500m,vanillascript,php,nodejs,mssql,mariadb,mongodb,laravel,java,spring,boot,nodejs,vanillascript,flutter,mssql,mariadb,mongodb,08,10,17,19,laravel,java,spring,boot,nodejs,vanillascript,flutter,mssql,mariadb,mongodb,08,10,17,19,10,00,19,00,07794,16,500m,10,00,19,00,07794,16,500m</t>
+          <t>php,mariadb,mongodb,laravel,java,spring,flutter</t>
         </is>
       </c>
     </row>
@@ -8072,6 +7988,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8096,7 +8013,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>it,springboot,react,vue,js,09,30,18,30130,193,it,springboot,react,vue,js,it,springboot,react,vue,js,springboot,react,vue,js,09,30,18,30130,193,09,30,18,30,30130,193</t>
+          <t>react,vue</t>
         </is>
       </c>
     </row>
@@ -8121,6 +8038,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -8143,11 +8061,7 @@
           <t>신입 · 정규직 외</t>
         </is>
       </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>unierp,unierp,net,vb,net,sql,server,34,1587,9,2,02,3466,9026,net,vb,net,sql,server,net,vb,net,sql,server,net,vb,net,sql,server,net,vb,net,sql,server,34,1587,9,34,1587,9,2,02,3466,9026</t>
-        </is>
-      </c>
+      <c r="E318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -8170,11 +8084,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>2,ict,54853,109,2,ict,2,2,ict,54853,109,54853,109</t>
-        </is>
-      </c>
+      <c r="E319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -8197,6 +8107,7 @@
           <t>2 ~ 4년 · 정규직</t>
         </is>
       </c>
+      <c r="E320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -8219,6 +8130,7 @@
           <t>5 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -8241,6 +8153,7 @@
           <t>경력 4년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -8263,11 +8176,7 @@
           <t>1 ~ 9년 · 정규직 외</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>2,1,2,or,2,1,2,2,1,2,2,1,2,1,2,1,2,or,or</t>
-        </is>
-      </c>
+      <c r="E323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -8292,7 +8201,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>1,2,web,mobile,web,asp,c,mobile,maui,c,database,oracle,ms,sql,mariadb,javascript,java,spring,erp,3,c,java,script,java,spring,erp,ms,sql,4,max,3,08,30,17,30,12,or,5,e,mail,naver,com,6,010,5763,2618</t>
+          <t>javascript,mariadb,java,spring</t>
         </is>
       </c>
     </row>
@@ -8317,11 +8226,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>www,dahlson,co,kr,www,dahlson,co,kr,ai,54852,67,407,403,ai,ai,ai,ai,54852,67,407,403,54852,67,407,403</t>
-        </is>
-      </c>
+      <c r="E325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -8344,6 +8249,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
+      <c r="E326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -8366,6 +8272,7 @@
           <t>3 ~ 11년 · 정규직</t>
         </is>
       </c>
+      <c r="E327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -8390,7 +8297,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>global,global,vpn,siem,isms,p,hipaa,isms,p,dba,cppg,cissp,cisa,vpn,siem,isms,p,hipaa,isms,p,dba,cppg,cissp,cisa</t>
+          <t>vpn</t>
         </is>
       </c>
     </row>
@@ -8415,6 +8322,7 @@
           <t>11 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -8437,6 +8345,7 @@
           <t>8 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -8459,6 +8368,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -8481,6 +8391,7 @@
           <t>3 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -8503,6 +8414,7 @@
           <t>6 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -8525,6 +8437,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -8547,6 +8460,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -8569,6 +8483,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -8591,6 +8506,7 @@
           <t>7 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -8613,11 +8529,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>pm,bm,md,sku,oem,odm,ms,ofiice,pm,bm,md,sku,oem,odm,ms,offiice,pm,bm,md,sku,oem,odm,ms,offiice,qc,cs,iso,erp,md,md,or,md,amd,md,amd,md,e,commerce,excel,powerpoint,ms,office,md,sns,scm,ms,office,sns,md,md,or,md,ms,office,crm,crm,md,md,ppt,sns,app,shop,app,web,e,android,ios,web,erp,pd,usp,a7c2,a6600,sns,pm,bm,md,sku,oem,odm,ms,ofiice,pm,bm,md,sku,oem,odm,ms,offiice,pm,bm,md,sku,oem,odm,ms,offiice,qc,cs,iso,erp,md,md,or,md,amd,md,amd,md,e,commerce,excel,powerpoint,ms,office,md,sns,scm,ms,office,sns,md,md,or,md,ms,office,crm,crm,md,md,ppt,sns,app,shop,app,web,e,android,ios,web,erp,pd,usp,a7c2,a6600,sns,pm,bm,md,sku,oem,odm,ms,ofiice,pm,bm,md,sku,oem,odm,ms,offiice,pm,bm,md,sku,oem,odm,ms,offiice,qc,cs,iso,erp,md,md,or,md,amd,md,amd,md,e,commerce,excel,powerpoint,ms,office,md,sns,scm,ms,office,sns,md,md,or,md,ms,office,crm,crm,md,md,ppt,sns,app,shop,app,web,e,android,ios,web,erp,pd,usp,a7c2,a6600,sns,253,253</t>
-        </is>
-      </c>
+      <c r="E338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -8640,6 +8552,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -8662,6 +8575,7 @@
           <t>8 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -8684,6 +8598,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -8706,6 +8621,7 @@
           <t>6 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -8728,6 +8644,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -8750,6 +8667,7 @@
           <t>3 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -8772,6 +8690,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -8794,6 +8713,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -8816,6 +8736,7 @@
           <t>1 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -8840,7 +8761,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>http,mymobiloud,com,http,mymobiloud,com,2,php,java,spring,boot,node,js,nest,js,db,linux,html,css,14678,209,800m,2,php,java,spring,boot,node,js,nest,js,db,linux,html,css,2,2,php,java,spring,boot,node,js,nest,js,db,linux,html,css,php,java,spring,boot,node,js,nest,js,db,linux,html,css,14678,209,800m,14678,209,800m</t>
+          <t>php,java,spring</t>
         </is>
       </c>
     </row>
@@ -8867,7 +8788,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>flutter,nodejs,si,erp,flutter,nodejs,si,erp,ios,aos,rest,api,10,00,19,07535,71,7,800m,ios,aos,rest,api,ios,aos,rest,api,ios,aos,rest,api,10,00,19,07535,71,7,800m,10,00,19,00,07535,71,7,800m</t>
+          <t>flutter</t>
         </is>
       </c>
     </row>
@@ -8894,7 +8815,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>java,java,oracle,db,linux,unix,os,web,sever,was,spring,framework,api,b2c,b2b,redis,elasticsearch,jira,oracle,db,linux,unix,os,web,sever,was,spring,framework,api,b2c,b2b,redis,elasticsearch,jira,oracle,db,linux,unix,os,web,sever,was,spring,framework,api,b2c,b2b,redis,elasticsearch,jira,03044,23,2,300m,03044,23,2,300m</t>
+          <t>java,spring,redis,elasticsearch</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8842,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>b2b,b2c,api,admin,node,poc,ai,pc,cms,flutter,getx,flutter,b2b,b2c,api,admin,node,poc,ai,pc,cms,flutter,getx,flutter,b2b,b2c,api,admin,node,poc,ai,pc,cms,flutter,getx,flutter,194,813,814,100m,194,813,814,100m</t>
+          <t>flutter</t>
         </is>
       </c>
     </row>
@@ -8948,7 +8869,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>developer,typescript,ruby,python,spring,boot,php,java,1,2,3,2,jlpt,1,2,09,00,18,00,12,00,13,00,3,the,mock,up,t,03,6206,8931,email,info,iinexus,com,jr,1,2,3,max</t>
+          <t>typescript,python,spring,php,java</t>
         </is>
       </c>
     </row>
@@ -8975,7 +8896,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>developer,typescript,ruby,python,spring,boot,php,java,1,2,3,2,jlpt,1,2,09,00,18,00,12,00,13,00,3,the,mock,up,t,03,6206,8931,email,info,iinexus,com,jr,1,2,3,max</t>
+          <t>typescript,python,spring,php,java</t>
         </is>
       </c>
     </row>
@@ -9000,6 +8921,7 @@
           <t>경력 4년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -9022,6 +8944,7 @@
           <t>3 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -9044,6 +8967,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -9066,6 +8990,7 @@
           <t>1 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -9088,6 +9013,7 @@
           <t>2 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -9110,6 +9036,7 @@
           <t>5 ~ 14년 · 정규직</t>
         </is>
       </c>
+      <c r="E359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -9134,7 +9061,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>2,java,linux,tibero,si,sm,09,00,18,2,java,linux,tibero,si,sm,2,2,java,linux,tibero,si,sm,java,linux,tibero,si,sm,09,00,18,288,09,00,18,00,288</t>
+          <t>java</t>
         </is>
       </c>
     </row>
@@ -9159,6 +9086,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -9183,7 +9111,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>2,50,2025,2,50,2025,reactorkit,swiftui,ios,fastlane,swiftlint,xcodecloud,ci,cd,06242,8,or,reactorkit,swiftui,ios,fastlane,swiftlint,xcodecloud,ci,cd,reactorkit,swiftui,ios,fastlane,swiftlint,xcodecloud,ci,cd,reactorkit,swiftui,ios,fastlane,swiftlint,xcodecloud,ci,cd,06242,8,06242,8,or,or</t>
+          <t>swiftui,fastlane</t>
         </is>
       </c>
     </row>
@@ -9210,7 +9138,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>2,50,2025,2,50,2025,nest,rest,api,graphql,mysql,dynamodb,postgresql,elasticsearch,side,web,application,apm,rest,api,graphql,programming,oop,ci,06242,8,or,nest,rest,api,graphql,mysql,dynamodb,postgresql,elasticsearch,side,web,application,apm,rest,api,graphql,programming,oop,ci,nest,rest,api,graphql,mysql,dynamodb,postgresql,elasticsearch,side,web,application,apm,rest,api,graphql,programming,oop,ci,nest,rest,api,graphql,mysql,dynamodb,postgresql,elasticsearch,side,web,application,apm,rest,api,graphql,programming,oop,ci,06242,8,06242,8,or,or</t>
+          <t>graphql,mysql,dynamodb,postgresql,elasticsearch</t>
         </is>
       </c>
     </row>
@@ -9237,7 +9165,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>2,50,2025,2,50,2025,nest,rest,api,graphql,dynamodb,postgresql,elasticsearch,js,office,06242,8,or,nest,rest,api,graphql,dynamodb,postgresql,elasticsearch,js,office,nest,rest,api,graphql,dynamodb,postgresql,elasticsearch,js,office,nest,rest,api,graphql,dynamodb,postgresql,elasticsearch,js,office,06242,8,06242,8,or,or</t>
+          <t>graphql,dynamodb,postgresql,elasticsearch</t>
         </is>
       </c>
     </row>
@@ -9262,6 +9190,7 @@
           <t>16 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -9284,6 +9213,7 @@
           <t>2 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -9306,6 +9236,7 @@
           <t>7년 · 정규직</t>
         </is>
       </c>
+      <c r="E367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -9328,6 +9259,7 @@
           <t>10 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -9350,6 +9282,7 @@
           <t>7 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -9372,6 +9305,7 @@
           <t>6 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -9394,6 +9328,7 @@
           <t>3 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -9416,11 +9351,7 @@
           <t>경력 1년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>it,it,2,dashboard,09,00,18,00,22007,323,100m,2,dashboard,2,2,dashboard,configuration,dashboard,dashboard,09,00,18,00,22007,323,100m,09,00,18,00,22007,323,100m</t>
-        </is>
-      </c>
+      <c r="E372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -9443,6 +9374,7 @@
           <t>신입 · 계약직</t>
         </is>
       </c>
+      <c r="E373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -9465,6 +9397,7 @@
           <t>1 ~ 9년 · 정규직</t>
         </is>
       </c>
+      <c r="E374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -9487,6 +9420,7 @@
           <t>3 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -9509,6 +9443,7 @@
           <t>6 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -9531,11 +9466,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>ubuntu,jsp,djangooracle,app,ubuntu,jsp,djangooracle,app,ubuntu,ai</t>
-        </is>
-      </c>
+      <c r="E377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -9560,7 +9491,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>aws,kt,cloud,naver,cto,certified,solutions,architect,associate,professional,certified,sysops,administrator,certified,developer,certified,aws,kt,cloud,naver,cto,certified,solutions,architect,associate,professional,certified,sysops,administrator,certified,developer,certified</t>
+          <t>aws</t>
         </is>
       </c>
     </row>
@@ -9585,6 +9516,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -9607,11 +9539,7 @@
           <t>경력무관 · 계약직</t>
         </is>
       </c>
-      <c r="E380" t="inlineStr">
-        <is>
-          <t>it,it,09,00,18,58325,746,09,00,18,58325,746,09,00,18,00,58325,746</t>
-        </is>
-      </c>
+      <c r="E380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -9634,11 +9562,7 @@
           <t>경력무관 · 파견직</t>
         </is>
       </c>
-      <c r="E381" t="inlineStr">
-        <is>
-          <t>isms,08,00,17,13487,14,1km,isms,isms,isms,08,00,17,13487,14,1km,08,00,17,00,13487,14,1km</t>
-        </is>
-      </c>
+      <c r="E381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -9661,11 +9585,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E382" t="inlineStr">
-        <is>
-          <t>s,w,test,qa,engineer,s,w,test,qa,engineer,2,foundation,level,csts,foundation,level,1,2,s,w,test,test,test,qa,jira,testrail,hw,server,storage,db,s,w,qa,bdd,end,to,end,testing,tools,c,gitlab,jira,testrail,reading,writing,08378,27,300m,or,2,foundation,level,csts,foundation,level,1,2,s,w,test,test,test,qa,jira,testrail,hw,server,storage,db,s,w,qa,bdd,end,to,end,testing,tools,c,gitlab,jira,testrail,reading,writing,2,foundation,level,csts,foundation,level,1,2,2,foundation,level,csts,foundation,level,1,2,foundation,level,csts,foundation,level,1,2,foundation,level,csts,foundation,level,1,2,s,w,test,test,test,test,test,qa,jira,testrail,test,qa,jira,testrail,test,qa,jira,testrail,qa,hw,server,storage,db,hw,server,storage,db,hw,server,storage,db,s,w,qa,bdd,end,to,end,testing,tools,c,gitlab,jira,testrail,reading,writing,bdd,end,to,end,testing,tools,c,gitlab,jira,testrail,reading,writing,bdd,end,to,end,testing,tools,c,gitlab,jira,testrail,reading,writing,gitlab,jira,testrail,reading,writing,08378,27,300m,08378,27,300m,or,or</t>
-        </is>
-      </c>
+      <c r="E382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -9690,7 +9610,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>aws,aws,aws,18469,27,aws,aws,aws,aws,aws,aws,aws,aws,aws,18469,27,18469,27</t>
+          <t>aws</t>
         </is>
       </c>
     </row>
@@ -9715,6 +9635,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -9739,7 +9660,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>3500,3800,100,php,jquery,08,30,17,809,81,1,150m,3500,3800,100,php,jquery,3500,3800,100,3500,3800,100,php,jquery,php,jquery,08,30,17,809,81,1,150m,08,30,17,30,809,81,1,150m</t>
+          <t>php</t>
         </is>
       </c>
     </row>
@@ -9764,6 +9685,7 @@
           <t>3 ~ 10년 · 계약직</t>
         </is>
       </c>
+      <c r="E386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -9788,7 +9710,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>se,se,22,idc,aws,aws,ec2,rds,s3,vpc,cdn,http,akamai,cloudflare,windows,linux,aws,ec2,rds,s3,vpc,hyper,v,active,directory,dns,chef,ansible,cloudformation,powershell,bash,python,ci,cd,aws,certified,solutions,architect,06166,22,500m,22,idc,aws,aws,ec2,rds,s3,vpc,cdn,http,akamai,cloudflare,windows,linux,aws,ec2,rds,s3,vpc,hyper,v,active,directory,dns,chef,ansible,cloudformation,powershell,bash,python,ci,cd,aws,certified,solutions,architect,22,22,idc,aws,aws,ec2,rds,s3,vpc,cdn,http,akamai,cloudflare,windows,linux,aws,ec2,rds,s3,vpc,hyper,v,active,directory,dns,chef,ansible,cloudformation,powershell,bash,python,ci,cd,aws,certified,solutions,architect,idc,aws,aws,ec2,rds,s3,vpc,cdn,http,akamai,cloudflare,windows,linux,aws,ec2,rds,s3,vpc,hyper,v,active,directory,dns,chef,ansible,cloudformation,powershell,bash,python,ci,cd,aws,certified,solutions,architect,06166,22,500m,06166,22,500m</t>
+          <t>python,cloudflare,aws,ec2,rds,s3,chef,ansible,cloudformation</t>
         </is>
       </c>
     </row>
@@ -9815,7 +9737,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>c,go,linux,linux,network,c,c,go,java,docker,reference,08,00,17,00,c,go,linux,linux,network,c,c,go,java,docker,reference,08,00,17,00,c,go,linux,linux,network,c,c,go,java,docker,reference,08,00,17,00</t>
+          <t>go,java,docker</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9764,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>1,40,20,2,1,40,20,2,springboot,postgresql,my,sql,aws,git,jquery,java,3,90,09,00,18,40,springboot,postgresql,my,sql,aws,git,jquery,java,springboot,postgresql,my,sql,aws,git,jquery,java,3,90,09,00,18,40,3,90,09,00,18,00,40</t>
+          <t>postgresql,java,aws</t>
         </is>
       </c>
     </row>
@@ -9869,7 +9791,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>ict,lab,backend,fastapi,springboot,nestjs,frontend,react,protocol,restapi,rtsp,rtp,js,typescript,axios,java,jpa,springmvc,python,multiproccessing,multithreading,midleware,socket,design,pattern,bff,fsd,server,ubuntuserver,webserver,devops,swagger,github,githubaction,githubpackage,docker,dockercompose,kubernetes,helm,ai,page,frontend,microservice,ai,architecture,project,dockerize,architecture,design,10,00,18,47822,6,500m,ict,lab,backend,fastapi,springboot,nestjs,frontend,react,protocol,restapi,rtsp,rtp,js,typescript,axios,java,jpa,springmvc,python,multiproccessing,multithreading,midleware,socket,design,pattern,bff,fsd,server,ubuntuserver,webserver,devops,swagger,github,githubaction,githubpackage,docker,dockercompose,kubernetes,helm,ai,page,frontend,microservice,ai,architecture,project,dockerize,architecture,design,ict,lab,backend,fastapi,springboot,nestjs,frontend,react,protocol,restapi,rtsp,rtp,js,typescript,axios,java,jpa,springmvc,python,multiproccessing,multithreading,midleware,socket,design,pattern,bff,fsd,server,ubuntuserver,webserver,devops,swagger,github,githubaction,githubpackage,docker,dockercompose,kubernetes,helm,ai,page,frontend,microservice,ai,architecture,project,dockerize,architecture,design,backend,fastapi,springboot,nestjs,frontend,react,protocol,restapi,rtsp,rtp,js,typescript,axios,java,jpa,springmvc,python,multiproccessing,multithreading,midleware,socket,design,pattern,bff,fsd,server,ubuntuserver,webserver,devops,swagger,github,githubaction,githubpackage,docker,dockercompose,kubernetes,helm,ai,page,frontend,microservice,ai,architecture,project,dockerize,architecture,design,ai,architecture,project,dockerize,architecture,design,10,00,18,47822,6,500m,10,00,18,00,47822,6,500m</t>
+          <t>react,typescript,axios,fastapi,java,python,swagger,docker,kubernetes,helm</t>
         </is>
       </c>
     </row>
@@ -9894,6 +9816,7 @@
           <t>8 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -9916,6 +9839,7 @@
           <t>4 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -9938,6 +9862,7 @@
           <t>1 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -9960,6 +9885,7 @@
           <t>2 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -9982,6 +9908,7 @@
           <t>2 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -10004,6 +9931,7 @@
           <t>10 ~ 13년 · 정규직</t>
         </is>
       </c>
+      <c r="E396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -10026,6 +9954,7 @@
           <t>6 ~ 9년 · 정규직</t>
         </is>
       </c>
+      <c r="E397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -10048,6 +9977,7 @@
           <t>4 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -10070,6 +10000,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -10094,7 +10025,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>vanillascript,java,nodejs,mssql,mariadb,mongodb,typescript,spring,boot,nodejs,vanillascript,reactjs,vuejs,typescriptmssql,mariadb,1,3,08,10,17,19,10,00,19,00,07794,16,500m,vanillascript,java,nodejs,mssql,mariadb,mongodb,typescript,spring,boot,nodejs,vanillascript,reactjs,vuejs,typescriptmssql,mariadb,1,3,08,10,17,19,spring,boot,nodejs,vanillascript,reactjs,vuejs,typescriptmssql,mariadb,1,3,08,10,17,19,10,00,19,00,07794,16,500m,10,00,19,00,07794,16,500m</t>
+          <t>typescript,java,mariadb,mongodb,spring</t>
         </is>
       </c>
     </row>
@@ -10119,11 +10050,7 @@
           <t>경력 7년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E401" t="inlineStr">
-        <is>
-          <t>webgis,webgis,gis,34183,90,1km,gis,gis,gis,34183,90,1km,34183,90,1km</t>
-        </is>
-      </c>
+      <c r="E401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -10146,6 +10073,7 @@
           <t>3 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -10168,6 +10096,7 @@
           <t>경력 2년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -10190,6 +10119,7 @@
           <t>경력 3년↑ · 계약직 외</t>
         </is>
       </c>
+      <c r="E404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -10214,7 +10144,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>webflux,kotlin,java,spring,jquery,js,typescript,vue,react,next,kubernetis,docker,aws,resource,ec2,kafka,redis,ecr,eks,jpa,postgresql,mariadb,devops,msa,github,vamboo,spring,09,30,18,06258,14,500m,webflux,kotlin,java,spring,jquery,js,typescript,vue,react,next,kubernetis,docker,aws,resource,ec2,kafka,redis,ecr,eks,jpa,postgresql,mariadb,devops,msa,github,vamboo,spring,webflux,kotlin,java,spring,jquery,js,typescript,vue,react,next,kubernetis,docker,aws,resource,ec2,kafka,redis,ecr,eks,jpa,postgresql,mariadb,devops,msa,github,vamboo,spring,webflux,kotlin,java,spring,jquery,js,typescript,vue,react,next,kubernetis,docker,aws,resource,ec2,kafka,redis,ecr,eks,jpa,postgresql,mariadb,devops,msa,github,vamboo,bitbucket,spring,spring,09,30,18,06258,14,500m,09,30,18,30,06258,14,500m</t>
+          <t>typescript,vue,react,kotlin,java,spring,docker,kafka,redis,postgresql,mariadb,aws,ec2</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10171,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>pmis,pg,procedure,java,2,08,30,17,152,050,197,22,800m,pmis,pg,procedure,java,2,pl,pmis,pg,procedure,java,2,2,08,30,17,152,050,197,22,800m,08,30,17,30,152,050,197,22,800m</t>
+          <t>java</t>
         </is>
       </c>
     </row>
@@ -10266,11 +10196,7 @@
           <t>경력 3년↑ · 정규직 외</t>
         </is>
       </c>
-      <c r="E407" t="inlineStr">
-        <is>
-          <t>pl,pm,pl,pm,mes,erp,pl,pm,erp,mes,cmms,esh,pm,09,00,18,47709,10,300m,mes,erp,pl,pm,erp,mes,cmms,esh,pm,mes,erp,pl,pm,erp,mes,cmms,esh,pm,erp,mes,cmms,esh,pm,09,00,18,47709,10,300m,09,00,18,00,47709,10,300m</t>
-        </is>
-      </c>
+      <c r="E407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -10293,6 +10219,7 @@
           <t>1 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -10315,6 +10242,7 @@
           <t>6 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -10339,7 +10267,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>eng,to,end,g,cld,saas,digital,work,ai,eng,to,end,g,cld,saas,digital,work,ai,full,stack,linux,unix,db,spring,boot,html,jsp,javascript,jquery,framework,html,css,javascript,ajax,my,sql,oracle,pt,244,700m,full,stack,linux,unix,db,spring,boot,html,jsp,javascript,jquery,framework,html,css,javascript,ajax,my,sql,oracle,pt,full,stack,linux,unix,db,spring,boot,html,jsp,javascript,jquery,full,stack,linux,unix,db,spring,boot,html,jsp,javascript,jquery,framework,html,css,javascript,ajax,my,sql,oracle,pt,framework,html,css,javascript,ajax,my,sql,oracle,pt,244,700m,244,700m,244,700m</t>
+          <t>javascript,spring</t>
         </is>
       </c>
     </row>
@@ -10364,6 +10292,7 @@
           <t>10 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -10386,6 +10315,7 @@
           <t>6 ~ 9년 · 정규직</t>
         </is>
       </c>
+      <c r="E412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -10408,6 +10338,7 @@
           <t>3 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -10432,7 +10363,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>front,end,s,w,h,w,front,end,s,w,h,w,front,end,end,db,geoserver,postgis,postrgresql,gis,api,c,java,9,front,end,end,db,geoserver,postgis,postrgresql,gis,api,c,java,end,db,geoserver,postgis,postrgresql,gis,api,c,java,end,db,geoserver,postgis,postrgresql,gis,api,c,java,geoserver,postgis,postrgresql,gis,api,c,java,9,22,9,22</t>
+          <t>java</t>
         </is>
       </c>
     </row>
@@ -10457,11 +10388,7 @@
           <t>2 ~ 7년 · 정규직 외</t>
         </is>
       </c>
-      <c r="E415" t="inlineStr">
-        <is>
-          <t>4,150,891,45,15,300m,4,4,4,4,150,891,45,15,300m,150,891,45,15,300m</t>
-        </is>
-      </c>
+      <c r="E415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -10484,11 +10411,7 @@
           <t>신입 · 정규직</t>
         </is>
       </c>
-      <c r="E416" t="inlineStr">
-        <is>
-          <t>08,00,18,00,18,00,08,00,05288,26,1km,op,08,00,18,00,18,00,08,00,05288,26,1km,08,00,18,00,18,00,08,00,05288,26,1km</t>
-        </is>
-      </c>
+      <c r="E416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -10511,6 +10434,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -10533,6 +10457,7 @@
           <t>6 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -10555,6 +10480,7 @@
           <t>9 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -10577,6 +10503,7 @@
           <t>8 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -10599,6 +10526,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -10621,6 +10549,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -10643,6 +10572,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -10665,6 +10595,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -10687,6 +10618,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
+      <c r="E425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -10711,7 +10643,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>it,it,rpa,konex,it,total,solution,it,it,rpa,konex,it,total,solution,front,end,back,end,java,spring,springboot,json,13824,117,7,front,end,back,end,java,spring,springboot,json,java,front,end,back,end,java,spring,springboot,json,front,end,back,end,java,spring,springboot,json,json,13824,117,7,13824,117,7</t>
+          <t>java,spring</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10670,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>watt,devops,it,it,ai,it,restful,api,aws,azure,typescript,nest,js,javascript,pytorch,ai,sql,nosql,ci,cd,docker,compose,swarm,ubuntu,traefik,devops,docker,kubernetes,scrum,jira,confluence,it,watt,devops,it,it,ai,it,restful,api,aws,azure,typescript,nest,js,javascript,pytorch,ai,sql,nosql,ci,cd,docker,compose,swarm,ubuntu,traefik,devops,docker,kubernetes,scrum,jira,confluence,it,06627,174,500m,06627,174,500m,06627,174,500m</t>
+          <t>typescript,javascript,docker,kubernetes,aws,azure</t>
         </is>
       </c>
     </row>
@@ -10765,7 +10697,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>2,rino,wcs,delphi,c,mysql,sqlite,oracle,mssql,delphi,ui,rtsp,webrtc,onvif,ai,llm,gpu,cuda,tensorrt,zeromq,grpc,09,00,18,13487,15,2,rino,wcs,delphi,c,mysql,sqlite,oracle,mssql,delphi,ui,rtsp,webrtc,onvif,ai,llm,gpu,cuda,tensorrt,zeromq,grpc,2,2,rino,wcs,delphi,c,mysql,sqlite,oracle,mssql,delphi,ui,rtsp,webrtc,onvif,ai,llm,gpu,cuda,tensorrt,zeromq,grpc,rino,wcs,delphi,c,mysql,sqlite,oracle,mssql,delphi,ui,rtsp,webrtc,onvif,ai,llm,gpu,cuda,tensorrt,zeromq,grpc,delphi,c,mysql,sqlite,oracle,mssql,delphi,ui,rtsp,webrtc,onvif,09,00,18,13487,15,09,00,18,00,13487,15</t>
+          <t>mysql,grpc</t>
         </is>
       </c>
     </row>
@@ -10792,7 +10724,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>cloud,zabbix,cloud,zabbix,09,00,18,06060,100m,zabbix,09,00,18,06060,100m,09,00,18,00,06060,100m</t>
+          <t>zabbix</t>
         </is>
       </c>
     </row>
@@ -10819,7 +10751,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>sw,sw,sw,python,sw,aws,09,00,18,46244,225,500m,sw,python,sw,aws,sw,python,sw,aws,python,sw,aws,09,00,18,46244,225,500m,09,00,18,00,46244,225,500m</t>
+          <t>python,aws</t>
         </is>
       </c>
     </row>
@@ -10846,7 +10778,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>it,it,pl,pm,pl,java,typescript,python,06049,8,800m,pl,pm,pl,java,typescript,python,it,pl,pm,pl,java,typescript,python,pl,pm,pl,java,typescript,python,06049,8,800m,06049,8,800m</t>
+          <t>typescript,java,python</t>
         </is>
       </c>
     </row>
@@ -10871,6 +10803,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -10895,7 +10828,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>pg,o2o,pg,o2o,pg,pg,pg,spring,framework,ci,cd,notion,mysql,08,who,we,are,looking,for,07217,11,sk,v1,center,500m,pg,pg,pg,spring,framework,ci,cd,notion,mysql,08,who,we,are,looking,for,pg,pg,pg,spring,framework,ci,cd,notion,mysql,08,who,we,are,looking,for,pg,pg,spring,framework,ci,cd,notion,mysql,08,who,we,are,looking,for,07217,11,sk,v1,center,500m,07217,11,sk,v1,center,500m</t>
+          <t>spring,mysql</t>
         </is>
       </c>
     </row>
@@ -10920,6 +10853,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -10942,11 +10876,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E435" t="inlineStr">
-        <is>
-          <t>2,08,00,18,28538,2,2,2,08,00,18,28538,95,08,00,18,00,28538,95</t>
-        </is>
-      </c>
+      <c r="E435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -10969,6 +10899,7 @@
           <t>경력 5년↑ · 정규직 외</t>
         </is>
       </c>
+      <c r="E436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -10991,6 +10922,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -11013,11 +10945,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E438" t="inlineStr">
-        <is>
-          <t>erp,erp,erp,09,00,18,43111,erp,erp,erp,09,00,18,43111,4052,09,00,18,00,43111,4052</t>
-        </is>
-      </c>
+      <c r="E438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -11042,7 +10970,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>b2b,api,lims,java,spring,spring,boot,database,mysql,mariadb,rest,aws,android,ios,13493,240,1km,b2b,api,lims,java,spring,spring,boot,database,mysql,mariadb,rest,aws,android,ios,b2b,api,lims,java,spring,spring,boot,database,mysql,mariadb,rest,aws,android,ios,b2b,api,lims,java,spring,spring,boot,database,mysql,mariadb,rest,aws,android,ios,13493,240,1km,13493,240,1km</t>
+          <t>java,spring,mysql,mariadb,aws</t>
         </is>
       </c>
     </row>
@@ -11069,7 +10997,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>r,d,r,d,2,ai,java,jsp,script,r,d,r,phython,java,jsp,script,16,00,07238,19,300m,2,ai,java,jsp,script,r,d,r,phython,java,jsp,script,2,ai,java,jsp,script,2,ai,java,jsp,script,phython,java,jsp,script,phython,java,jsp,script,16,00,07238,19,300m,16,00,07238,19,300m</t>
+          <t>java</t>
         </is>
       </c>
     </row>
@@ -11096,7 +11024,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>java,c,ai,java,c,ai,java,c,cppg,06143,577,100m,java,c,cppg,java,c,cppg,cppg,cppg,06143,577,100m,06143,577,100m</t>
+          <t>java</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11051,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>net,net,net,c,wpf,mvvm,ef6,web,api,restful,asp,net,core,ef,core,html5,bootstrap,es5,mssql,stack,net,oop,mvvm,ef6,component,net,core,blazor,signalr,ef,core,html5,ajax,bootstrap,api,restful,api,06714,9,ojt,net,net,net,net,net,c,wpf,mvvm,ef6,web,api,restful,asp,net,core,ef,core,html5,bootstrap,es5,mssql,stack,net,oop,mvvm,ef6,component,net,core,blazor,signalr,ef,core,html5,ajax,bootstrap,api,restful,api,net,net,c,wpf,mvvm,ef6,web,api,restful,asp,net,core,ef,core,html5,bootstrap,es5,mssql,stack,net,oop,mvvm,ef6,component,net,core,blazor,signalr,ef,core,html5,ajax,bootstrap,api,restful,api,net,net,c,wpf,mvvm,ef6,web,api,restful,asp,net,core,ef,core,html5,bootstrap,es5,mssql,stack,net,oop,mvvm,ef6,component,net,core,blazor,signalr,ef,core,html5,ajax,bootstrap,api,restful,api,06714,9,06714,9,ojt,ojt</t>
+          <t>bootstrap</t>
         </is>
       </c>
     </row>
@@ -11148,6 +11076,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
+      <c r="E443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -11170,11 +11099,7 @@
           <t>경력 1년↑ · 계약직</t>
         </is>
       </c>
-      <c r="E444" t="inlineStr">
-        <is>
-          <t>si,si,2,dba,rhcsa,vcp,hpcsa,rhcse,lpic,1,09,00,18,34102,755,kosa,2,dba,rhcsa,vcp,hpcsa,rhcse,lpic,1,2,2,dba,rhcsa,vcp,hpcsa,rhcse,lpic,1,rhcsa,vcp,hpcsa,rhcse,lpic,1,rhcsa,vcp,hpcsa,rhcse,lpic,1,09,00,18,34102,755,09,00,18,00,34102,755,kosa,kosa</t>
-        </is>
-      </c>
+      <c r="E444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -11197,11 +11122,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E445" t="inlineStr">
-        <is>
-          <t>2,it,pc,ms,pc,ms,windows,server,nas,ojt,09,00,18,14084,25,1km,2,3,4,2,it,pc,ms,pc,ms,windows,server,nas,ojt,2,it,pc,ms,pc,ms,windows,server,nas,ojt,2,it,pc,ms,pc,ms,windows,server,nas,ojt,09,00,18,14084,25,1km,09,00,18,00,14084,25,1km,2,3,4,2,3,4</t>
-        </is>
-      </c>
+      <c r="E445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -11226,7 +11147,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>ui,ux,aws,java,javascript,mssql,spring,springboot,04075,117</t>
+          <t>javascript,java,spring,aws</t>
         </is>
       </c>
     </row>
@@ -11251,11 +11172,7 @@
           <t>경력 2년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E447" t="inlineStr">
-        <is>
-          <t>idc,idc,idc,s,w,l2,l4,idc,trouble,shooting,416,s,w,l2,l4,idc,trouble,shooting,s,w,l2,l4,idc,trouble,shooting,416,416</t>
-        </is>
-      </c>
+      <c r="E447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -11280,7 +11197,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>81,ai,ai,apm,ar,iot,vr,net,ajax,android,asp,c,c,hadoop,html,java,linux,perl,php,python,ruby,xml,61475,196</t>
+          <t>java,php,python</t>
         </is>
       </c>
     </row>
@@ -11307,7 +11224,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>infinera,infinera,room,voc,olt,onu,ont,nat,ont,cpe,f,w,olt,onu,ont,nat,ont,cpe,config,olt,onu,ont,n,w,ccna,ccnp,74,room,voc,olt,onu,ont,nat,ont,cpe,f,w,olt,onu,ont,nat,ont,cpe,config,olt,onu,ont,n,w,ccna,ccnp,74,room,voc,olt,onu,ont,nat,ont,cpe,f,w,olt,onu,ont,nat,ont,cpe,config,olt,onu,ont,n,w,ccna,ccnp,74,09,00,18,00,74,09,00,18,00,74</t>
+          <t>room</t>
         </is>
       </c>
     </row>
@@ -11334,7 +11251,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>2019,2019,2021,2022,2023,2024,2024,2025,1,2,3,4,5,assignment,bit,ly,react,typescript,javascript,react,redux,recoil,contet,api,javascript,react,3,6,2019,2019,2021,2022,2023,2024,2024,2025,1,2,3,4,5,assignment,bit,ly,react,typescript,javascript,react,redux,recoil,contet,api,javascript,react,3,6</t>
+          <t>react,typescript,javascript,redux,recoil</t>
         </is>
       </c>
     </row>
@@ -11359,6 +11276,7 @@
           <t>5 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -11381,6 +11299,7 @@
           <t>3 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -11403,6 +11322,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -11425,6 +11345,7 @@
           <t>경력무관 · 인턴직</t>
         </is>
       </c>
+      <c r="E454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -11447,11 +11368,7 @@
           <t>경력 3년↑ · 계약직</t>
         </is>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>api,rdbms,jsp,linux,oracledb,servlet,springboot,unix,04513,20</t>
-        </is>
-      </c>
+      <c r="E455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -11474,6 +11391,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -11496,6 +11414,7 @@
           <t>6 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -11520,7 +11439,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>it,java,it,java,spring,react,vue,sql,business,level,devops,09,00,18,16827,767,200m,spring,react,vue,sql,business,level,devops,spring,react,vue,sql,business,level,devops,spring,react,vue,sql,business,level,devops,09,00,18,16827,767,200m,09,00,18,00,16827,767,200m</t>
+          <t>react,vue,java,spring</t>
         </is>
       </c>
     </row>
@@ -11547,7 +11466,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>2025,si,erp,crm,hrd,hrd,er,hrd,hrd,hrd,hrm,hrd,hrd,hrd,hrd,hrd,hrd,hrd,hrd,excel,oa,se,net,c,css,css3,git,html,html5,java,javascript,node,js,figma,photoshop,b2b,13493,49</t>
+          <t>javascript,java</t>
         </is>
       </c>
     </row>
@@ -11574,7 +11493,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>si,erp,crm,si,devops,aws,django,node,js,python,react,08379,55</t>
+          <t>react,django,python,aws</t>
         </is>
       </c>
     </row>
@@ -11599,11 +11518,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>db,pc,db,pc,db,pc,b,3,0,toeic,800,b,3,0,toeic,800,2025,04,16,2024,04,22,031,363,1810,2025,04,16,2024,04,22,031,363,1810</t>
-        </is>
-      </c>
+      <c r="E461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -11626,11 +11541,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>payroll,hrd,hrd,hrd,er,hrd,hrm,hrd,payroll,hrd,hrd,hrd,hrd,hrd,excel,h,w,s,w,b2b,md,gro</t>
-        </is>
-      </c>
+      <c r="E462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -11655,7 +11566,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>dba,oracle,postgresql,mysql,mariadb,aws,db,oracle,aws,dbms,postgresql,mysql,mongodb,troubleshooting,sql,db,python,bash,db,aws,rds,google,cloud,sql,mysql,dba,postgresql,certified,professional,barrier,free,front,end,engineer,flutter,react,native,swift,swiftui,uikit,xctest,core,data,restful,api,objective,c,app,store,connect,google,play,console,ci,cd,jenkins,github,actions,ux,api,ci,cd,gps,js,spring,mybatis,react,typescript</t>
+          <t>react,typescript,postgresql,mysql,mariadb,mongodb,python,spring,swift,swiftui,uikit,xctest,flutter,aws,rds,jenkins</t>
         </is>
       </c>
     </row>
@@ -11682,7 +11593,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>java,node,js,react,vue,js,it,java,node,js,react,vue,js,java,node,js,react,vue,js,it,java,node,js,react,vue,js,java,node,js,api,react,vue,js,ui,java,spring,framework,postgresql,mysql,rest,api,vue,js,react,html,css,x,javascript,typescript,rest,api,git,java,spring,jpa,mybatis,node,js,typeorm,redis,postgresql,mysql,vue,js,react,typescript,thymeleaf,jenkins,git,redmine,slack,ci,cd,docker,b2b,b2c,java,node,js,react,vue,js,java,node,js,api,react,vue,js,ui,java,spring,framework,postgresql,mysql,rest,api,vue,js,react,html,css,x,javascript,typescript,rest,api,git,java,spring,jpa,mybatis,node,js,typeorm,redis,postgresql,mysql,vue,js,react,typescript,thymeleaf,jenkins,git,redmine,slack,ci,cd,docker,b2b,b2c,java,node,js,react,vue,js,java,node,js,api,react,vue,js,ui,java,spring,framework,postgresql,mysql,rest,api,vue,js,react,html,css,x,javascript,typescript,rest,api,git,java,spring,jpa,mybatis,node,js,typeorm,redis,postgresql,mysql,vue,js,react,typescript,thymeleaf,jenkins,git,redmine,slack,ci,cd,docker,b2b,b2c,09,00,18,30,09,00,18,30,a,part,of,our</t>
+          <t>react,vue,javascript,typescript,java,spring,postgresql,mysql,typeorm,redis,docker,jenkins</t>
         </is>
       </c>
     </row>
@@ -11709,7 +11620,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>erp,oa,idc,cdn,idc,toeic,toefl,oa,it,pre,kinx,aws,azure,gcp,b2b,sns,core,r,s,multi,cloud,ccnp,ccie,jncip,jncie,ups,or,2d,or,3d,idc,cdn,idc,oa,it,pre,kinx,ccna,ccnp,jncis,jncip,aws,certified,associate,professional,azure,architect,technologies,design,ui,ux,ux,b2b,photoshop,illustrator,after,effects,back,end,back,end,end,back,end,python,django,flask,erp,oa,idc,cdn,idc,toeic,toefl,oa,it,pre,kinx,aws,azure,gcp,b2b,sns,core,r,s,multi,cloud,ccnp,ccie,jncip,jncie,ups,or,2d,or,3d,idc,cdn,idc,oa,it,pre,kinx,ccna,ccnp,jncis,jncip,aws,certified,associate,professional,azure,architect,technologies,design,ui,ux,ux,b2b,photoshop,illustrator,after,effects,back,end,back,end,end,back,end,python,django,flask,erp,oa,idc,cdn,idc,toeic,toefl,oa,it,pre,kinx,aws,azure,gcp,b2b,sns,core,r,s,multi,cloud,ccnp,ccie,jncip,jncie,ups,or,2d,or,3d,erp,oa,idc,cdn,idc,toeic,toefl,oa,it,pre,kinx,aws,azure,gcp,b2b,sns,core,r,s,multi,cloud,ccnp,ccie,jncip,jncie,ups,or,2d,or,3d,idc,cdn,idc,oa,it,pre,kinx,ccna,ccnp,jncis,jncip,aws,certified,associate,professional,azure,architect,technologies,design,ui,ux,ux,b2b,photoshop,illustrator,after,effects,back,end,back,end,end,back,end,python,django,flask,idc,cdn,idc,oa,it,pre,kinx,ccna,ccnp,jncis,jncip,aws,certified,associate,professional,azure,architect,technologies,design,ui,ux,ux,b2b,photoshop,illustrator,after,effects,back,end,back,end,end,back,end,python,django,flask,2,my,day,step1,04,29,step2,04,29,05,01,step3,4,29,4,30,5,1,step1,step2,step3,step4,m,02,526,0953,job,kinx,net,m,02,526,0979,job,kinx,net,2,my,day,2,my,day,step1,04,29,step2,04,29,05,01,step3,4,29,4,30,5,1,step1,step2,step3,step4,step1,04,29,step2,04,29,05,01,step3,step1,04,29,step2,04,29,05,01,step3,4,29,4,30,5,1,step1,step2,step3,step4,step1,step2,step3,step4,m,02,526,0953,job,kinx,net,m,02,526,0979,job,kinx,net,m,02,526,0953,job,kinx,net,m,02,526,0979,job,kinx,net</t>
+          <t>python,django,flask,aws,azure,gcp</t>
         </is>
       </c>
     </row>
@@ -11734,11 +11645,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>47,47,47,food,beverage,manager,f,b,total,plant,b2b,f,b,light,representative,light,district,representative,light,process,process,chemical,engineering,heavy,representative,water,process,chemical,support,field,service,relationship,management,value,support,minimum,qualifications,office,native,proficient,preferred,qualifications,supply,chain,logistics,analyst,ecolab,oa,scm,native,proficient,office,excel,word,powerpoint,global,high,tech,account,manager,global,high,account,high,tech,territory,account,corporate,accounts,senior,sales,sales,territory,district,office,global,high,tech,development,manager,data,center,manage,develop,and,maintain,business,relationships,with,existing,and,potential,clients,of,data,center,business,to,meet,sales,objectives,responsible,for,creating,and,implementing,strategies,to,grow,the,organization,s,business,ensure,ongoing,relationships,with,customers,while,maximizing,ecolab,s,offerings,and,profitability,the,key,objective,is,to,demonstrate,the,ecolab,promise,and,the,value,we,provide,as,a,total,solutions,partner,cleaner,safer,healthier,everywhere,it,matters,center,market,intelligence,relationships,with,key,stakeholders,including,customers,coordinators,meps,constructors,etc,in,the,data,center,value,chain,strong,sales,performance,by,interacting,with,existing,customers,and,developing,new,prospects,with,all,levels,of,sales,marketing,research,district,and,customer,personnel,and,management,to,develop,and,maintain,current,and,new,business,support,corporate,policies,and,foster,team,spirit,with,global,teams,including,global,ap,cams,to,drive,business,with,korea,data,centers,fluent,global,high,tech,account,manager,ecolab,is,looking,for,an,account,manager,to,join,its,industry,leading,sales,team,you,ll,be,responsible,for,developing,and,expanding,new,and,existing,korea,accounts,for,ecolab,korea,in,the,global,high,tech,space,through,outstanding,presentation,skills,and,style,you,ll,help,our,customers,be,more,profitable,by,adding,value,that,is,focused,on,the,end,user,s,key,business,drivers,this,position,will,manage,develop,and,maintain,business,relationships,with,existing,and,potential,clients,slurry,formulators,and,other,industrial,application,segments,to,meet,sales,objectives,responsible,for,developing,and,implementing,strategies,to,grow,the,organization,s,business,as,the,industry,leader,in,the,production,of,specialized,colloidal,silica,abrasives,focused,on,the,growing,cmp,market,we,re,growing,and,need,talented,people,like,you,to,help,us,to,continue,and,accelerate,our,growth,in,this,key,focus,area,and,expand,existing,and,new,korean,slurry,formulators,in,the,microelectronic,space,and,other,industrial,manufacturing,market,segment,eg,investment,casting,coating,catalyst,and,implement,strategic,business,plans,for,korean,ctg,accounts,value,add,products,and,programs,highlighting,impact,to,the,customer,s,business,and,secure,major,new,business,accounts,and,operation,management,and,lead,service,and,sales,teams,to,ensure,that,revenue,and,profit,targets,are,met,and,delivery,of,service,standards,are,consistent,bs,degree,in,engineering,chemical,or,material,science,engineering,but,not,limited,to,years,of,sales,experience,into,the,micro,electronics,industry,preferably,with,cmp,experience,of,microelectronic,wafer,polishing,cmp,and,colloidal,science,is,a,plus,fluent,in,english,and,korean,life,science,account,manager,the,life,sciences,account,manager,is,the,face,of,the,company,for,our,customers,and,is,responsible,for,the,profitable,growth,of,the,field,sales,by,building,on,existing,customer,relationship,and,expanding,opportunities,through,new,business,account,managers,foster,strong,customer,relationships,by,providing,personalized,service,and,valuable,expertise,in,cleaning,and,disinfection,and,delivering,chemical,and,operational,solutions,to,pharmaceutical,personal,care,manufacturing,environments,target,sales,growth,for,the,individual,territory,and,actively,contribute,to,the,achievement,of,the,team,targets,on,a,national,and,regional,basis,and,deliver,personalized,recommendations,for,products,processes,and,programs,to,address,cleaning,and,disinfection,problems,at,pharmaceutical,and,or,cosmetic,producers,recommendations,on,improved,cleaning,techniques,or,cleaning,equipment,to,ensure,customer,s,processes,are,efficient,and,effective,cooperate,with,the,local,distributor,to,expand,the,contamination,control,business,in,korea,and,promote,the,value,of,ecolab,services,the,industry,specific,regulatory,and,quality,requirements,anticipate,and,address,the,customer,s,needs,regular,visits,to,customer,sites,build,strong,personal,relationships,across,the,customer,site,with,production,quality,supervisory,management,office,and,corporate,staff,tailoring,communication,to,the,audience,local,support,close,cooperation,and,full,exchange,of,information,with,global,corporate,account,managers,efficient,communication,with,other,team,members,and,internal,functions,to,meet,customers,needs,collaboration,with,the,team,colleagues,internal,functions,and,the,distributor,animate,the,market,via,congresses,technical,visits,and,seminars,up,to,date,pipeline,and,current,sales,forecasts,leads,and,wins,utilizing,existing,tools,and,resources,biopharma,qc,50,ms,crm,communication,assistant,marketing,communications,pr,pr,marketing,seo,sem,ppc,manager,minimum,qualifications,preferred,qualifications,powerpoint,excel,using,digital,marketing,tools,and,platforms,in,microsoft,powerpoint,and,excel,institutional,as,data,minimum,qualificaitons,word,excel,powerpoint,preferred,qualifications,cs,sales,data,10,00,17,00,2,400,000,3,3,food,beverage,manager,f,b,total,plant,b2b,f,b,food,beverage,manager,f,b,total,plant,b2b,f,b,light,representative,light,district,representative,light,process,process,chemical,engineering,light,representative,light,district,representative,light,process,process,chemical,engineering,heavy,representative,water,process,chemical,support,field,service,relationship,management,value,support,minimum,qualifications,office,native,proficient,preferred,qualifications,heavy,representative,water,process,chemical,support,field,service,relationship,management,value,support,minimum,qualifications,office,native,proficient,preferred,qualifications,supply,chain,logistics,analyst,ecolab,oa,scm,native,proficient,office,excel,word,powerpoint,supply,chain,logistics,analyst,ecolab,oa,scm,native,proficient,office,excel,word,powerpoint,global,high,tech,account,manager,global,high,account,high,tech,territory,account,corporate,accounts,senior,sales,sales,territory,district,office,global,high,tech,account,manager,global,high,account,high,tech,territory,account,corporate,accounts,senior,sales,sales,territory,district,office,global,high,tech,development,manager,data,center,manage,develop,and,maintain,business,relationships,with,existing,and,potential,clients,of,data,center,business,to,meet,sales,objectives,responsible,for,creating,and,implementing,strategies,to,grow,the,organization,s,business,ensure,ongoing,relationships,with,customers,while,maximizing,ecolab,s,offerings,and,profitability,the,key,objective,is,to,demonstrate,the,ecolab,promise,and,the,value,we,provide,as,a,total,solutions,partner,cleaner,safer,healthier,everywhere,it,matters,center,market,intelligence,relationships,with,key,stakeholders,including,customers,coordinators,meps,constructors,etc,in,the,data,center,value,chain,strong,sales,performance,by,interacting,with,existing,customers,and,developing,new,prospects,with,all,levels,of,sales,marketing,research,district,and,customer,personnel,and,management,to,develop,and,maintain,current,and,new,business,support,corporate,policies,and,foster,team,spirit,with,global,teams,including,global,ap,cams,to,drive,business,with,korea,data,centers,fluent,global,high,tech,development,manager,data,center,manage,develop,and,maintain,business,relationships,with,existing,and,potential,clients,of,data,center,business,to,meet,sales,objectives,responsible,for,creating,and,implementing,strategies,to,grow,the,organization,s,business,ensure,ongoing,relationships,with,customers,while,maximizing,ecolab,s,offerings,and,profitability,the,key,objective,is,to,demonstrate,the,ecolab,promise,and,the,value,we,provide,as,a,total,solutions,partner,cleaner,safer,healthier,everywhere,it,matters,center,market,intelligence,relationships,with,key,stakeholders,including,customers,coordinators,meps,constructors,etc,in,the,data,center,value,chain,strong,sales,performance,by,interacting,with,existing,customers,and,developing,new,prospects,with,all,levels,of,sales,marketing,research,district,and,customer,personnel,and,management,to,develop,and,maintain,current,and,new,business,support,corporate,policies,and,foster,team,spirit,with,global,teams,including,global,ap,cams,to,drive,business,with,korea,data,centers,fluent,global,high,tech,account,manager,ecolab,is,looking,for,an,account,manager,to,join,its,industry,leading,sales,team,you,ll,be,responsible,for,developing,and,expanding,new,and,existing,korea,accounts,for,ecolab,korea,in,the,global,high,tech,space,through,outstanding,presentation,skills,and,style,you,ll,help,our,customers,be,more,profitable,by,adding,value,that,is,focused,on,the,end,user,s,key,business,drivers,this,position,will,manage,develop,and,maintain,business,relationships,with,existing,and,potential,clients,slurry,formulators,and,other,industrial,application,segments,to,meet,sales,objectives,responsible,for,developing,and,implementing,strategies,to,grow,the,organization,s,business,as,the,industry,leader,in,the,production,of,specialized,colloidal,silica,abrasives,focused,on,the,growing,cmp,market,we,re,growing,and,need,talented,people,like,you,to,help,us,to,continue,and,accelerate,our,growth,in,this,key,focus,area,and,expand,existing,and,new,korean,slurry,formulators,in,the,microelectronic,space,and,other,industrial,manufacturing,market,segment,eg,investment,casting,coating,catalyst,and,implement,strategic,business,plans,for,korean,ctg,accounts,value,add,products,and,programs,highlighting,impact,to,the,customer,s,business,and,secure,major,new,business,accounts,and,operation,management,and,lead,service,and,sales,teams,to,ensure,that,revenue,and,profit,targets,are,met,and,delivery,of,service,standards,are,consistent,bs,degree,in,engineering,chemical,or,material,science,engineering,but,not,limited,to,years,of,sales,experience,into,the,micro,electronics,industry,preferably,with,cmp,experience,of,microelectronic,wafer,polishing,cmp,and,colloidal,science,is,a,plus,fluent,in,english,and,korean,global,high,tech,account,manager,ecolab,is,looking,for,an,account,manager,to,join,its,industry,leading,sales,team,you,ll,be,responsible,for,developing,and,expanding,new,and,existing,korea,accounts,for,ecolab,korea,in,the,global,high,tech,space,through,outstanding,presentation,skills,and,style,you,ll,help,our,customers,be,more,profitable,by,adding,value,that,is,focused,on,the,end,user,s,key,business,drivers,this,position,will,manage,develop,and,maintain,business,relationships,with,existing,and,potential,clients,slurry,formulators,and,other,industrial,application,segments,to,meet,sales,objectives,responsible,for,developing,and,implementing,strategies,to,grow,the,organization,s,business,as,the,industry,leader,in,the,production,of,specialized,colloidal,silica,abrasives,focused,on,the,growing,cmp,market,we,re,growing,and,need,talented,people,like,you,to,help,us,to,continue,and,accelerate,our,growth,in,this,key,focus,area,and,expand,existing,and,new,korean,slurry,formulators,in,the,microelectronic,space,and,other,industrial,manufacturing,market,segment,eg,investment,casting,coating,catalyst,and,implement,strategic,business,plans,for,korean,ctg,accounts,value,add,products,and,programs,highlighting,impact,to,the,customer,s,business,and,secure,major,new,business,accounts,and,operation,management,and,lead,service,and,sales,teams,to,ensure,that,revenue,and,profit,targets,are,met,and,delivery,of,service,standards,are,consistent,bs,degree,in,engineering,chemical,or,material,science,engineering,but,not,limited,to,years,of,sales,experience,into,the,micro,electronics,industry,preferably,with,cmp,experience,of,microelectronic,wafer,polishing,cmp,and,colloidal,science,is,a,plus,fluent,in,english,and,korean,life,science,account,manager,the,life,sciences,account,manager,is,the,face,of,the,company,for,our,customers,and,is,responsible,for,the,profitable,growth,of,the,field,sales,by,building,on,existing,customer,relationship,and,expanding,opportunities,through,new,business,account,managers,foster,strong,customer,relationships,by,providing,personalized,service,and,valuable,expertise,in,cleaning,and,disinfection,and,delivering,chemical,and,operational,solutions,to,pharmaceutical,personal,care,manufacturing,environments,target,sales,growth,for,the,individual,territory,and,actively,contribute,to,the,achievement,of,the,team,targets,on,a,national,and,regional,basis,and,deliver,personalized,recommendations,for,products,processes,and,programs,to,address,cleaning,and,disinfection,problems,at,pharmaceutical,and,or,cosmetic,producers,recommendations,on,improved,cleaning,techniques,or,cleaning,equipment,to,ensure,customer,s,processes,are,efficient,and,effective,cooperate,with,the,local,distributor,to,expand,the,contamination,control,business,in,korea,and,promote,the,value,of,ecolab,services,the,industry,specific,regulatory,and,quality,requirements,anticipate,and,address,the,customer,s,needs,regular,visits,to,customer,sites,build,strong,personal,relationships,across,the,customer,site,with,production,quality,supervisory,management,office,and,corporate,staff,tailoring,communication,to,the,audience,local,support,close,cooperation,and,full,exchange,of,information,with,global,corporate,account,managers,efficient,communication,with,other,team,members,and,internal,functions,to,meet,customers,needs,collaboration,with,the,team,colleagues,internal,functions,and,the,distributor,animate,the,market,via,congresses,technical,visits,and,seminars,up,to,date,pipeline,and,current,sales,forecasts,leads,and,wins,utilizing,existing,tools,and,resources,biopharma,qc,50,ms,crm,life,science,account,manager,the,life,sciences,account,manager,is,the,face,of,the,company,for,our,customers,and,is,responsible,for,the,profitable,growth,of,the,field,sales,by,building,on,existing,customer,relationship,and,expanding,opportunities,through,new,business,account,managers,foster,strong,customer,relationships,by,providing,personalized,service,and,valuable,expertise,in,cleaning,and,disinfection,and,delivering,chemical,and,operational,solutions,to,pharmaceutical,personal,care,manufacturing,environments,target,sales,growth,for,the,individual,territory,and,actively,contribute,to,the,achievement,of,the,team,targets,on,a,national,and,regional,basis,and,deliver,personalized,recommendations,for,products,processes,and,programs,to,address,cleaning,and,disinfection,problems,at,pharmaceutical,and,or,cosmetic,producers,recommendations,on,improved,cleaning,techniques,or,cleaning,equipment,to,ensure,customer,s,processes,are,efficient,and,effective,cooperate,with,the,local,distributor,to,expand,the,contamination,control,business,in,korea,and,promote,the,value,of,ecolab,services,the,industry,specific,regulatory,and,quality,requirements,anticipate,and,address,the,customer,s,needs,regular,visits,to,customer,sites,build,strong,personal,relationships,across,the,customer,site,with,production,quality,supervisory,management,office,and,corporate,staff,tailoring,communication,to,the,audience,local,support,close,cooperation,and,full,exchange,of,information,with,global,corporate,account,managers,efficient,communication,with,other,team,members,and,internal,functions,to,meet,customers,needs,collaboration,with,the,team,colleagues,internal,functions,and,the,distributor,animate,the,market,via,congresses,technical,visits,and,seminars,up,to,date,pipeline,and,current,sales,forecasts,leads,and,wins,utilizing,existing,tools,and,resources,biopharma,qc,50,ms,crm,communication,assistant,marketing,communications,pr,pr,marketing,seo,sem,ppc,manager,minimum,qualifications,preferred,qualifications,powerpoint,excel,using,digital,marketing,tools,and,platforms,in,microsoft,powerpoint,and,excel,communication,assistant,marketing,communications,pr,pr,marketing,seo,sem,ppc,manager,minimum,qualifications,preferred,qualifications,powerpoint,excel,using,digital,marketing,tools,and,platforms,in,microsoft,powerpoint,and,excel,institutional,as,data,minimum,qualificaitons,word,excel,powerpoint,preferred,qualifications,cs,sales,data,10,00,17,00,2,400,000,3,3,institutional,as,data,minimum,qualificaitons,word,excel,powerpoint,preferred,qualifications,cs,sales,data,10,00,17,00,2,400,000,3,3,recruit,kr,ecolab,com,recruit,kr,ecolab,com</t>
-        </is>
-      </c>
+      <c r="E466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -11761,6 +11668,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -11785,7 +11693,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>ai,si,erp,crm,erp,ai,api,nlp,nlu,docker,postgresql,python,pytorch,restapi,typescript,05203,84</t>
+          <t>typescript,docker,postgresql,python</t>
         </is>
       </c>
     </row>
@@ -11812,7 +11720,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>hr,hr,java,jsp,spring,framewokr,xplatform,oracle,oracle,peoplesoft,dl,ml,dl,dx,mlops,kaggle,dell,dell,technologies,5,sap,sap,bw,sap,bw,bw,oracle,sql,sap,datasphere,fup,pm,qc,qa,hr,hr,java,jsp,spring,framewokr,xplatform,oracle,oracle,peoplesoft,dl,ml,dl,dx,mlops,kaggle,dell,dell,technologies,5,sap,sap,bw,sap,bw,bw,oracle,sql,sap,datasphere,fup,hr,hr,java,jsp,spring,framewokr,xplatform,oracle,oracle,peoplesoft,dl,ml,dl,dx,mlops,kaggle,dell,dell,technologies,5,sap,sap,bw,sap,bw,bw,oracle,sql,sap,datasphere,fup,pm,qc,qa,pm,qc,qa,http,dream,kolon,com,09,00,24,00,http,dream,kolon,com,09,00,24,00</t>
+          <t>java,spring</t>
         </is>
       </c>
     </row>
@@ -11837,6 +11745,7 @@
           <t>3 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -11859,11 +11768,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>2,09,00,18,17579,327,2,2,2,09,00,18,17579,327,09,00,18,00,17579,327</t>
-        </is>
-      </c>
+      <c r="E471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -11886,6 +11791,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -11908,6 +11814,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -11932,7 +11839,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>2,react,typescript,css,scss,ui,lighthouse,fe,08,00,17,10364,32,19,800m,2,react,typescript,css,scss,ui,lighthouse,fe,2,2,react,typescript,css,scss,ui,lighthouse,fe,react,typescript,css,scss,ui,lighthouse,fe,08,00,17,10364,32,19,800m,08,00,17,00,10364,32,19,800m</t>
+          <t>react,typescript</t>
         </is>
       </c>
     </row>
@@ -11957,6 +11864,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -11979,6 +11887,7 @@
           <t>1 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -12003,7 +11912,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>ai,dbms,rdbms,ajax,aws,css,css3,html,java,javascript,jsp,kotlin,linux,mongodb,mysql,node,js,oracledb,postgresql,python,pytorch,react,ruby,sql,vue,js</t>
+          <t>javascript,react,vue,java,kotlin,mongodb,mysql,postgresql,python,aws</t>
         </is>
       </c>
     </row>
@@ -12028,11 +11937,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>14,7,si,ni,https,dart,fss,or,kr,bmt,decoder,audio,codec,ip,mux,09,00,18,00,14,7,14,7,si,ni,https,dart,fss,or,kr,bmt,decoder,audio,codec,ip,mux,09,00,18,00,14,7,14,7,si,ni,https,dart,fss,or,kr,14,7,si,ni,https,dart,fss,or,kr,bmt,decoder,audio,codec,ip,mux,bmt,decoder,audio,codec,ip,mux,bmt,decoder,audio,codec,ip,mux,09,00,18,00,14,7,09,00,18,00,14,7</t>
-        </is>
-      </c>
+      <c r="E478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -12055,11 +11960,7 @@
           <t>경력 2년↑ · 계약직</t>
         </is>
       </c>
-      <c r="E479" t="inlineStr">
-        <is>
-          <t>web3,product,frontend,ui,admin,landing,page,github,ux,web3,product,frontend,ui,admin,landing,page,github,ux,ui,admin,landing,page,github,ux,huge,opportunity,competitive,salary,generous,environment,huge,opportunity,competitive,salary,generous,environment,huge,opportunity,competitive,salary,generous,environment</t>
-        </is>
-      </c>
+      <c r="E479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -12084,7 +11985,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>web3,product,backend,ethereum,api,admin,page,backend,bot,backend,backend,contract,golang,contract,solidity,mysql,postgresql,stack,json,rpc,gprc,finance,web3,product,backend,ethereum,api,admin,page,backend,bot,backend,backend,contract,golang,contract,solidity,mysql,postgresql,stack,json,rpc,gprc,finance,ethereum,api,admin,page,backend,bot,backend,backend,contract,golang,contract,solidity,mysql,postgresql,stack,json,rpc,gprc,finance,huge,opportunity,competitive,salary,generous,environment,huge,opportunity,competitive,salary,generous,environment,huge,opportunity,competitive,salary,generous,environment</t>
+          <t>mysql,postgresql</t>
         </is>
       </c>
     </row>
@@ -12109,6 +12010,7 @@
           <t>2 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -12131,6 +12033,7 @@
           <t>경력 7년↑ · 프리랜서</t>
         </is>
       </c>
+      <c r="E482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -12153,11 +12056,7 @@
           <t>경력(년수무관) · 정규직</t>
         </is>
       </c>
-      <c r="E483" t="inlineStr">
-        <is>
-          <t>se,se,windows,mssql,dbms,windows,linux,41447,427,800m,windows,mssql,dbms,windows,linux,se,windows,mssql,dbms,windows,linux,windows,mssql,dbms,windows,linux,windows,linux,41447,427,800m,41447,427,800m</t>
-        </is>
-      </c>
+      <c r="E483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -12180,6 +12079,7 @@
           <t>경력무관 · 정규직 외</t>
         </is>
       </c>
+      <c r="E484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -12204,7 +12104,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>pm,agile,agile,servicenow,trobule,shooting,itil,foundation,certification,pmp,or,prince2,certification,itsm,remedy,saas,servicenow,itsm,aws,azure,google,oci,on,premise,itil,saas,servicenow,itsm,hrsd,agile,development,business,process,consaltant,servicenow,servicenow,servicenow,sme,it,servicenow,best,practice,itsm,it,itsm,itsm,remedy,saas,html,bootstrap,css,javascript,angularjs,rest,soap,api,agile,development,ms,office,excel,presentation,etc,agile,devops,itsm,aws,azure,google,oci,on,premise,itil,saas,servicenow,itsm,hrsd,servicenow,bi,report,react,node,js,devops,agile,technical,advisor,servicenow,servicenow,best,practice,itsm,cmdb,itam,itom,servicenow,system,javascript,glidescript,servicenow,api,rest,soap,api,integration,hub,html,bootstrap,css,javascript,angularjs,rest,soap,api,agile,development,ms,office,excel,presentation,etc,servicenow,ci,cd,aws,azure,google,oci,on,premise,itil,saas,servicenow,itsm,hrsd,bi,report,react,node,js,devops,agile,technical,consultant,servicenow,servicenow,itsm,itom,hrsd,csm,javascript,glidescript,servicenow,api,rest,soap,api,integration,hub,servicenow,best,practice,servicenow,html,bootstrap,css,javascript,glidescript,angularjs,rest,soap,api,ms,office,excel,presentation,etc,toeic,800,toeic,speaking,160,ci,cd,aws,azure,google,oci,on,premise,servicenow,technical,consultant,servicenow,servicenow,itsm,itom,hrsd,csm,javascript,glidescript,servicenow,api,rest,soap,api,integration,hub,servicenow,best,practice,servicenow,system,ui,js,now,platform,restful,soap,api,3rd,api,flow,workflow,rdbms,servicenow,html,bootstrap,css,javascript,glidescript,angularjs,rest,soap,api,ms,office,excel,presentation,etc,toeic,800,toeic,speaking,160,ci,cd,aws,azure,google,oci,on,premise,servicenow,74,pm,agile,agile,servicenow,trobule,shooting,itil,foundation,certification,pmp,or,prince2,certification,itsm,remedy,saas,servicenow,itsm,aws,azure,google,oci,on,premise,itil,saas,servicenow,itsm,hrsd,agile,development,business,process,consaltant,servicenow,servicenow,servicenow,sme,it,servicenow,best,practice,itsm,it,itsm,itsm,remedy,saas,html,bootstrap,css,javascript,angularjs,rest,soap,api,agile,development,ms,office,excel,presentation,etc,agile,devops,itsm,aws,azure,google,oci,on,premise,itil,saas,servicenow,itsm,hrsd,servicenow,bi,report,react,node,js,devops,agile,technical,advisor,servicenow,servicenow,best,practice,itsm,cmdb,itam,itom,servicenow,system,javascript,glidescript,servicenow,api,rest,soap,api,integration,hub,html,bootstrap,css,javascript,angularjs,rest,soap,api,agile,development,ms,office,excel,presentation,etc,servicenow,ci,cd,aws,azure,google,oci,on,premise,itil,saas,servicenow,itsm,hrsd,bi,report,react,node,js,devops,agile,technical,consultant,servicenow,servicenow,itsm,itom,hrsd,csm,javascript,glidescript,servicenow,api,rest,soap,api,integration,hub,servicenow,best,practice,servicenow,html,bootstrap,css,javascript,glidescript,angularjs,rest,soap,api,ms,office,excel,presentation,etc,toeic,800,toeic,speaking,160,ci,cd,aws,azure,google,oci,on,premise,servicenow,technical,consultant,servicenow,servicenow,itsm,itom,hrsd,csm,javascript,glidescript,servicenow,api,rest,soap,api,integration,hub,servicenow,best,practice,servicenow,system,ui,js,now,platform,restful,soap,api,3rd,api,flow,workflow,rdbms,servicenow,html,bootstrap,css,javascript,glidescript,angularjs,rest,soap,api,ms,office,excel,presentation,etc,toeic,800,toeic,speaking,160,ci,cd,aws,azure,google,oci,on,premise,servicenow,74</t>
+          <t>bootstrap,javascript,react,aws,azure</t>
         </is>
       </c>
     </row>
@@ -12229,11 +12129,7 @@
           <t>2 ~ 15년 · 정규직</t>
         </is>
       </c>
-      <c r="E486" t="inlineStr">
-        <is>
-          <t>2,3,technical,support,team,se,pm,se,utm,nac,wips,axgate,hillstone,smartnac,ccnp,ccna,08,40,16,40,or,09,40,17,40,18469,27,or,2,3,technical,support,team,se,pm,se,utm,nac,wips,axgate,hillstone,smartnac,ccnp,ccna,2,3,2,3,se,pm,se,utm,nac,wips,axgate,hillstone,smartnac,ccnp,ccna,se,pm,se,utm,nac,wips,axgate,hillstone,smartnac,ccnp,ccna,08,40,16,40,or,09,40,17,40,18469,27,08,40,16,40,or,09,40,17,40,18469,27,or,or</t>
-        </is>
-      </c>
+      <c r="E486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -12258,7 +12154,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>development,spa,angular,spa,frontend,performance,optimization,ux,browserify,flow,performance,optimization,cd,github,repository,languages,javascript,react,next,management,redux,context,tools,webpack,babel,control,git,development,api,design,and,object,oriented,functional,programming,api,microservices,nosql,database,ci,cd,scale,system,architecture,environment,aws,gcp,on,premise,backend,data,infra,test,deploy,automation,languages,spring,boot,postgresql,mysql,mongodb,restful,services,orchestration,kubernetes,cd,gitlab,ci,control,gitai,engine,development,ai,fiber,rest,api,grpc,ai,ai,tensorflow,pytorch,rest,api,grpc,ci,cd,language,models,llm,on,premise,ai,hyperparameter,operating,systems,linux,windows,macos,grpc,rest,api,languages,python,pytorch,postgresql,redis,faiss,protocol,broker,processing,pandas,control,orchestration,kubernetes,cd,gitlab,ci,09,00,18,04130,163,800m,sk,careers,kkd,en,core,com,jwjung7,en,core,development,spa,angular,spa,frontend,performance,optimization,ux,browserify,flow,performance,optimization,cd,github,repository,languages,javascript,react,next,management,redux,context,tools,webpack,babel,control,git,frontend,development,spa,angular,spa,frontend,performance,optimization,ux,browserify,flow,performance,optimization,cd,github,repository,languages,javascript,react,next,management,redux,context,tools,webpack,babel,control,git,spa,angular,spa,frontend,performance,optimization,ux,browserify,flow,performance,optimization,cd,github,repository,languages,javascript,react,next,management,redux,context,tools,webpack,babel,control,git,backend,development,api,design,and,object,oriented,functional,programming,api,microservices,nosql,database,ci,cd,scale,system,architecture,environment,aws,gcp,on,premise,backend,data,infra,test,deploy,automation,languages,spring,boot,postgresql,mysql,mongodb,restful,services,orchestration,kubernetes,cd,gitlab,ci,control,gitai,engine,development,ai,fiber,rest,api,grpc,ai,ai,tensorflow,pytorch,rest,api,grpc,ci,cd,language,models,llm,on,premise,ai,hyperparameter,operating,systems,linux,windows,macos,grpc,rest,api,languages,python,pytorch,postgresql,redis,faiss,protocol,broker,processing,pandas,control,orchestration,kubernetes,cd,gitlab,ci,09,00,18,04130,163,800m,backend,development,api,design,and,object,oriented,functional,programming,api,microservices,nosql,database,ci,cd,scale,system,architecture,environment,aws,gcp,on,premise,backend,data,infra,test,deploy,automation,languages,spring,boot,postgresql,mysql,mongodb,restful,services,orchestration,kubernetes,cd,gitlab,ci,control,git,api,design,and,object,oriented,functional,programming,api,microservices,nosql,database,ci,cd,scale,system,architecture,environment,aws,gcp,on,premise,backend,data,infra,test,deploy,automation,languages,spring,boot,postgresql,mysql,mongodb,restful,services,orchestration,kubernetes,cd,gitlab,ci,control,git,ai,engine,development,ai,fiber,rest,api,grpc,ai,ai,tensorflow,pytorch,rest,api,grpc,ci,cd,language,models,llm,on,premise,ai,hyperparameter,operating,systems,linux,windows,macos,grpc,rest,api,languages,python,pytorch,postgresql,redis,faiss,protocol,broker,processing,pandas,control,orchestration,kubernetes,cd,gitlab,ci,cd,ai,fiber,rest,api,grpc,ai,ai,tensorflow,pytorch,rest,api,grpc,ci,cd,language,models,llm,on,premise,ai,hyperparameter,operating,systems,linux,windows,macos,grpc,rest,api,languages,python,pytorch,postgresql,redis,faiss,protocol,broker,processing,pandas,control,orchestration,kubernetes,cd,gitlab,ci,cd,09,00,18,00,04130,163,800m,sk,careers,kkd,en,core,com,jwjung7,en,core,com,sk,careers,kkd,en,core,com,jwjung7,en,core,com</t>
+          <t>angular,javascript,react,redux,webpack,babel,spring,postgresql,mysql,mongodb,kubernetes,grpc,python,redis,aws,gcp</t>
         </is>
       </c>
     </row>
@@ -12283,11 +12179,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>ui,ux,sw,ui,ux,sw,ui,09,00,18,61754,ui,ui,ui,09,00,18,61754,09,00,18,00,61754</t>
-        </is>
-      </c>
+      <c r="E488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -12310,11 +12202,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>2,09,00,18,04782,7,300m,219,2,2,2,09,00,18,04782,7,300m,219,09,00,18,00,04782,7,300m,219</t>
-        </is>
-      </c>
+      <c r="E489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -12337,6 +12225,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -12359,6 +12248,7 @@
           <t>경력 5년↑ · 계약직</t>
         </is>
       </c>
+      <c r="E491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -12381,6 +12271,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -12403,11 +12294,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>cctv,cctv,2,cisco,certification,network,associate,62244,846,3,2,cisco,certification,network,associate,2,2,cisco,certification,network,associate,cisco,certification,network,associate,cisco,certification,network,associate,62244,846,3,62244,846,3</t>
-        </is>
-      </c>
+      <c r="E493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -12432,7 +12319,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>api,php,jquery,javascript,mysql,html,css,php,git</t>
+          <t>javascript,php,mysql</t>
         </is>
       </c>
     </row>
@@ -12457,6 +12344,7 @@
           <t>1 ~ 2년 · 정규직</t>
         </is>
       </c>
+      <c r="E495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -12479,11 +12367,7 @@
           <t>경력 10년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E496" t="inlineStr">
-        <is>
-          <t>s,w,s,w,1,wi,fi,2,hpe,aruba,ccna,ccnp,office,09,00,18,04528,3,300m,1,wi,fi,2,hpe,aruba,ccna,ccnp,office,1,wi,fi,2,hpe,aruba,ccna,ccnp,office,1,wi,fi,2,hpe,aruba,ccna,ccnp,office,09,00,18,04528,3,300m,09,00,18,00,04528,3,300m</t>
-        </is>
-      </c>
+      <c r="E496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -12508,7 +12392,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>back,enddeveloper,java,pdf,java,spring,linux,api,sql,spring,mvc,java,mysql,mariadb,jsp</t>
+          <t>java,spring,mysql,mariadb</t>
         </is>
       </c>
     </row>
@@ -12533,6 +12417,7 @@
           <t>경력무관 · 정규직 외</t>
         </is>
       </c>
+      <c r="E498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -12555,11 +12440,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>or,or,pc,nas,pc,nas,09,00,18,00,04990,264,500m,pc,nas,pc,nas,pc,nas,pc,nas,pc,nas,pc,nas,09,00,18,00,04990,264,500m,09,00,18,00,04990,264,500m</t>
-        </is>
-      </c>
+      <c r="E499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -12584,7 +12465,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>ios,android,react,vue,js,ios,android,react,vue,js,2,iosreact,vue,ios,3,5,2,iosreact,vue,ios,3,5,2,2,ios,3,5,153,801,60,500m,153,801,60,500m</t>
+          <t>react,vue</t>
         </is>
       </c>
     </row>
@@ -12611,7 +12492,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>java,java,2,153,801,60,500m,2,2,2,153,801,60,500m,153,801,60,500m</t>
+          <t>java</t>
         </is>
       </c>
     </row>
@@ -12636,6 +12517,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -12660,7 +12542,7 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>db,db,idc,aws,cloud,infra,db,oracle,mssql,postgresql,it,it,iso,tisax,aeo,esg,pc,db,it,08,30,17,07594,177,500m,ai,idc,aws,cloud,infra,db,oracle,mssql,postgresql,it,it,iso,tisax,aeo,esg,pc,db,it,idc,aws,cloud,infra,db,oracle,mssql,postgresql,it,it,iso,tisax,aeo,esg,pc,db,it,idc,aws,cloud,infra,db,oracle,mssql,postgresql,it,it,iso,tisax,aeo,esg,pc,db,it,db,it,08,30,17,07594,177,500m,08,30,17,30,07594,177,500m,ai</t>
+          <t>postgresql,aws</t>
         </is>
       </c>
     </row>
@@ -12685,6 +12567,7 @@
           <t>3 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -12707,11 +12590,7 @@
           <t>경력 · 정규직</t>
         </is>
       </c>
-      <c r="E505" t="inlineStr">
-        <is>
-          <t>rma,5,data,sql,rdbms,erp,mes,miplatform,sql,server,management,studio,miplatform,erp,mes,rdbms,08,30,17,30,15,01,02,03,04,05,06,07,08,rma,5,data,sql,rdbms,erp,mes,miplatform,sql,server,management,studio,miplatform,erp,mes,rdbms,rma,5,data,sql,rdbms,erp,mes,miplatform,sql,server,management,studio,miplatform,erp,mes,rdbms,rma,5,data,sql,rdbms,erp,mes,miplatform,sql,server,management,studio,miplatform,erp,mes,rdbms,08,30,17,30,15,08,30,17,30,15,01,02,03,04,05,06,07,08,01,02,03,04,05,06,07,08,01,02,03,04,05,06,07,08</t>
-        </is>
-      </c>
+      <c r="E505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -12736,7 +12615,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>ai,llm,api,rpa,ai,llm,api,rpa,ai,llm,api,rpa,container,shipping,liner,b2b,it,cyberlogtitec,global,container,shipping,liner,allego,nx,ai,agent,container,shipping,liner,b2b,it,cyberlogtitec,global,container,shipping,liner,allego,nx,ai,agent,ai,allegro,nx,chatbot,rag,agent,chatbot,framework,agent,rag,framework,agent,openai,llm,agent,business,api,stream,ai,langgraph,langsmith,langgraph,rag,agent,rag,rag,api,langgraph,langsmith,langgraph,agent,modular,rag,writing,azure,rag,llmops,allegro,nx,chatbot,rag,agent,chatbot,framework,agent,rag,framework,agent,openai,llm,agent,business,api,stream,ai,langgraph,langsmith,langgraph,rag,agent,rag,rag,api,langgraph,langsmith,langgraph,agent,modular,rag,writing,azure,rag,llmops,junior,senior,junior,senior,lg,gram,120,2,50,5,10,lg,gram,120,2,50,5,10,lg,gram,120,2,50,5,10</t>
+          <t>azure</t>
         </is>
       </c>
     </row>
@@ -12761,6 +12640,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -12783,6 +12663,7 @@
           <t>7 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -12805,6 +12686,7 @@
           <t>2 ~ 4년 · 정규직</t>
         </is>
       </c>
+      <c r="E509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -12827,6 +12709,7 @@
           <t>5 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -12849,11 +12732,7 @@
           <t>경력무관 · 인턴직</t>
         </is>
       </c>
-      <c r="E511" t="inlineStr">
-        <is>
-          <t>payroll,hrd,hrd,hrd,hrd,er,hrd,hrd,hrd,hrm,hrd,hrd,hrd,hrd,se,1229,40</t>
-        </is>
-      </c>
+      <c r="E511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -12876,11 +12755,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E512" t="inlineStr">
-        <is>
-          <t>sdn,5g,wi,fi,sdn,5g,wi,fi,sdn,5g,wi,fi,sdn,5g,wi,fi,sdn,5g,wi,fi</t>
-        </is>
-      </c>
+      <c r="E512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -12903,6 +12778,7 @@
           <t>신입 · 정규직</t>
         </is>
       </c>
+      <c r="E513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -12927,7 +12803,7 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>b2b,react,next,js,typescript,aws,next,js,css,hr,nadoomodoo,com,06151,501,500m,b2b,react,next,js,typescript,aws,next,js,css,hr,nadoomodoo,com,b2b,react,next,js,typescript,aws,next,js,css,hr,nadoomodoo,com,b2b,react,next,js,typescript,aws,next,js,css,hr,nadoomodoo,com,06151,501,500m,06151,501,500m</t>
+          <t>react,typescript,aws</t>
         </is>
       </c>
     </row>
@@ -12952,11 +12828,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E515" t="inlineStr">
-        <is>
-          <t>sensee,ai,r,d,un,zero,project,award,winner,inclusive,education,and,ict,6,ipo,sensee,ai,r,d,un,zero,project,award,winner,inclusive,education,and,ict,6,ipo,r,android,443,1,1,cordova,2,3,lms,lti,443,r,android,443,1,1,cordova,2,3,lms,lti,android,443,1,1,cordova,2,3,lms,lti,android,443,1,1,cordova,2,3,lms,lti,443,443</t>
-        </is>
-      </c>
+      <c r="E515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -12979,6 +12851,7 @@
           <t>3 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -13001,6 +12874,7 @@
           <t>경력 7년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -13023,11 +12897,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E518" t="inlineStr">
-        <is>
-          <t>l4,l7,l4,l7,l7,citrix,netscaler,l7,citrix,netscaler,l7,ccnp,ccie,135,882,169,300m,l7,citrix,netscaler,l7,citrix,netscaler,l7,ccnp,ccie,l7,citrix,netscaler,l7,citrix,netscaler,l7,ccnp,ccie,l7,citrix,netscaler,l7,citrix,netscaler,l7,ccnp,ccie,135,882,169,300m,135,882,169,300m</t>
-        </is>
-      </c>
+      <c r="E518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -13052,7 +12922,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>toeic,toefl,bgm,cgm,cs,technical,writer,bom,labeling,management,ivd,mfds,ce,fda,compliance,regulatory,affairs,eo,eo,it,cgm,bgm,cgms,adc,opamp,dac,bluetooth,le,wi,fi,nfc,usb,python,cgms,adc,opamp,dac,bluetooth,le,wi,fi,nfc,usb,c,python,iot,cgm,cgm,python,java,cd,pipeline,cgm,backend,cgm,container,os,system,cgm,frontend,tool,cgm,vue,css,typescript,es6,x,javascript,it,erp,sap,b1,mes,scm,eis,groupware,nas,pc,iso27001,erp,pi,stored,procedure,fi,co,java,she,she,iso14001,esg,she,compliance,audit,manufacturing,manufacturing,scm,erp,mrp,erp,mrp,cad,po,iqc,toeic,opic,toeic,s,2025,4,23,refresh,toeic,toefl,bgm,cgm,cs,technical,writer,bom,labeling,management,ivd,mfds,ce,fda,compliance,regulatory,affairs,eo,eo,it,cgm,bgm,cgms,adc,opamp,dac,bluetooth,le,wi,fi,nfc,usb,python,cgms,adc,opamp,dac,bluetooth,le,wi,fi,nfc,usb,c,python,iot,cgm,cgm,python,java,cd,pipeline,cgm,backend,cgm,container,os,system,cgm,frontend,tool,cgm,vue,css,typescript,es6,x,javascript,it,erp,sap,b1,mes,scm,eis,groupware,nas,pc,iso27001,erp,pi,stored,procedure,fi,co,java,she,she,iso14001,esg,she,compliance,audit,manufacturing,manufacturing,scm,erp,mrp,erp,mrp,cad,po,iqc,toeic,opic,toeic,s,2025,4,23,refresh,toeic,toefl,bgm,cgm,cs,technical,writer,bom,labeling,management,ivd,mfds,ce,fda,compliance,regulatory,affairs,eo,eo,it,cgm,bgm,cgms,adc,opamp,dac,bluetooth,le,wi,fi,nfc,usb,python,cgms,adc,opamp,dac,bluetooth,le,wi,fi,nfc,usb,c,python,iot,cgm,cgm,python,java,cd,pipeline,cgm,backend,cgm,container,os,system,cgm,frontend,tool,cgm,vue,css,typescript,es6,x,javascript,it,erp,sap,b1,mes,scm,eis,groupware,nas,pc,iso27001,erp,pi,stored,procedure,fi,co,java,she,she,iso14001,esg,she,compliance,audit,manufacturing,manufacturing,scm,erp,mrp,erp,mrp,cad,po,iqc,toeic,opic,toeic,s,toeic,toefl,bgm,cgm,cs,technical,writer,bom,labeling,management,ivd,mfds,ce,fda,compliance,regulatory,affairs,eo,eo,it,cgm,bgm,cgms,adc,opamp,dac,bluetooth,le,wi,fi,nfc,usb,python,cgms,adc,opamp,dac,bluetooth,le,wi,fi,nfc,usb,c,python,iot,cgm,cgm,python,java,cd,pipeline,cgm,backend,cgm,container,os,system,cgm,frontend,tool,cgm,vue,css,typescript,es6,x,javascript,it,erp,sap,b1,mes,scm,eis,groupware,nas,pc,iso27001,erp,pi,stored,procedure,fi,co,java,she,she,iso14001,esg,she,compliance,audit,manufacturing,manufacturing,scm,erp,mrp,erp,mrp,cad,po,iqc,toeic,opic,toeic,s,toeic,toefl,bgm,cgm,cs,technical,writer,bom,labeling,management,ivd,mfds,ce,fda,compliance,regulatory,affairs,eo,eo,it,cgm,bgm,cgms,adc,opamp,dac,bluetooth,le,wi,fi,nfc,usb,python,cgms,adc,opamp,dac,bluetooth,le,wi,fi,nfc,usb,c,python,iot,cgm,cgm,python,java,cd,pipeline,cgm,backend,cgm,container,os,system,cgm,frontend,tool,cgm,vue,css,typescript,es6,x,javascript,it,erp,sap,b1,mes,scm,eis,groupware,nas,pc,iso27001,erp,pi,stored,procedure,fi,co,java,she,she,iso14001,esg,she,compliance,audit,manufacturing,manufacturing,scm,erp,mrp,erp,mrp,cad,po,iqc,toeic,opic,toeic,s,2025,4,23,2025,4,23,refresh,refresh,refresh</t>
+          <t>vue,typescript,javascript,python,java</t>
         </is>
       </c>
     </row>
@@ -13077,6 +12947,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -13099,11 +12970,7 @@
           <t>경력 2년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E521" t="inlineStr">
-        <is>
-          <t>soop,soop,nextjs,nest,js,next,web3,0,three,js,ui,solidity,defi,js,app,router,cappy,web,cappy,sooplive,co,kr,cappy,app,aos,ios,cappy,06174,22,300m,nextjs,nest,js,next,web3,0,three,js,ui,solidity,defi,js,app,router,cappy,web,cappy,sooplive,co,kr,cappy,app,aos,ios,cappy,nextjs,nest,js,next,web3,0,three,js,ui,solidity,defi,js,app,router,cappy,web,cappy,sooplive,co,kr,cappy,app,aos,ios,cappy,nextjs,nest,js,next,web3,0,three,js,ui,solidity,defi,js,app,router,cappy,web,cappy,sooplive,co,kr,cappy,app,aos,ios,cappy,solidity,defi,js,app,router,cappy,web,cappy,sooplive,co,kr,cappy,app,aos,ios,cappy,06174,22,300m,06174,22,300m</t>
-        </is>
-      </c>
+      <c r="E521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -13126,11 +12993,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E522" t="inlineStr">
-        <is>
-          <t>30113,30113,568,30113,568</t>
-        </is>
-      </c>
+      <c r="E522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -13153,6 +13016,7 @@
           <t>6 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -13175,11 +13039,7 @@
           <t>신입 · 정규직</t>
         </is>
       </c>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>ms,sql,4,7,0,ms,sql,4,7,0,ms,sql,4,7,0,3,135,080,707,34,100m,3,135,080,707,34,100m,02,3442,2047,02,3442,2047</t>
-        </is>
-      </c>
+      <c r="E524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -13204,7 +13064,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>msp,msp,managed,service,provider,apache,tomcat,native,k8s,ci,cd,devops,cps,cloud,service,provider,csp,naver,cloud,kt,cloud,nhn,cloud,aws,google,cloud,ms,sla,07261,85,300m,managed,service,provider,apache,tomcat,native,k8s,ci,cd,devops,cps,cloud,service,provider,csp,naver,cloud,kt,cloud,nhn,cloud,aws,google,cloud,ms,sla,msp,managed,service,provider,apache,tomcat,native,k8s,ci,cd,devops,cps,cloud,service,provider,csp,naver,cloud,kt,cloud,nhn,cloud,aws,google,cloud,ms,sla,apache,tomcat,native,k8s,ci,cd,devops,cps,cloud,service,provider,csp,naver,cloud,kt,cloud,nhn,cloud,aws,google,cloud,ms,sla,07261,85,300m,07261,85,300m</t>
+          <t>apache,aws</t>
         </is>
       </c>
     </row>
@@ -13229,6 +13089,7 @@
           <t>경력 1년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -13251,6 +13112,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -13273,11 +13135,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>09,00,18,14119,127,500m,09,00,18,14119,127,500m,09,00,18,00,14119,127,500m</t>
-        </is>
-      </c>
+      <c r="E528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -13300,6 +13158,7 @@
           <t>4 ~ 6년 · 정규직</t>
         </is>
       </c>
+      <c r="E529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -13322,6 +13181,7 @@
           <t>2 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -13344,6 +13204,7 @@
           <t>4 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -13366,6 +13227,7 @@
           <t>1 ~ 3년 · 정규직</t>
         </is>
       </c>
+      <c r="E532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -13388,6 +13250,7 @@
           <t>1 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -13410,6 +13273,7 @@
           <t>3 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -13432,6 +13296,7 @@
           <t>6 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -13454,6 +13319,7 @@
           <t>11 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -13476,11 +13342,7 @@
           <t>경력 1년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>cctv,se,cad,17336,2091</t>
-        </is>
-      </c>
+      <c r="E537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -13505,7 +13367,7 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>react,vue,spa,api,orm,react,query,09,00,18,04560,307,4,5,100m,react,vue,spa,api,orm,react,query,react,vue,spa,api,orm,react,query,react,vue,spa,api,orm,react,query,react,vue,spa,api,orm,react,query,orm,react,query,09,00,18,04560,307,4,5,100m,09,00,18,00,04560,307,4,5,100m</t>
+          <t>react,vue</t>
         </is>
       </c>
     </row>
@@ -13530,6 +13392,7 @@
           <t>경력 7년↑ · 프리랜서</t>
         </is>
       </c>
+      <c r="E539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -13552,11 +13415,7 @@
           <t>경력 6년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E540" t="inlineStr">
-        <is>
-          <t>datacenter,1,cisco,sdn,aci,sd,wan,sda,2,ccna,ccnp,ccie,09,00,18,04528,3,300m,datacenter,1,cisco,sdn,aci,sd,wan,sda,2,ccna,ccnp,ccie,datacenter,1,cisco,sdn,aci,sd,wan,sda,2,ccna,ccnp,ccie,datacenter,1,cisco,sdn,aci,sd,wan,sda,2,ccna,ccnp,ccie,datacenter,1,cisco,sdn,aci,sd,wan,sda,2,ccna,ccnp,ccie,09,00,18,04528,3,300m,09,00,18,00,04528,3,300m</t>
-        </is>
-      </c>
+      <c r="E540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -13581,7 +13440,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>naver,cloud,kubernetes,ci,cd,proxmox,ve,react,linux,windows,naver,cloud,aws,azure,google,cloud,kubernetes,cd,gitlab,jenkins,circleci,grafana,prometheus,zabbix,pinpoint,python,shell,utm,aws,certified,solutions,architect,cka,ckad,08,30,17,04516,19,500m,naver,cloud,kubernetes,ci,cd,proxmox,ve,react,linux,windows,naver,cloud,aws,azure,google,cloud,kubernetes,cd,gitlab,jenkins,circleci,grafana,prometheus,zabbix,pinpoint,python,shell,utm,aws,certified,solutions,architect,cka,ckad,naver,cloud,kubernetes,ci,cd,proxmox,ve,react,linux,windows,naver,cloud,aws,azure,google,cloud,kubernetes,cd,gitlab,jenkins,circleci,grafana,prometheus,zabbix,pinpoint,python,shell,utm,aws,certified,solutions,architect,cka,ckad,naver,cloud,kubernetes,ci,cd,proxmox,ve,react,linux,windows,naver,cloud,aws,azure,google,cloud,kubernetes,cd,gitlab,jenkins,circleci,grafana,prometheus,zabbix,pinpoint,python,shell,utm,aws,certified,solutions,architect,cka,ckad,naver,cloud,aws,azure,google,cloud,kubernetes,cd,gitlab,jenkins,circleci,grafana,prometheus,zabbix,pinpoint,python,shell,utm,aws,certified,solutions,architect,cka,ckad,08,30,17,04516,19,500m,08,30,17,30,04516,19,500m</t>
+          <t>react,kubernetes,python,prometheus,zabbix,aws,azure,jenkins,circleci,grafana</t>
         </is>
       </c>
     </row>
@@ -13606,6 +13465,7 @@
           <t>신입 · 정규직</t>
         </is>
       </c>
+      <c r="E542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -13628,6 +13488,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -13652,7 +13513,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>ml,ml,docker,kubernetes,kubernetes,csi,prometheus,grafana,linux,msa,mlops,ai,kubernetes,08507,371,63,200m,docker,kubernetes,kubernetes,csi,prometheus,grafana,linux,msa,mlops,ai,kubernetes,docker,kubernetes,kubernetes,csi,prometheus,grafana,linux,msa,mlops,ai,kubernetes,docker,kubernetes,kubernetes,csi,prometheus,grafana,linux,msa,mlops,ai,kubernetes,08507,371,63,200m,08507,371,63,200m</t>
+          <t>docker,kubernetes,prometheus,grafana</t>
         </is>
       </c>
     </row>
@@ -13677,6 +13538,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -13701,7 +13563,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>web,web,2,ai,react,react,native,ui,ux,api,ui,ai,react,react,native,09,00,18,24232,10,2,ai,react,react,native,ui,ux,api,ui,ai,react,react,native,2,2,ai,react,react,native,ui,ux,api,ui,ai,react,react,native,ai,react,react,native,ui,ux,api,ui,ai,react,react,native,ai,react,react,native,09,00,18,24232,10,09,00,18,00,24232,10</t>
+          <t>react</t>
         </is>
       </c>
     </row>
@@ -13728,7 +13590,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>b2b,react,next,js,typescript,aws,next,js,css,hr,nadoomodoo,com,06151,311,500m,b2b,react,next,js,typescript,aws,next,js,css,hr,nadoomodoo,com,b2b,react,next,js,typescript,aws,next,js,css,hr,nadoomodoo,com,b2b,react,next,js,typescript,aws,next,js,css,hr,nadoomodoo,com,06151,311,500m,06151,311,500m</t>
+          <t>react,typescript,aws</t>
         </is>
       </c>
     </row>
@@ -13753,11 +13615,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>dfz,red,dot,award,2017,if,design,award,2022,dfx,dfz,d,flat,dfz,red,dot,award,2017,if,design,award,2022,dfx,dfz,d,flat,js,06043,9,500m,refresh,js,js,js,js,06043,9,500m,06043,9,500m,refresh,refresh</t>
-        </is>
-      </c>
+      <c r="E548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -13782,7 +13640,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>ck,b,ck,b,db,spring,09,00,18,04793,5,sk,v1,tower,500m,db,spring,db,spring,db,spring,spring,09,00,18,04793,5,sk,v1,tower,500m,09,00,18,00,04793,5,sk,v1,tower,500m</t>
+          <t>spring</t>
         </is>
       </c>
     </row>
@@ -13807,6 +13665,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -13829,6 +13688,7 @@
           <t>경력 2년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -13853,7 +13713,7 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>api,java,netty,multi,thread,async,nio,ip,tcp,udp,c,c,windows,iocp,linux,epoll,kqueue,pcap,jnetpcap,pcap4j,db,api,java,netty,multi,thread,async,nio,ip,tcp,udp,c,c,windows,iocp,linux,epoll,kqueue,pcap,jnetpcap,pcap4j,db,api,java,netty,multi,thread,async,nio,ip,tcp,udp,c,c,windows,iocp,linux,epoll,kqueue,pcap,jnetpcap,pcap4j,db,08505,121,800m,08505,121,800m</t>
+          <t>java</t>
         </is>
       </c>
     </row>
@@ -13878,6 +13738,7 @@
           <t>경력(년수무관) · 정규직</t>
         </is>
       </c>
+      <c r="E553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -13900,6 +13761,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -13922,6 +13784,7 @@
           <t>10 ~ 12년 · 프리랜서</t>
         </is>
       </c>
+      <c r="E555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -13946,7 +13809,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>24,7,aws,data,incident,prometheus,cloudwatch,247,op,it,operation,zabbix,prometheus,cloudwatch,office,se,system,engineer,infra,cloud,os,a,09,30,18,30,b,18,30,09,30,c,09,30,09,30,24,7,aws,data,incident,prometheus,cloudwatch,247,op,it,operation,zabbix,prometheus,cloudwatch,office,se,system,engineer,infra,cloud,os,a,09,30,18,30,b,18,30,09,30,c,09,30,09,30</t>
+          <t>prometheus,zabbix,aws</t>
         </is>
       </c>
     </row>
@@ -13971,6 +13834,7 @@
           <t>8 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -13993,6 +13857,7 @@
           <t>5 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -14015,6 +13880,7 @@
           <t>2 ~ 4년 · 정규직</t>
         </is>
       </c>
+      <c r="E559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -14037,6 +13903,7 @@
           <t>2 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -14059,6 +13926,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -14081,11 +13949,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E562" t="inlineStr">
-        <is>
-          <t>ssr,server,side,rendering,static,site,generation,seo,tailwind,css,ui,github,supabase,vercel,nextjs,ssr,seo,github,supabase,vercel,supabase,vercel,next,git,repositoy</t>
-        </is>
-      </c>
+      <c r="E562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -14108,11 +13972,7 @@
           <t>10 ~ 20년 · 정규직</t>
         </is>
       </c>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>2,09,00,18,2,2,2,09,00,18,09,00,18,00</t>
-        </is>
-      </c>
+      <c r="E563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -14135,6 +13995,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -14159,7 +14020,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>nest,rest,api,graphql,dynamodb,postgresql,elasticsearch,js,office,1,09,30,18,06242,11,500m,nest,rest,api,graphql,dynamodb,postgresql,elasticsearch,js,office,1,nest,rest,api,graphql,dynamodb,postgresql,elasticsearch,js,office,1,09,30,18,06242,11,500m,09,30,18,30,06242,11,500m</t>
+          <t>graphql,dynamodb,postgresql,elasticsearch</t>
         </is>
       </c>
     </row>
@@ -14186,7 +14047,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>js,office,1,query,zustand,recoil,api,graphql,programming,oop,ci,09,30,18,06242,11,500m,js,office,1,query,zustand,recoil,api,graphql,programming,oop,ci,js,office,1,query,zustand,recoil,api,graphql,programming,oop,ci,09,30,18,06242,11,500m,09,30,18,30,06242,11,500m</t>
+          <t>zustand,recoil,graphql</t>
         </is>
       </c>
     </row>
@@ -14211,11 +14072,7 @@
           <t>경력무관 · 프리랜서</t>
         </is>
       </c>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>db,framework,08,30,17,30,17336,698,3,db,framework,db,framework,db,framework,08,30,17,30,17336,698,1,08,30,17,30,17336,698,1,3</t>
-        </is>
-      </c>
+      <c r="E567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -14240,7 +14097,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>mes,erp,web,mes,erp,web,erp,erp,java,spring,boot,vue,js,mybatis,mysql,ms,sql,rdbms,api,pop,qms,scm,2,front,backend,14441,20,22,erp,erp,java,spring,boot,vue,js,mybatis,mysql,ms,sql,rdbms,api,pop,qms,scm,2,front,backend,erp,erp,erp,erp,java,spring,boot,vue,js,mybatis,mysql,ms,sql,rdbms,api,pop,qms,scm,java,spring,boot,vue,js,mybatis,mysql,ms,sql,rdbms,api,pop,qms,scm,2,front,backend,2,front,backend,14441,20,22,14441,20,22</t>
+          <t>vue,java,spring,mysql</t>
         </is>
       </c>
     </row>
@@ -14265,6 +14122,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
+      <c r="E569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -14287,6 +14145,7 @@
           <t>경력 3년↑ · 정규직 외</t>
         </is>
       </c>
+      <c r="E570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -14309,11 +14168,7 @@
           <t>경력 4년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E571" t="inlineStr">
-        <is>
-          <t>2,cisco,jncip,03925,402,800m,2,cisco,jncip,2,2,cisco,jncip,cisco,jncip,03925,402,800m,03925,402,800m</t>
-        </is>
-      </c>
+      <c r="E571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -14336,11 +14191,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E572" t="inlineStr">
-        <is>
-          <t>2,ccnp,06235,12,300m,2,ccnp,2,2,ccnp,ccnp,06235,12,300m,06235,12,300m</t>
-        </is>
-      </c>
+      <c r="E572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -14363,6 +14214,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -14387,7 +14239,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>2,2,linux,windows,server,vmware,aws,ncp,web,was,dbms,utm,fw,waf,pc,it,fw,waf,kms,docker,container,docker,container,open,100,2,2,linux,windows,server,vmware,aws,ncp,web,was,dbms,utm,fw,waf,pc,it,fw,waf,kms,docker,container,docker,container,open,100,2,2,2,linux,windows,server,vmware,aws,ncp,web,was,dbms,utm,fw,waf,pc,it,fw,waf,kms,docker,container,docker,container,open,100,2,linux,windows,server,vmware,aws,ncp,web,was,dbms,utm,fw,waf,pc,it,fw,waf,kms,docker,container,docker,container,open,100,2,linux,windows,server,vmware,aws,ncp,web,was,dbms,utm,fw,waf,pc,it,fw,waf,kms,docker,container,docker,container,open</t>
+          <t>docker,aws</t>
         </is>
       </c>
     </row>
@@ -14412,11 +14264,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
-      <c r="E575" t="inlineStr">
-        <is>
-          <t>commerce,portal,service,provider,network,bmt,poc,pre,sale,portal,game,e,commerce,ix,service,provider,arista,campus,sdn,arista,campus,sdn,network,huawei,arista,ivar,lab,commerce,portal,service,provider,network,bmt,poc,pre,sale,portal,game,e,commerce,ix,service,provider,arista,campus,sdn,arista,campus,sdn,network,huawei,arista,ivar,lab,tcp,ip,arista,huawei,ace,l3,ccna,cisco,certification,network,associate,09,30,18,04790,77,it,300m,tcp,ip,arista,huawei,ace,l3,ccna,cisco,certification,network,associate,tcp,ip,arista,huawei,ace,l3,ccna,cisco,certification,network,associate,tcp,ip,arista,huawei,ace,l3,ccna,cisco,certification,network,associate,ace,l3,ccna,cisco,certification,network,associate,09,30,18,04790,77,it,300m,09,30,18,30,04790,77,it,300m</t>
-        </is>
-      </c>
+      <c r="E575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -14439,11 +14287,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E576" t="inlineStr">
-        <is>
-          <t>2,ccna,cisco,certification,network,associate,26394,1,2,2,ccna,cisco,certification,network,associate,2,2,ccna,cisco,certification,network,associate,ccna,cisco,certification,network,associate,ccna,cisco,certification,network,associate,26394,1,2,26394,1,2</t>
-        </is>
-      </c>
+      <c r="E576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -14466,6 +14310,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -14488,11 +14333,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E578" t="inlineStr">
-        <is>
-          <t>it,pc,it,pc,pc,pc,os,oa,09,00,18,06607,800m,pc,pc,os,oa,pc,pc,os,oa,pc,pc,os,oa,09,00,18,06607,800m,09,00,18,00,06607,800m</t>
-        </is>
-      </c>
+      <c r="E578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -14515,11 +14356,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E579" t="inlineStr">
-        <is>
-          <t>lng,lng,it,erp,c,mssql,oracle,055,970,0286,recruit,seonghwa,co,kr,it,erp,c,mssql,oracle,055,970,0286,recruit,seonghwa,co,kr,it,erp,it,erp,it,c,mssql,oracle,c,mssql,oracle,c,mssql,oracle,055,970,0286,recruit,seonghwa,co,kr,055,970,0286,recruit,seonghwa,co,kr,055,970,0286,recruit,seonghwa,co,kr</t>
-        </is>
-      </c>
+      <c r="E579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -14542,11 +14379,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E580" t="inlineStr">
-        <is>
-          <t>30113,30113,568,30113,568</t>
-        </is>
-      </c>
+      <c r="E580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -14569,11 +14402,7 @@
           <t>경력 · 정규직</t>
         </is>
       </c>
-      <c r="E581" t="inlineStr">
-        <is>
-          <t>nle,nle,nle,new,member,nle,apple,finalcutpro,avid,das,san,nas,storage,storage,tape,library,new,member,nle,apple,finalcutpro,avid,das,san,nas,storage,storage,tape,library,nle,apple,finalcutpro,avid,das,san,nas,storage,storage,tape,library,work,setting,work,setting,welfare,benefits,welfare,benefits,process,process,documentation,documentation,apply,apply,notice,notice</t>
-        </is>
-      </c>
+      <c r="E581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -14596,6 +14425,7 @@
           <t>경력 2년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -14618,6 +14448,7 @@
           <t>4 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -14640,11 +14471,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E584" t="inlineStr">
-        <is>
-          <t>se,se,2,windows,linux,se,34,275,9,1,2025,05,02,02,3466,9026,2,windows,linux,se,2,2,windows,linux,se,windows,linux,windows,linux,se,34,275,9,34,275,9,1,2025,05,02,02,3466,9026,1,2025,05,02,02,3466,9026</t>
-        </is>
-      </c>
+      <c r="E584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -14667,6 +14494,7 @@
           <t>6 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -14689,6 +14517,7 @@
           <t>경력 2년↑ · 정규직 외</t>
         </is>
       </c>
+      <c r="E586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -14713,7 +14542,7 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>ui,html,javascript,ui,ux,react,typescript,ui,html,javascript,ui,ux,react,typescript,48,1,2,km,1,1,48,1,2,km</t>
+          <t>javascript,react,typescript</t>
         </is>
       </c>
     </row>
@@ -14738,6 +14567,7 @@
           <t>경력무관 · 정규직 외</t>
         </is>
       </c>
+      <c r="E588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -14762,7 +14592,7 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>java,spring,tomcat,mysql,mariadb,postgresql,angularjs,vue,js,restful,api,docker,kubernetes</t>
+          <t>vue,java,spring,mysql,mariadb,postgresql,docker,kubernetes</t>
         </is>
       </c>
     </row>
@@ -14787,6 +14617,7 @@
           <t>3 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -14809,6 +14640,7 @@
           <t>3 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -14831,6 +14663,7 @@
           <t>4 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -14855,7 +14688,7 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>fm,vpn,network,fm,vpn,network,fm,vpn,network,fm,vpn,network,ccna,ccna,ccna,13840,34,axgate,13840,34,axgate,01,02,03,01,02,03,01,02,03</t>
+          <t>vpn</t>
         </is>
       </c>
     </row>
@@ -14880,6 +14713,7 @@
           <t>6 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -14902,6 +14736,7 @@
           <t>4 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -14924,6 +14759,7 @@
           <t>4 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -14948,7 +14784,7 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>vue,js,html,css,spa,restful,es5,es6,typescript,spa,restful,api,https,stackshare,io,powderdev,my,stack,09,18,28,vue,js,html,css,spa,restful,es5,es6,typescript,spa,restful,api,https,stackshare,io,powderdev,my,stack,vue,js,html,css,spa,restful,es5,es6,typescript,spa,restful,api,https,stackshare,io,powderdev,my,stack,vue,js,html,css,spa,restful,es5,es6,typescript,spa,restful,api,https,stackshare,io,powderdev,my,stack,09,18,28,09,18,28</t>
+          <t>vue,typescript</t>
         </is>
       </c>
     </row>
@@ -14975,7 +14811,7 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>l4,l7,3,si,erp,crm,ciso,se,api,vpn,restapi,13595,246,l4,l7,ssl,vpn,zerotrust,api,security</t>
+          <t>vpn</t>
         </is>
       </c>
     </row>
@@ -15000,6 +14836,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -15022,6 +14859,7 @@
           <t>6 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -15044,6 +14882,7 @@
           <t>7 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -15066,6 +14905,7 @@
           <t>4 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -15088,6 +14928,7 @@
           <t>3 ~ 6년 · 정규직</t>
         </is>
       </c>
+      <c r="E603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -15112,7 +14953,7 @@
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>l4,l7,3,si,erp,crm,ciso,se,api,vpn,restapi,13595,246,l4,l7,ssl,vpn,zerotrust,api,security</t>
+          <t>vpn</t>
         </is>
       </c>
     </row>
@@ -15137,6 +14978,7 @@
           <t>3 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -15161,7 +15003,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>da,gdn,da,gtm,ui,html,css,ui,ui,vanilla,js,dom,vite,astro,11ty,w,h,w,si,lf,ssf,kolon,adobe,qa,0,ux,ui,mock,up,ux,ui,wbs,ux,ui,ux,ui,mo,web,app,ux,ui,figma,sketch,zeplin,ux,ui,ux,ui,agency,sns,5,adobe,da,gdn,da,gtm,ui,html,css,ui,ui,vanilla,js,dom,vite,astro,11ty,w,h,w,si,lf,ssf,kolon,adobe,qa,0,ux,ui,mock,up,ux,ui,wbs,ux,ui,ux,ui,mo,web,app,ux,ui,figma,sketch,zeplin,ux,ui,ux,ui,agency,sns,5,adobe,da,gdn,da,gtm,ui,html,css,ui,ui,vanilla,js,dom,vite,astro,11ty,w,h,w,si,lf,ssf,kolon,adobe,qa,0,ux,ui,mock,up,ux,ui,wbs,ux,ui,ux,ui,mo,web,app,ux,ui,figma,sketch,zeplin,ux,ui,ux,ui,agency,sns,5,adobe,06141,8,06141,8,06141,8,06141,8,pdf,pdf,pdf,pdf</t>
+          <t>vite,astro</t>
         </is>
       </c>
     </row>
@@ -15186,6 +15028,7 @@
           <t>6 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -15210,7 +15053,7 @@
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>back,end,developer2,front,end,back,end,web,app,api,back,office,api,java,kotlin,jpa,spring,framework,mysql,oracle,rdbms,aws,gcp,azure,kafka,rabbitmq,elk,ci,cd,office,front,end,service,back,office,react,react,vue,angular,redux,mobx,vuex,html5,css,javascript,typescript,storybook,mono,repo,next,js,nuxt,js,ssr,scss,pre,processor,aws,gcp,azure,ci,cd,28,30,music,on,30,50,https,www,notion,so,mrmention1,mr,mention,change,your,1,2,3,4,5,6,7,8,9,10,11,hard,worker,smart,worker,12,13,14,15,https,youtu,be,https,youtu,be,https,youtu,be,tbsvsyoqhsm,https,www,notion,so,mrmention1,d7729064baf74a87989067c73dfb1da8,back,end,developer2,front,end,back,end,web,app,api,back,office,api,java,kotlin,jpa,spring,framework,mysql,oracle,rdbms,aws,gcp,azure,kafka,rabbitmq,elk,ci,cd,office,front,end,service,back,office,react,react,vue,angular,redux,mobx,vuex,html5,css,javascript,typescript,storybook,mono,repo,next,js,nuxt,js,ssr,scss,pre,processor,aws,gcp,azure,ci,cd,28,30,music,on,30,50,https,www,notion,so,mrmention1,mr,mention,change,your,1,2,3,4,5,6,7,8,9,10,11,hard,worker,smart,worker,12,13,14,15,https,youtu,be,https,youtu,be,https,youtu,be,tbsvsyoqhsm,https,www,notion,so,mrmention1,d7729064baf74a87989067c73dfb1da8,office,140,office,office,140</t>
+          <t>react,vue,angular,redux,mobx,javascript,typescript,storybook,java,kotlin,spring,mysql,kafka,rabbitmq,aws,gcp,azure</t>
         </is>
       </c>
     </row>
@@ -15237,7 +15080,7 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>ios,native,mysql,api,48498,33,300m,ios,native,mysql,api,ios,native,mysql,api,ios,native,mysql,api,48498,33,300m,48498,33,300m</t>
+          <t>mysql</t>
         </is>
       </c>
     </row>
@@ -15262,6 +15105,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -15284,6 +15128,7 @@
           <t>경력 6년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -15306,6 +15151,7 @@
           <t>경력 7년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -15328,11 +15174,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E613" t="inlineStr">
-        <is>
-          <t>23120,75,23120,75,23120,75</t>
-        </is>
-      </c>
+      <c r="E613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -15355,11 +15197,7 @@
           <t>경력 6년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E614" t="inlineStr">
-        <is>
-          <t>2,l2,l3,l4,aci,337,hr,2,l2,l3,l4,aci,2,2,l2,l3,l4,aci,l2,l3,l4,aci,l2,l3,l4,aci,337,337,hr</t>
-        </is>
-      </c>
+      <c r="E614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -15382,6 +15220,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -15404,11 +15243,7 @@
           <t>신입 · 계약직</t>
         </is>
       </c>
-      <c r="E616" t="inlineStr">
-        <is>
-          <t>2,4,09,00,18,00,08,00,17,00,13,00,21,30,133,120,284,55,500m,2,2,2,4,09,00,18,00,08,00,17,00,13,00,21,30,133,120,284,55,500m,4,09,00,18,00,08,00,17,00,13,00,21,30,133,120,284,55,500m</t>
-        </is>
-      </c>
+      <c r="E616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -15431,11 +15266,7 @@
           <t>경력 1년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E617" t="inlineStr">
-        <is>
-          <t>16976,58,sk,v1,800m,16976,58,sk,v1,800m,16976,58,sk,v1,800m</t>
-        </is>
-      </c>
+      <c r="E617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -15458,6 +15289,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -15480,6 +15312,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -15502,6 +15335,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -15524,6 +15358,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -15546,11 +15381,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E622" t="inlineStr">
-        <is>
-          <t>navision,cs,cs,erp,1,2,erp,it,ap,ap,cisco,it,it,kpi,2,ppt,salesforce,ppt,navision,2,2,navision,cs,cs,erp,navision,cs,cs,erp,1,2,1,2,erp,erp,it,ap,ap,cisco,it,it,kpi,2,it,ap,ap,cisco,it,it,kpi,2,ppt,ppt,salesforce,ppt,salesforce,ppt,navision,2,navision,2,2,2,1,2,3,4,5,6,1,2,3,4,5,6</t>
-        </is>
-      </c>
+      <c r="E622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -15573,11 +15404,7 @@
           <t>1 ~ 10년 · 정규직</t>
         </is>
       </c>
-      <c r="E623" t="inlineStr">
-        <is>
-          <t>nutanix,hpe,dell,lenovo,netapp,quantum,purestorage,oracle,veeam,risk,os,office,linux,windows,rhcsa,rhce,mcse,2,nutanix,ncp,ncse,backup,ccna,ccnp,nutanix,hpe,dell,lenovo,netapp,quantum,purestorage,oracle,veeam,risk,os,office,linux,windows,rhcsa,rhce,mcse,2,nutanix,ncp,ncse,backup,ccna,ccnp,nutanix,hpe,dell,lenovo,netapp,quantum,purestorage,oracle,veeam,risk,os,office,linux,windows,rhcsa,rhce,mcse,2,nutanix,ncp,ncse,backup,ccna,ccnp</t>
-        </is>
-      </c>
+      <c r="E623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -15602,7 +15429,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>java,spring,java,spring,spring,09,00,18,12925,520,800m,2025,04,12,2025,04,13,2025,04,14,2025,04,18,spring,spring,spring,spring,09,00,18,12925,520,800m,09,00,18,00,12925,520,800m,2025,04,12,2025,04,13,2025,04,14,2025,04,18</t>
+          <t>java,spring</t>
         </is>
       </c>
     </row>
@@ -15629,7 +15456,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>2,cmo,06253,800m,2,cmo,2,2,cmo,typescript,06253,800m,06253,800m</t>
+          <t>typescript</t>
         </is>
       </c>
     </row>
@@ -15654,11 +15481,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E626" t="inlineStr">
-        <is>
-          <t>poc,bmt,ni,si,l4,l7,nac,pt,09,00,18,00,08504,165,7,700m,http,www,netplex,kr,map,070,8270,8801,mgmt,netplex,kr,010,4098,8801,poc,bmt,ni,si,l4,l7,nac,pt,3</t>
-        </is>
-      </c>
+      <c r="E626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -15681,6 +15504,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -15703,11 +15527,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>it,helpdesk,pc,desk,side,usersupport,it,helpdesk,pc,desk,side,usersupport,it,helpdesk,it,pc,monitor,printer,it,server,vc,pc,5,it,helpdesk,it,pc,monitor,printer,it,server,vc,pc,it,helpdesk,it,pc,monitor,printer,it,server,vc,pc,it,pc,monitor,printer,it,server,vc,pc,5,5</t>
-        </is>
-      </c>
+      <c r="E628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -15730,11 +15550,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>se,se,2,se,r,d,linux,linux,was,net,linux,09,00,18,153,713,2,se,r,d,linux,linux,was,net,linux,2,2,se,r,d,linux,linux,was,net,linux,r,d,linux,linux,was,net,linux,09,00,18,153,713,09,00,18,00,153,713</t>
-        </is>
-      </c>
+      <c r="E629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -15757,6 +15573,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
+      <c r="E630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -15781,7 +15598,7 @@
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>js,frontend,react,vue,astro,rn,si,erp,js,frontend,react,vue,astro,rn,si,erp,qc,b2b,spring,09,00,18,14353,17,1km,qc,b2b,spring,qc,b2b,spring,qc,qa,b2b,spring,spring,09,00,18,14353,17,1km,09,00,18,00,14353,17,1km</t>
+          <t>react,vue,astro,spring</t>
         </is>
       </c>
     </row>
@@ -15806,6 +15623,7 @@
           <t>경력 2년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -15830,7 +15648,7 @@
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>2,rhel,os,rhcsa,aws,azure,12,2,rhel,os,rhcsa,aws,azure,2,2,rhel,os,rhcsa,aws,azure,rhel,os,rhcsa,aws,azure,12,12</t>
+          <t>aws,azure</t>
         </is>
       </c>
     </row>
@@ -15855,6 +15673,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -15877,6 +15696,7 @@
           <t>8 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -15899,6 +15719,7 @@
           <t>4 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -15921,6 +15742,7 @@
           <t>8 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -15943,11 +15765,7 @@
           <t>2 ~ 4년 · 정규직</t>
         </is>
       </c>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>it,concept,it,2011,it,it,it,concept,it,2011,it,it,it,concept,it,2011,it,it,it,user,n2,n3,windows,os,active,directory,microsoft,2,it,user,n2,n3,windows,os,active,directory,microsoft,2,it,user,n2,n3,windows,os,active,directory,microsoft,2,09,00,18,00,07266,147,500m,09,00,18,00,07266,147,500m,jobs,it,concept,jobs,it,concept,jobs,it,concept</t>
-        </is>
-      </c>
+      <c r="E638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -15970,6 +15788,7 @@
           <t>2 ~ 3년 · 정규직</t>
         </is>
       </c>
+      <c r="E639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -15992,11 +15811,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E640" t="inlineStr">
-        <is>
-          <t>vurix,nvr,vms,2,it,nvr,vms,o,vurix,nvr,vms,2,it,nvr,vms,o,vurix,nvr,vms,2,it,nvr,vms,o,08,30,17,30,90,08,30,17,30,90,ojt,ojt,ojt</t>
-        </is>
-      </c>
+      <c r="E640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -16021,7 +15836,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>2,50,2025,2,50,2025,js,back,office,or,query,zustand,recoil,api,graphql,programming,oop,ci,it,09,00,18,00,06250,8,800m,or,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,js,back,office,or,query,zustand,recoil,api,graphql,programming,oop,ci,it,js,back,office,or,query,zustand,recoil,api,graphql,programming,oop,ci,it,js,back,office,or,query,zustand,recoil,api,graphql,programming,oop,ci,it,09,00,18,00,06250,8,800m,09,00,18,00,06250,8,800m,or,or,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,wwdc</t>
+          <t>zustand,recoil,graphql,aws</t>
         </is>
       </c>
     </row>
@@ -16048,7 +15863,7 @@
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>2,full,stack,developer,1,pbv,cms,contnets,management,system,content,gps,player,lte,5g,tcp,ip,java,spring,spring,boot,react,javascript,typescript,sql,java,spring,framework,spring,boot,with,java,express,js,node,js,swagger,javascript,typescript,es6,next,js,react,js,jotai,tanstack,query,emotion,ci,cd,jenkins,ubuntu,22,04,docker,nginx,mysql,redis,git,bitbucket,jira,confluence,microsoft,teams4,linux,git,figma,aws,gcp,ncp,08,00,17,06018,14,8,200m,2,full,stack,developer,1,pbv,cms,contnets,management,system,content,gps,player,lte,5g,tcp,ip,java,spring,spring,boot,react,javascript,typescript,sql,java,spring,framework,spring,boot,with,java,express,js,node,js,swagger,javascript,typescript,es6,next,js,react,js,jotai,tanstack,query,emotion,ci,cd,jenkins,ubuntu,22,04,docker,nginx,mysql,redis,git,bitbucket,jira,confluence,microsoft,teams4,linux,git,figma,aws,gcp,ncp,2,2,full,stack,developer,1,pbv,cms,contnets,management,system,content,gps,player,lte,5g,tcp,ip,java,spring,spring,boot,react,javascript,typescript,sql,java,spring,framework,spring,boot,with,java,express,js,node,js,swagger,javascript,typescript,es6,next,js,react,js,jotai,tanstack,query,emotion,ci,cd,jenkins,ubuntu,22,04,docker,nginx,mysql,redis,git,bitbucket,jira,confluence,microsoft,teams4,linux,git,figma,aws,gcp,ncp,full,stack,developer,1,pbv,cms,contnets,management,system,content,gps,player,lte,5g,tcp,ip,java,spring,spring,boot,react,javascript,typescript,sql,java,spring,framework,spring,boot,with,java,express,js,node,js,swagger,javascript,typescript,es6,next,js,react,js,jotai,tanstack,query,emotion,ci,cd,jenkins,ubuntu,22,04,docker,nginx,mysql,redis,git,bitbucket,jira,confluence,microsoft,teams4,linux,git,figma,aws,gcp,ncp,08,00,17,06018,14,8,200m,08,00,17,00,06018,14,8,200m</t>
+          <t>react,javascript,typescript,jotai,emotion,java,spring,express,swagger,docker,nginx,mysql,redis,jenkins,aws,gcp</t>
         </is>
       </c>
     </row>
@@ -16075,7 +15890,7 @@
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>full,stack,web,ai,full,stack,web,ai,full,stack,web,ui,ux,flask,aws,git,09,00,18,04626,2,100m,full,stack,web,ui,ux,flask,aws,git,web,ui,ux,flask,aws,git,web,ui,ux,flask,aws,git,09,00,18,04626,2,100m,09,00,18,00,04626,2,100m</t>
+          <t>flask,aws</t>
         </is>
       </c>
     </row>
@@ -16100,6 +15915,7 @@
           <t>3 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -16122,6 +15938,7 @@
           <t>3 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -16144,6 +15961,7 @@
           <t>3 ~ 6년 · 정규직</t>
         </is>
       </c>
+      <c r="E646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -16168,7 +15986,7 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>java,sql</t>
+          <t>java</t>
         </is>
       </c>
     </row>
@@ -16193,6 +16011,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -16217,7 +16036,7 @@
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>css,javascript,js,vue,js,4,153,803,670,2,500m,https,selvasai,career,greetinghr,com,css,javascript,js,vue,js,css,javascript,js,vue,js,css,javascript,js,vue,js,4,153,803,670,2,500m,4,153,803,670,2,500m,https,selvasai,career,greetinghr,com,https,selvasai,career,greetinghr,com</t>
+          <t>javascript,vue</t>
         </is>
       </c>
     </row>
@@ -16242,11 +16061,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>saas,caps,oa,pc,linux,macos,windows,google,cloud,platform,100,7,00,9,30,4,00,6,30,10049,saas,caps,oa,pc,linux,macos,windows,google,cloud,platform,saas,caps,oa,pc,linux,macos,windows,google,cloud,platform,saas,caps,oa,pc,linux,macos,windows,google,cloud,platform,100,7,00,9,30,4,00,6,30,10049,26,100,7,00,9,30,4,00,6,30,10049,26</t>
-        </is>
-      </c>
+      <c r="E650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -16271,7 +16086,7 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>emr,his,html,css,java,script,api,db,html,css,java,script,react,angular,vue,js,python,django,flask,java,spring,node,js,mysql,postgresql,mongodb,api,github,gitlab,emr,his,ncp,azure,08504,143,1211,500m,emr,his,html,css,java,script,api,db,html,css,java,script,react,angular,vue,js,python,django,flask,java,spring,node,js,mysql,postgresql,mongodb,api,github,gitlab,emr,his,ncp,azure,emr,his,html,css,java,script,api,db,html,css,java,script,react,angular,vue,js,python,django,flask,java,spring,node,js,mysql,postgresql,mongodb,api,github,gitlab,emr,his,ncp,azure,emr,his,html,css,java,script,api,db,html,css,java,script,react,angular,vue,js,python,django,flask,java,spring,node,js,mysql,postgresql,mongodb,api,github,gitlab,emr,his,ncp,azure,emr,his,ncp,azure,08504,143,1211,500m,08504,143,1211,500m</t>
+          <t>react,angular,vue,java,python,django,flask,spring,mysql,postgresql,mongodb,azure</t>
         </is>
       </c>
     </row>
@@ -16296,6 +16111,7 @@
           <t>경력 10년↑ · 계약직</t>
         </is>
       </c>
+      <c r="E652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -16320,7 +16136,7 @@
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>node,js,node,js,it,cro,db,ctms,clinical,trial,management,system,css,next,js,typescript,css,shadch,ui,mui,antd,spring,jsp,javascript,node,js,mysql,redis,sql,spring,mybatis,api,action,gitlab,ci,cd,saas,native,flutter,api,13627,36,9,200m,it,cro,db,ctms,clinical,trial,management,system,css,next,js,typescript,css,shadch,ui,mui,antd,spring,jsp,javascript,node,js,mysql,redis,sql,spring,mybatis,api,action,gitlab,ci,cd,saas,native,flutter,api,it,cro,db,ctms,clinical,trial,management,system,css,next,js,typescript,css,shadch,ui,mui,antd,spring,jsp,javascript,node,js,mysql,redis,sql,spring,mybatis,api,action,gitlab,ci,cd,saas,native,flutter,api,it,cro,db,ctms,clinical,trial,management,system,css,next,js,typescript,css,shadch,ui,mui,antd,spring,jsp,javascript,node,js,mysql,redis,sql,spring,mybatis,api,action,gitlab,ci,cd,saas,native,flutter,api,13627,36,9,200m,13627,36,9,200m</t>
+          <t>typescript,javascript,spring,mysql,redis,flutter</t>
         </is>
       </c>
     </row>
@@ -16345,6 +16161,7 @@
           <t>3 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -16367,6 +16184,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -16389,6 +16207,7 @@
           <t>5 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -16411,6 +16230,7 @@
           <t>2 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -16433,6 +16253,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -16455,6 +16276,7 @@
           <t>경력 2년↑ · 파견직</t>
         </is>
       </c>
+      <c r="E659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -16477,6 +16299,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -16499,11 +16322,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E661" t="inlineStr">
-        <is>
-          <t>2,cisco,ccnp,16499,164,2,cisco,ccnp,2,2,cisco,ccnp,cisco,ccnp,16499,164,16499,164</t>
-        </is>
-      </c>
+      <c r="E661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -16526,11 +16345,7 @@
           <t>경력 1년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E662" t="inlineStr">
-        <is>
-          <t>1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,09,00,18,35262,30,1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,09,00,18,35262,30,09,00,18,00,35262,30</t>
-        </is>
-      </c>
+      <c r="E662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -16553,11 +16368,7 @@
           <t>경력 1년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E663" t="inlineStr">
-        <is>
-          <t>1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,09,00,18,04528,3,300m,1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,1,l2,switching,l3,routing,2,aci,ccna,ccnp,ccie,09,00,18,04528,3,300m,09,00,18,00,04528,3,300m</t>
-        </is>
-      </c>
+      <c r="E663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -16580,11 +16391,7 @@
           <t>3 ~ 5년 · 정규직</t>
         </is>
       </c>
-      <c r="E664" t="inlineStr">
-        <is>
-          <t>network,network,l2,l7,firewall,vlan,dhcp,dns,routing,pm,nac,xmc,oa,l2,l7,firewall,vlan,dhcp,dns,routing,pm,nac,xmc,oa,l2,l7,firewall,vlan,dhcp,dns,routing,pm,nac,xmc,oa,l2,l7,firewall,vlan,dhcp,dns,routing,pm,nac,xmc,oa,l2,l7,firewall,vlan,dhcp,dns,routing,pm,nac,xmc,oa</t>
-        </is>
-      </c>
+      <c r="E664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -16607,11 +16414,7 @@
           <t>경력 10년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E665" t="inlineStr">
-        <is>
-          <t>08,30,17,30,06900,100m,08,30,17,30,06900,100m,08,30,17,30,06900,100m</t>
-        </is>
-      </c>
+      <c r="E665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -16634,11 +16437,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E666" t="inlineStr">
-        <is>
-          <t>cisco,certification,network,associate,07207,26,300m,cisco,certification,network,associate,cisco,certification,network,associate,cisco,certification,network,associate,cisco,certification,network,associate,07207,26,300m,07207,26,300m</t>
-        </is>
-      </c>
+      <c r="E666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -16661,6 +16460,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -16683,6 +16483,7 @@
           <t>6 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -16705,6 +16506,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -16729,7 +16531,7 @@
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>router,switch,firewall,ansible,09,00,18,8,router,switch,firewall,ansible,router,switch,firewall,router,switch,firewall,ansible,ansible,ansible,09,00,18,8,14,09,00,18,00,8,14</t>
+          <t>ansible</t>
         </is>
       </c>
     </row>
@@ -16754,6 +16556,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -16776,6 +16579,7 @@
           <t>경력(년수무관) · 정규직 외</t>
         </is>
       </c>
+      <c r="E672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -16798,11 +16602,7 @@
           <t>경력무관 · 파견직</t>
         </is>
       </c>
-      <c r="E673" t="inlineStr">
-        <is>
-          <t>it,toeic,toefl,teps,09,00,18,06181,538,100m,it,toeic,toefl,teps,it,toeic,toefl,teps,toeic,toefl,teps,toeic,toefl,teps,09,00,18,06181,538,100m,09,00,18,00,06181,538,100m</t>
-        </is>
-      </c>
+      <c r="E673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -16825,11 +16625,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E674" t="inlineStr">
-        <is>
-          <t>div,div,ccnp,ccie,engineering,04386,100,100m,ccnp,ccie,engineering,ccnp,ccie,ccnp,ccie,engineering,network,engineering,04386,100,100m,04386,100,100m</t>
-        </is>
-      </c>
+      <c r="E674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -16852,11 +16648,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E675" t="inlineStr">
-        <is>
-          <t>idc,it,idc,it,idc,it,100,09,00,18,00,08390,288,700m,100,09,00,18,00,08390,288,700m</t>
-        </is>
-      </c>
+      <c r="E675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -16881,7 +16673,7 @@
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>on,premise,kubernetes,aws,public,private,cloud,ai,on,premise,llm,serving,on,premise,kubernetes,kubernetes,aws,eks,msa,microservices,architecture,istio,service,mesh,terraform,ansible,iac,infrastructure,as,code,ci,cd,pipeline,devops,13449,42,on,premise,kubernetes,aws,public,private,cloud,ai,on,premise,llm,serving,on,premise,kubernetes,kubernetes,aws,eks,msa,microservices,architecture,istio,service,mesh,terraform,ansible,iac,infrastructure,as,code,ci,cd,pipeline,devops,on,premise,kubernetes,aws,public,private,cloud,ai,on,premise,llm,serving,on,premise,kubernetes,kubernetes,aws,eks,msa,microservices,architecture,istio,service,mesh,terraform,ansible,iac,infrastructure,as,code,ci,cd,pipeline,devops,on,premise,kubernetes,aws,public,private,cloud,ai,on,premise,llm,serving,on,premise,kubernetes,kubernetes,aws,eks,msa,microservices,architecture,istio,service,mesh,terraform,ansible,iac,infrastructure,as,code,ci,cd,pipeline,devops,13449,42,13449,42</t>
+          <t>kubernetes,aws,istio,terraform,ansible</t>
         </is>
       </c>
     </row>
@@ -16906,6 +16698,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -16930,7 +16723,7 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>devops,swdevops,devops,front,end,qa,qc,on,premise,os,ci,cd,qa,qc,aws,azure,oracle,gcp,ci,cd,virtual,applliance,hybrid,edge,computing,9,ojt,devops,swdevops,devops,front,end,qa,qc,on,premise,os,ci,cd,qa,qc,aws,azure,oracle,gcp,ci,cd,virtual,applliance,hybrid,edge,computing,9,ojt,devops,devops,swdevops,devops,front,end,qa,qc,on,premise,os,ci,cd,qa,qc,aws,azure,oracle,gcp,ci,cd,virtual,applliance,hybrid,edge,computing,swdevops,devops,front,end,qa,qc,on,premise,os,ci,cd,qa,qc,aws,azure,oracle,gcp,ci,cd,virtual,applliance,hybrid,edge,computing,swdevops,devops,front,end,qa,qc,on,premise,os,ci,cd,qa,qc,aws,azure,oracle,gcp,ci,cd,virtual,applliance,hybrid,edge,computing,0,9,9,ojt,ojt,ojt</t>
+          <t>aws,azure,gcp</t>
         </is>
       </c>
     </row>
@@ -16955,11 +16748,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E679" t="inlineStr">
-        <is>
-          <t>cctv,cctv,ccna,cisco,certification,network,associate,08,30,18,52650,32,ccna,cisco,certification,network,associate,ccna,cisco,certification,network,associate,ccna,cisco,certification,network,associate,ccna,cisco,certification,network,associate,08,30,18,52650,32,08,30,18,00,52650,32</t>
-        </is>
-      </c>
+      <c r="E679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -16982,11 +16771,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E680" t="inlineStr">
-        <is>
-          <t>1,1,2,3,2,3,1,2,3,08,30,17,04554,43,3,200m,1,1,2,3,2,3,1,2,3,1,1,2,3,2,3,1,2,3,1,1,2,3,2,3,1,2,3,08,30,17,04554,43,3,200m,08,30,17,30,04554,43,3,200m</t>
-        </is>
-      </c>
+      <c r="E680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -17009,11 +16794,7 @@
           <t>경력 4년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E681" t="inlineStr">
-        <is>
-          <t>08,30,17,07792,57,500m,1,2,4,5,08,30,17,07792,57,500m,08,30,17,30,07792,57,500m,1,2,4,5,1,2,4,5</t>
-        </is>
-      </c>
+      <c r="E681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -17036,6 +16817,7 @@
           <t>신입 · 정규직</t>
         </is>
       </c>
+      <c r="E682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -17060,7 +16842,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>ips,vpn,cisco,certification,network,associate,070,8853,1061,ips,vpn,cisco,certification,network,associate,ips,vpn,cisco,certification,network,associate,ips,vpn,cisco,certification,network,associate,ips,vpn,cisco,certification,network,associate,070,8853,1061,070,8853,1061</t>
+          <t>vpn</t>
         </is>
       </c>
     </row>
@@ -17085,11 +16867,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E684" t="inlineStr">
-        <is>
-          <t>or,l3,l4,l7,udp,06588,141,25,500m,or,l3,l4,l7,udp,or,l3,l4,l7,udp,or,l3,l4,l7,udp,06588,141,25,500m,06588,141,25,500m</t>
-        </is>
-      </c>
+      <c r="E684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -17114,7 +16892,7 @@
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>pos,kiosk,java,postgre,pos,kiosk,java,postgre,2,pos,kiosk,00,pos,java,pos,kiosk,25,04,14,07,13,3,0,mm,153,801,60,500m,2,pos,kiosk,00,pos,java,pos,kiosk,25,04,14,07,13,3,0,mm,2,2,00,pos,java,pos,kiosk,25,04,14,07,13,3,0,mm,153,801,60,500m,153,801,60,500m</t>
+          <t>java</t>
         </is>
       </c>
     </row>
@@ -17141,7 +16919,7 @@
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>2,java,spring,boot,html,css,javascript,mybatis,vue,dbms,oracle,mysql,linux,gitlab,jira,gitlab,ci,cd,jenkins,spring,spring,boot,vue,react,java,spring,framework,dbms,restful,api,linux,rdbms,git,jenkins,elasticsearch,05719,105,id,tower,200m,2,java,spring,boot,html,css,javascript,mybatis,vue,dbms,oracle,mysql,linux,gitlab,jira,gitlab,ci,cd,jenkins,spring,spring,boot,vue,react,java,spring,framework,dbms,restful,api,linux,rdbms,git,jenkins,elasticsearch,2,2,java,spring,boot,html,css,javascript,mybatis,vue,dbms,oracle,mysql,linux,gitlab,jira,gitlab,ci,cd,jenkins,spring,spring,boot,vue,react,java,spring,framework,dbms,restful,api,linux,rdbms,git,jenkins,elasticsearch,05719,105,id,tower,200m,05719,105,id,tower,200m</t>
+          <t>javascript,vue,react,java,spring,mysql,elasticsearch,jenkins</t>
         </is>
       </c>
     </row>
@@ -17166,11 +16944,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E687" t="inlineStr">
-        <is>
-          <t>2,21,4,2,2,2,21,4,21,4</t>
-        </is>
-      </c>
+      <c r="E687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -17193,6 +16967,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -17215,6 +16990,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -17237,6 +17013,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -17259,6 +17036,7 @@
           <t>11 ~ 13년 · 정규직</t>
         </is>
       </c>
+      <c r="E691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -17281,6 +17059,7 @@
           <t>7 ~ 9년 · 정규직</t>
         </is>
       </c>
+      <c r="E692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -17303,6 +17082,7 @@
           <t>8 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -17325,6 +17105,7 @@
           <t>14 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -17349,7 +17130,7 @@
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>2,50,2025,2,50,2025,reactorkit,swiftui,ios,tuist,fastlane,swiftlint,xcodecloud,or,ci,cd,it,09,00,18,00,06250,8,800m,or,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,reactorkit,swiftui,ios,tuist,fastlane,swiftlint,xcodecloud,or,ci,cd,it,reactorkit,swiftui,ios,tuist,fastlane,swiftlint,xcodecloud,or,ci,cd,it,reactorkit,swiftui,ios,tuist,fastlane,swiftlint,xcodecloud,or,ci,cd,it,09,00,18,00,06250,8,800m,09,00,18,00,06250,8,800m,or,or,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,wwdc</t>
+          <t>swiftui,fastlane,aws</t>
         </is>
       </c>
     </row>
@@ -17374,6 +17155,7 @@
           <t>경력 3년↑ · 정규직 외</t>
         </is>
       </c>
+      <c r="E696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -17396,6 +17178,7 @@
           <t>2 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -17418,6 +17201,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -17440,6 +17224,7 @@
           <t>11 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -17462,6 +17247,7 @@
           <t>3 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -17484,6 +17270,7 @@
           <t>2 ~ 8년 · 정규직</t>
         </is>
       </c>
+      <c r="E701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -17506,6 +17293,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -17528,6 +17316,7 @@
           <t>5 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -17550,6 +17339,7 @@
           <t>6 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -17572,6 +17362,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -17594,6 +17385,7 @@
           <t>16 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -17616,6 +17408,7 @@
           <t>8 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -17638,6 +17431,7 @@
           <t>2 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -17660,6 +17454,7 @@
           <t>3 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -17682,6 +17477,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -17706,7 +17502,7 @@
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>fusion,connected,uniting,the,world,moving,value,forward,fusion,connected,uniting,the,world,moving,value,forward,it,erp,it,b2c,gb,pmp,can,can,canalyzer,canoe,system,integration,ecu,3,canoe,can,ecu,integration,lin,flexray,sw,c,c,rtos,jira,confluence,ios,app,connected,car,iot,android,ios,mvc,mvp,mvvm,java,swift,objective,c,api,graphql,jira,git,confluence,iot,flutter,react,native,firebase,crashlytics,db,rdb,nosql,app,db,nosql,mysql,oracle,mongodb,redis,db,orm,apm,slow,query,log,aws,gcp,azure,dbaas,cicd,db,etl,big,data,hadoop,spark,office,office,it,erp,it,b2c,gb,pmp,can,can,canalyzer,canoe,system,integration,ecu,3,canoe,can,ecu,integration,lin,flexray,sw,c,c,rtos,jira,confluence,ios,app,connected,car,iot,android,ios,mvc,mvp,mvvm,java,swift,objective,c,api,graphql,jira,git,confluence,iot,flutter,react,native,firebase,crashlytics,db,rdb,nosql,app,db,nosql,mysql,oracle,mongodb,redis,db,orm,apm,slow,query,log,aws,gcp,azure,dbaas,cicd,db,etl,big,data,hadoop,spark,office,office,it,erp,it,b2c,gb,pmp,can,can,canalyzer,canoe,system,integration,ecu,3,canoe,can,ecu,integration,lin,flexray,sw,c,c,rtos,jira,confluence,ios,app,connected,car,iot,android,ios,mvc,mvp,mvvm,java,swift,objective,c,api,graphql,jira,git,confluence,iot,flutter,react,native,firebase,crashlytics,db,rdb,nosql,app,db,nosql,mysql,oracle,mongodb,redis,db,orm,apm,slow,query,log,aws,gcp,azure,dbaas,cicd,db,etl,big,data,hadoop,spark,office,office,08,00,17,00,800m,54006,1588,2,08,00,17,00,800m,54006,1588,2</t>
+          <t>graphql,react,java,mysql,mongodb,redis,swift,flutter,firebase,aws,gcp,azure</t>
         </is>
       </c>
     </row>
@@ -17731,6 +17527,7 @@
           <t>7 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -17753,6 +17550,7 @@
           <t>2 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -17775,6 +17573,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -17797,6 +17596,7 @@
           <t>6 ~ 9년 · 정규직</t>
         </is>
       </c>
+      <c r="E715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -17819,6 +17619,7 @@
           <t>7 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -17841,6 +17642,7 @@
           <t>2 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -17865,7 +17667,7 @@
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>b2b,next,js,typescript,react,aws,react,js,react,native,next,js,npm,d3,js,ui,naver,map,kakao,map,hotjar,native</t>
+          <t>typescript,react,aws</t>
         </is>
       </c>
     </row>
@@ -17890,6 +17692,7 @@
           <t>경력 6년↑ · 정규직 외</t>
         </is>
       </c>
+      <c r="E719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -17914,7 +17717,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>2,vmware,kvm,trouble,shooting,vmware,kvm,kvm,vmware,linux,dlp,vmware,aws,dlp,ips,ids,utm,ccna,lpic,rhcsa,aws,azure,bash,python,09,00,18,05836,11,1,500m,2,vmware,kvm,trouble,shooting,vmware,kvm,kvm,vmware,linux,dlp,vmware,aws,dlp,ips,ids,utm,ccna,lpic,rhcsa,aws,azure,bash,python,2,2,vmware,kvm,trouble,shooting,vmware,kvm,kvm,vmware,linux,dlp,vmware,aws,dlp,ips,ids,utm,ccna,lpic,rhcsa,aws,azure,bash,python,vmware,kvm,trouble,shooting,vmware,kvm,kvm,vmware,linux,dlp,vmware,aws,dlp,ips,ids,utm,ccna,lpic,rhcsa,aws,azure,bash,python,09,00,18,05836,11,1,500m,09,00,18,00,05836,11,1,500m</t>
+          <t>python,aws,azure</t>
         </is>
       </c>
     </row>
@@ -17939,11 +17742,7 @@
           <t>경력 5년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E721" t="inlineStr">
-        <is>
-          <t>div,div,2,cisco,isp,os,ios,xr,06179,512,500m,2,cisco,isp,os,ios,xr,2,2,cisco,isp,os,ios,xr,cisco,isp,os,ios,xr,06179,512,500m,06179,512,500m</t>
-        </is>
-      </c>
+      <c r="E721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -17966,11 +17765,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E722" t="inlineStr">
-        <is>
-          <t>cto,div,ai,ml,end,to,end,vlan,vxlan,vrrp,nat,ai,gpu,rocev2,hpc,ai,hpc,vxlan,vrrp,nat,gpu,infiniband,rocev2,vxlan,vrrp,nat,iso,27001,csap,isms,p,nos,infiniband,rocev2,high,performance,computing,ccnp,ccie</t>
-        </is>
-      </c>
+      <c r="E722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -17993,6 +17788,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -18015,6 +17811,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -18037,11 +17834,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E725" t="inlineStr">
-        <is>
-          <t>it,si,av,it,si,av,zoom,teams,04782,7,300m,zoom,teams,zoom,teams,zoom,teams,zoom,teams,04782,7,300m,04782,7,300m</t>
-        </is>
-      </c>
+      <c r="E725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -18066,7 +17859,7 @@
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>nextjs,approuter,typescript,nextjs,spa,nextjs,spa,react,query,recoil,ssr,git,monorepo,ui,ux,nestjs,typescript,api,api,api,api,full,stack,react,next,js,ci,cd,ddd,tdd,09,30,18,04796,3,500m,nextjs,approuter,typescript,nextjs,spa,nextjs,spa,react,query,recoil,ssr,git,monorepo,ui,ux,nestjs,typescript,api,api,api,api,full,stack,react,next,js,ci,cd,ddd,tdd,nextjs,approuter,typescript,nextjs,spa,nextjs,spa,react,query,recoil,ssr,git,monorepo,ui,ux,nestjs,typescript,api,api,api,api,full,stack,react,next,js,ci,cd,ddd,tdd,09,30,18,04796,3,500m,09,30,18,30,04796,3,500m</t>
+          <t>typescript,react,recoil</t>
         </is>
       </c>
     </row>
@@ -18091,11 +17884,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>router,switch,network,5,router,switch,network,5,ccnp,09,00,18,05661,3,16,100m,ccnp,ccnp,ccnp,ccnp,ccie,09,00,18,05661,3,16,100m,09,00,18,00,05661,3,16,100m</t>
-        </is>
-      </c>
+      <c r="E727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -18118,6 +17907,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -18140,6 +17930,7 @@
           <t>16 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -18162,11 +17953,7 @@
           <t>경력 · 정규직</t>
         </is>
       </c>
-      <c r="E730" t="inlineStr">
-        <is>
-          <t>iaas,paas,cmp,sales,dell,lenovo,netapp,hitachi,iaas,paas,cmp,sales,dell,lenovo,netapp,hitachi,04551,100,04551,100</t>
-        </is>
-      </c>
+      <c r="E730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -18189,6 +17976,7 @@
           <t>11 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -18211,11 +17999,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E732" t="inlineStr">
-        <is>
-          <t>ccna,36759,455,ccna,ccna,ccna,ccna,36759,455,36759,455</t>
-        </is>
-      </c>
+      <c r="E732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -18238,11 +18022,7 @@
           <t>경력무관 · 계약직</t>
         </is>
       </c>
-      <c r="E733" t="inlineStr">
-        <is>
-          <t>it,it,it,it</t>
-        </is>
-      </c>
+      <c r="E733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -18265,6 +18045,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -18289,7 +18070,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>idc,idc,linux,windows,bash,perl,python,promql,linux,windows,os,hw,apache,mysql,postgresql,dns,iis,script,bash,perl,python,powershell,promql,idc,idc,script,bash,perl,python,powershell,promql,os,kt,idc,1,233,5,323,09,00,18,00,15,00,22,00,22,00,09,00,09,00,18,00,09,00,18,00,09,00,18,00,22,00,09,00,09,00,18,00,aml,google,meet,kt,idc,1,233,5,323,02,3284,0293,e,mail,recruit,cafe24corp,com,cg,cultural,group,onestop,ai,30,idc,idc,linux,windows,bash,perl,python,promql,linux,windows,os,hw,apache,mysql,postgresql,dns,iis,script,bash,perl,python,powershell,promql,idc,idc,script,bash,perl,python,powershell,promql,os,kt,idc,1,233,5,323,09,00,18,00,15,00,22,00,22,00,09,00,09,00,18,00,09,00,18,00,09,00,18,00,22,00,09,00,09,00,18,00,aml,idc,idc,linux,windows,bash,perl,python,promql,linux,windows,os,hw,apache,mysql,postgresql,dns,iis,script,bash,perl,python,powershell,promql,idc,idc,script,bash,perl,python,powershell,promql,os,kt,idc,1,233,5,323,09,00,18,00,15,00,22,00,22,00,09,00,09,00,18,00,09,00,18,00,09,00,18,00,22,00,09,00,09,00,18,00,aml,idc,linux,windows,bash,perl,python,promql,linux,windows,os,hw,apache,mysql,postgresql,dns,iis,script,bash,perl,python,powershell,promql,idc,idc,script,bash,perl,python,powershell,promql,os,kt,idc,1,233,5,323,09,00,18,00,15,00,22,00,22,00,09,00,09,00,18,00,09,00,18,00,09,00,18,00,22,00,09,00,09,00,18,00,aml,google,meet,kt,idc,1,233,5,323,02,3284,0293,e,mail,recruit,cafe24corp,com,cg,cultural,group,onestop,ai,30,google,meet,google,meet,kt,idc,1,233,5,323,kt,idc,1,233,5,323,02,3284,0293,e,mail,recruit,cafe24corp,com,02,3284,0293,e,mail,recruit,cafe24corp,com,cg,cultural,group,cg,cultural,group,cg,cultural,group,onestop,ai,30,onestop,ai,30,ai,30</t>
+          <t>python,apache,mysql,postgresql</t>
         </is>
       </c>
     </row>
@@ -18314,11 +18095,7 @@
           <t>신입 · 경력 · 정규직 외</t>
         </is>
       </c>
-      <c r="E736" t="inlineStr">
-        <is>
-          <t>cctv,cctv</t>
-        </is>
-      </c>
+      <c r="E736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -18343,7 +18120,7 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>sw,cctv,sw,cctv,ccna,cisco,certification,network,associate,spring,mac,09,00,18,13493,230,800m,ccna,cisco,certification,network,associate,spring,mac,ccna,cisco,certification,network,associate,spring,mac,ccna,cisco,certification,network,associate,spring,mac,ccna,cisco,certification,network,associate,spring,mac,09,00,18,13493,230,800m,09,00,18,00,13493,230,800m</t>
+          <t>spring</t>
         </is>
       </c>
     </row>
@@ -18368,6 +18145,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -18390,6 +18168,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -18412,11 +18191,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E740" t="inlineStr">
-        <is>
-          <t>2,ccnp,ccna,firmware,l2,l3,olt,l2,l3,olt,os,isp,13493,49,800m,2,ccnp,ccna,firmware,l2,l3,olt,l2,l3,olt,os,isp,2,ccnp,ccna,firmware,2,ccnp,ccna,firmware,l2,l3,olt,l2,l3,olt,os,isp,l2,l3,olt,l2,l3,olt,os,isp,13493,49,800m,13493,49,800m</t>
-        </is>
-      </c>
+      <c r="E740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -18441,7 +18216,7 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>2,typescript,react,native,react,react,js,js,139,727,250,3,800m,2,typescript,react,native,react,react,js,js,2,typescript,react,native,react,2,typescript,react,native,react,react,js,js,react,js,js,js,139,727,250,3,800m,139,727,250,3,800m</t>
+          <t>typescript,react</t>
         </is>
       </c>
     </row>
@@ -18468,7 +18243,7 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>cisco,firepower,asa,ise,ips,vpn,ccna,ccnp,ccie,09,00,18,04528,3,300m,cisco,firepower,asa,ise,ips,vpn,ccna,ccnp,ccie,cisco,firepower,asa,ise,ips,vpn,ccna,ccnp,ccie,cisco,firepower,asa,ise,ips,vpn,ccna,ccnp,ccie,cisco,firepower,asa,ise,ips,vpn,ccna,ccnp,ccie,09,00,18,04528,3,300m,09,00,18,00,04528,3,300m</t>
+          <t>vpn</t>
         </is>
       </c>
     </row>
@@ -18493,11 +18268,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E743" t="inlineStr">
-        <is>
-          <t>si,erp,si,erp,ito,cisco,ap,08,00,17,31040,77,ito,cisco,ap,ito,cisco,ap,cisco,ap,08,00,17,31040,77,08,00,17,00,31040,77</t>
-        </is>
-      </c>
+      <c r="E743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -18520,6 +18291,7 @@
           <t>2 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -18542,11 +18314,7 @@
           <t>경력 10년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E745" t="inlineStr">
-        <is>
-          <t>ccnp,cisco,hp,ccnp,cisco,hp,ccnp,cisco,hp,08,30,17,30,04366,138,800m,08,30,17,30,04366,138,800m</t>
-        </is>
-      </c>
+      <c r="E745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -18571,7 +18339,7 @@
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>welcome,to,join,us,welcome,to,join,us,si,vue,js,node,js,java,oracle,mysql,vuejs,frontend,framework,rest,framework,jpa,pub,sub,137,070,1543,1,300m,q,a,q,a,cti,ivr,app,pds,ecs,ui,esp,ecs,service,platform,q,a,ecs,ecs,q,a,eap,ecs,assessment,plan,q,a,ecs,q,a,q,a,ecs,si,vue,js,node,js,java,oracle,mysql,vuejs,frontend,framework,rest,framework,jpa,pub,sub,si,vue,js,node,js,java,oracle,mysql,vuejs,frontend,framework,rest,framework,jpa,pub,sub,si,vue,js,node,js,java,oracle,mysql,vuejs,frontend,framework,rest,framework,jpa,pub,sub,137,070,1543,1,300m,137,070,1543,1,300m,q,a,q,a,cti,ivr,app,pds,ecs,ui,esp,ecs,service,platform,q,a,ecs,ecs,q,a,eap,ecs,assessment,plan,q,a,ecs,q,a,q,a,ecs,q,a,q,a,cti,ivr,app,pds,ecs,ui,esp,ecs,service,platform,q,a,ecs,ecs,q,a,eap,ecs,assessment,plan,q,a,ecs,q,a,q,a,ecs</t>
+          <t>vue,java,mysql</t>
         </is>
       </c>
     </row>
@@ -18596,6 +18364,7 @@
           <t>5 ~ 12년 · 정규직</t>
         </is>
       </c>
+      <c r="E747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -18618,6 +18387,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -18640,6 +18410,7 @@
           <t>경력 4년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -18662,6 +18433,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -18686,7 +18458,7 @@
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>erp,oa,2,3,specialist,apac,it,it,microsoft,active,directory,azure,intune,microsoft,windows,10,windows,server,2016,2019,microsoft,365,teams,outlook,word,excel,cisco,wifi,itil,ecount,100,it,specialist,08,30,17,30,431,716,883,800m,ojt,1,1,ef,english,live,business,refresh,hr,bluetem,co,kr,erp,oa,2,3,specialist,apac,it,it,microsoft,active,directory,azure,intune,microsoft,windows,10,windows,server,2016,2019,microsoft,365,teams,outlook,word,excel,cisco,wifi,itil,ecount,erp,oa,2,3,erp,oa,2,3,apac,it,it,microsoft,active,directory,azure,intune,microsoft,windows,10,windows,server,2016,2019,microsoft,365,teams,outlook,word,excel,cisco,wifi,itil,ecount,apac,it,it,microsoft,active,directory,azure,intune,microsoft,windows,10,windows,server,2016,2019,microsoft,365,teams,outlook,word,excel,cisco,wifi,itil,ecount,100,it,specialist,08,30,17,30,431,716,883,800m,it,specialist,08,30,17,30,431,716,883,800m,ojt,1,1,ef,english,live,business,refresh,ojt,1,1,ef,english,live,business,refresh,ojt,1,1,ef,english,live,business,refresh,hr,bluetem,co,kr,hr,bluetem,co,kr,hr,bluetem,co,kr</t>
+          <t>azure</t>
         </is>
       </c>
     </row>
@@ -18711,11 +18483,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E752" t="inlineStr">
-        <is>
-          <t>system,system</t>
-        </is>
-      </c>
+      <c r="E752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -18738,11 +18506,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E753" t="inlineStr">
-        <is>
-          <t>sk,sk,ccna,sk,ccna,ccna,ccna,sk,sk</t>
-        </is>
-      </c>
+      <c r="E753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -18765,11 +18529,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E754" t="inlineStr">
-        <is>
-          <t>2,cisco,extreme,hp,aruba,axgate,juniper,utm,kt,idc,2,cisco,extreme,hp,aruba,axgate,juniper,utm,2,2,cisco,extreme,hp,aruba,axgate,juniper,utm,cisco,extreme,hp,aruba,axgate,juniper,utm,kt,idc,kt,idc</t>
-        </is>
-      </c>
+      <c r="E754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -18792,6 +18552,7 @@
           <t>1 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -18816,7 +18577,7 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>js,react,js,next,js,low,code,js,api,ui,ux,ssr,ssg,api,js,react,js,next,js,js,ssr,ssg,api,ux,cd,135,873,108,7,300m,js,react,js,next,js,low,code,js,api,ui,ux,ssr,ssg,api,js,react,js,next,js,js,ssr,ssg,api,ux,cd,js,react,js,next,js,low,code,js,api,ui,ux,ssr,ssg,api,js,react,js,next,js,js,ssr,ssg,api,ux,cd,js,react,js,next,js,low,code,js,api,ui,ux,ssr,ssg,api,js,react,js,next,js,js,ssr,ssg,api,ux,cd,cd,135,873,108,7,300m,135,873,108,7,300m</t>
+          <t>react</t>
         </is>
       </c>
     </row>
@@ -18843,7 +18604,7 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>00,java,react,lg,cns,ncd,lg,cns,ncd,kosa</t>
+          <t>react,java</t>
         </is>
       </c>
     </row>
@@ -18868,11 +18629,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E758" t="inlineStr">
-        <is>
-          <t>2,08,00,17,2,2,2,08,00,17,08,00,17,00</t>
-        </is>
-      </c>
+      <c r="E758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -18895,6 +18652,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -18919,7 +18677,7 @@
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>front,end,front,end,2,front,end,spring,react,pacs,spring,boot,spring,data,jpa,querydsl,spring,security,mysql,docker,aws,react,tailwindcss,react,query,storybook,cypress,jenkins,back,end,front,end,figma,rdb,rest,api,2,front,end,spring,react,pacs,spring,boot,spring,data,jpa,querydsl,spring,security,mysql,docker,aws,react,tailwindcss,react,query,storybook,cypress,jenkins,back,end,front,end,figma,rdb,rest,api,2,2,spring,react,pacs,spring,boot,spring,data,jpa,querydsl,spring,security,mysql,docker,aws,react,tailwindcss,react,query,storybook,cypress,jenkins,back,end,front,end,figma,rdb,rest,api,09,00,18,00,08378,43,300m,09,00,18,00,08378,43,300m,front,end,front,end</t>
+          <t>react,tailwindcss,storybook,cypress,spring,mysql,docker,aws,jenkins</t>
         </is>
       </c>
     </row>
@@ -18944,6 +18702,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -18968,7 +18727,7 @@
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t>2,50,2025,2,50,2025,android,application,coroutines,jetpack,viewmodel,livedata,room,or,playstore,mvvm,it,09,00,18,00,06250,8,800m,or,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,android,application,coroutines,jetpack,viewmodel,livedata,room,or,playstore,mvvm,it,android,application,coroutines,jetpack,viewmodel,livedata,room,or,playstore,mvvm,it,android,application,coroutines,jetpack,viewmodel,livedata,room,or,playstore,mvvm,it,09,00,18,00,06250,8,800m,09,00,18,00,06250,8,800m,or,or,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,wwdc</t>
+          <t>room,aws</t>
         </is>
       </c>
     </row>
@@ -18995,7 +18754,7 @@
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>2,50,2025,2,50,2025,android,ios,web,or,riverpod,getx,to,app,ios,flutter,package,web,it,09,00,18,00,06250,8,800m,or,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,android,ios,web,or,riverpod,getx,to,app,ios,flutter,package,web,it,android,ios,web,or,riverpod,getx,to,app,ios,flutter,package,web,it,android,ios,web,or,riverpod,getx,to,app,ios,flutter,package,web,it,09,00,18,00,06250,8,800m,09,00,18,00,06250,8,800m,or,or,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,50,50,m1,aws,re,invent,facebook,f8,google,i,o,ios,wwdc</t>
+          <t>flutter,aws</t>
         </is>
       </c>
     </row>
@@ -19020,11 +18779,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
-      <c r="E764" t="inlineStr">
-        <is>
-          <t>2,10073,247,200m,2,2,2,10073,247,200m,10073,247,200m</t>
-        </is>
-      </c>
+      <c r="E764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -19047,11 +18802,7 @@
           <t>경력 2년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E765" t="inlineStr">
-        <is>
-          <t>enterprise,datacenter,cisco,r,s,wireless,sdn,ccna,ccnp,ccie,09,00,18,04528,3,300m,enterprise,datacenter,cisco,r,s,wireless,sdn,ccna,ccnp,ccie,enterprise,datacenter,cisco,r,s,wireless,sdn,ccna,ccnp,ccie,enterprise,datacenter,cisco,r,s,wireless,sdn,ccna,ccnp,ccie,enterprise,datacenter,cisco,r,s,wireless,sdn,ccna,ccnp,ccie,09,00,18,04528,3,300m,09,00,18,00,04528,3,300m</t>
-        </is>
-      </c>
+      <c r="E765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -19076,7 +18827,7 @@
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>javascript,es6,js,app,router,next,js,api,09,00,18,34202,43,javascript,es6,js,app,router,next,js,api,javascript,es6,js,app,router,next,js,api,javascript,es6,js,app,router,next,js,api,09,00,18,34202,43,09,00,18,00,34202,43</t>
+          <t>javascript</t>
         </is>
       </c>
     </row>
@@ -19101,11 +18852,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
-      <c r="E767" t="inlineStr">
-        <is>
-          <t>ae,08507,168,907,908</t>
-        </is>
-      </c>
+      <c r="E767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -19128,6 +18875,7 @@
           <t>5 ~ 12년 · 정규직</t>
         </is>
       </c>
+      <c r="E768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -19152,7 +18900,7 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>cloud,cloud,cloud,ca,ca,ncloud,vpc,server,nks,nas,aws,vpc,ec2,eks,efs,linux,rocky,redhat,ubuntu,iac,infrastructure,as,code,terraform,cloudformation,ci,cd,github,gitlab,jenkins,argocd,web,was,apache,tomcat,mysql,oracle,postgresql,react,js,vue,js,node,js,spring,boot,flask,restful,api,msa,cloud,https,www,solideng,co,kr,solid,sub020202,php,https,buly,kr,7beod7k,https,youtu,be,7iffshueiig,https,youtu,be,09,00,18,34068,40,200m,cloud,ca,ca,ncloud,vpc,server,nks,nas,aws,vpc,ec2,eks,efs,linux,rocky,redhat,ubuntu,iac,infrastructure,as,code,terraform,cloudformation,ci,cd,github,gitlab,jenkins,argocd,web,was,apache,tomcat,mysql,oracle,postgresql,react,js,vue,js,node,js,spring,boot,flask,restful,api,msa,cloud,https,www,solideng,co,kr,solid,sub020202,php,https,buly,kr,7beod7k,https,youtu,be,7iffshueiig,https,youtu,be,cloud,ca,ca,ncloud,vpc,server,nks,nas,aws,vpc,ec2,eks,efs,linux,rocky,redhat,ubuntu,iac,infrastructure,as,code,terraform,cloudformation,ci,cd,github,gitlab,jenkins,argocd,web,was,apache,tomcat,mysql,oracle,postgresql,react,js,vue,js,node,js,spring,boot,flask,restful,api,msa,cloud,https,www,solideng,co,kr,solid,sub020202,php,https,buly,kr,7beod7k,https,youtu,be,7iffshueiig,https,youtu,be,09,00,18,34068,40,200m,09,00,18,00,34068,40,200m</t>
+          <t>react,vue,apache,mysql,postgresql,spring,flask,php,aws,ec2,terraform,cloudformation,jenkins</t>
         </is>
       </c>
     </row>
@@ -19177,11 +18925,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
-      <c r="E770" t="inlineStr">
-        <is>
-          <t>14,7,si,ni,14,7,si,ni,bmt,osn8800,infinera,ptn,wdm,bmt,osn8800,infinera,ptn,wdm,bmt,osn8800,infinera,ptn,wdm,14,7,14,7,14,7</t>
-        </is>
-      </c>
+      <c r="E770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -19204,6 +18948,7 @@
           <t>경력무관 · 정규직</t>
         </is>
       </c>
+      <c r="E771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
@@ -19228,7 +18973,7 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>aos,java,kotlin,ios,swift,flutter,aos,java,kotlin,ios,swift,flutter,aos,ios,kotlin,swift,aos,ios,or,react,native,kotlin,java,swift,09,00,18,08505,121,800m,aos,ios,kotlin,swift,aos,ios,or,react,native,kotlin,java,swift,aos,ios,kotlin,swift,aos,ios,or,react,native,kotlin,java,swift,kotlin,swift,aos,ios,or,react,native,kotlin,java,swift,09,00,18,08505,121,800m,09,00,18,00,08505,121,800m</t>
+          <t>react,java,kotlin,swift,flutter</t>
         </is>
       </c>
     </row>
@@ -19253,6 +18998,7 @@
           <t>6 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -19275,11 +19021,7 @@
           <t>경력무관 · 정규직 외</t>
         </is>
       </c>
-      <c r="E774" t="inlineStr">
-        <is>
-          <t>open,layer,09,30,18,04799,280,800m,open,layer,open,layer,open,layer,open,layer,09,30,18,04799,280,800m,09,30,18,30,04799,280,800m</t>
-        </is>
-      </c>
+      <c r="E774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -19302,11 +19044,7 @@
           <t>경력무관 · 정규직 외</t>
         </is>
       </c>
-      <c r="E775" t="inlineStr">
-        <is>
-          <t>2,ncs,09,00,18,00,44705,26,2,ncs,2,2,ncs,ncs,ncs,09,00,18,00,44705,26,09,00,18,00,44705,26</t>
-        </is>
-      </c>
+      <c r="E775" t="inlineStr"/>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -19331,7 +19069,7 @@
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>ruby,aws,api,ruby,on,rails,sdk,open,api,ruby,on,rails,aws,rest,api,ci,cd,dbms,mysql,graphql,ruby,on,rails,elastic,stack,infrastructure,terraform,pos,pos,react,react,native,pos,react,javascript,react,react,native,mobx,redux,react,native,html,css,aws,docker,node,figma,ui,ux,13989,424,ruby,aws,api,ruby,on,rails,sdk,open,api,ruby,on,rails,aws,rest,api,ci,cd,dbms,mysql,graphql,ruby,on,rails,elastic,stack,infrastructure,terraform,pos,pos,react,react,native,pos,react,javascript,react,react,native,mobx,redux,react,native,html,css,aws,docker,node,figma,ui,ux,ruby,aws,api,ruby,on,rails,sdk,open,api,ruby,on,rails,aws,rest,api,ci,cd,dbms,mysql,graphql,ruby,on,rails,elastic,stack,infrastructure,terraform,pos,pos,react,react,native,pos,react,javascript,react,react,native,mobx,redux,react,native,html,css,aws,docker,node,figma,ui,ux,ruby,aws,api,ruby,on,rails,sdk,open,api,ruby,on,rails,aws,rest,api,ci,cd,dbms,mysql,graphql,ruby,on,rails,elastic,stack,infrastructure,terraform,pos,pos,react,react,native,pos,react,javascript,react,react,native,mobx,redux,react,native,html,css,aws,docker,node,figma,ui,ux,13989,424,13989,424</t>
+          <t>graphql,react,javascript,mobx,redux,mysql,docker,aws,terraform</t>
         </is>
       </c>
     </row>
@@ -19358,7 +19096,7 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>it,it,it,erp,mes,active,directory,css,coding,pc,it,python,712,881,116,it,erp,mes,active,directory,css,coding,pc,it,python,erp,mes,active,directory,css,coding,pc,it,python,erp,mes,active,directory,css,coding,pc,it,python,712,881,116,2,712,881,116,2</t>
+          <t>python</t>
         </is>
       </c>
     </row>
@@ -19383,6 +19121,7 @@
           <t>10 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -19405,6 +19144,7 @@
           <t>5 ~ 15년 · 정규직</t>
         </is>
       </c>
+      <c r="E779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -19427,6 +19167,7 @@
           <t>1 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -19449,6 +19190,7 @@
           <t>5 ~ 10년 · 정규직</t>
         </is>
       </c>
+      <c r="E781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
@@ -19471,6 +19213,7 @@
           <t>신입 · 경력 · 정규직</t>
         </is>
       </c>
+      <c r="E782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -19493,6 +19236,7 @@
           <t>3 ~ 7년 · 정규직</t>
         </is>
       </c>
+      <c r="E783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -19515,6 +19259,7 @@
           <t>경력무관 · 정규직 외</t>
         </is>
       </c>
+      <c r="E784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
@@ -19537,6 +19282,7 @@
           <t>경력 3년↑ · 정규직</t>
         </is>
       </c>
+      <c r="E785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -19559,6 +19305,7 @@
           <t>6 ~ 9년 · 정규직</t>
         </is>
       </c>
+      <c r="E786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
@@ -19581,6 +19328,7 @@
           <t>2 ~ 5년 · 정규직</t>
         </is>
       </c>
+      <c r="E787" t="inlineStr"/>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
@@ -19603,6 +19351,7 @@
           <t>10 ~ 20년 · 정규직</t>
         </is>
       </c>
+      <c r="E788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
